--- a/evaluatiefiches/keukenmedewerker/Evaluatie initiatie keuken ( nieuwe versie )(10844).xlsx
+++ b/evaluatiefiches/keukenmedewerker/Evaluatie initiatie keuken ( nieuwe versie )(10844).xlsx
@@ -1146,256 +1146,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,8 +1209,258 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,8 +1802,8 @@
   </sheetPr>
   <dimension ref="A1:BS145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,537 +1825,537 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="86"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="87"/>
-      <c r="BL1" s="86"/>
-      <c r="BM1" s="87"/>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="87"/>
-      <c r="BP1" s="130"/>
-      <c r="BQ1" s="130"/>
-      <c r="BR1" s="86"/>
-      <c r="BS1" s="87"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="42"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="42"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="42"/>
+      <c r="BS1" s="43"/>
     </row>
     <row r="2" spans="1:71" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="88"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="89"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="89"/>
-      <c r="BP2" s="130"/>
-      <c r="BQ2" s="130"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="89"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="48"/>
+      <c r="BQ2" s="48"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="45"/>
     </row>
     <row r="3" spans="1:71" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="88"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="88"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="88"/>
-      <c r="BA3" s="89"/>
-      <c r="BB3" s="88"/>
-      <c r="BC3" s="89"/>
-      <c r="BD3" s="88"/>
-      <c r="BE3" s="89"/>
-      <c r="BF3" s="88"/>
-      <c r="BG3" s="89"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="89"/>
-      <c r="BJ3" s="88"/>
-      <c r="BK3" s="89"/>
-      <c r="BL3" s="88"/>
-      <c r="BM3" s="89"/>
-      <c r="BN3" s="88"/>
-      <c r="BO3" s="89"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="88"/>
-      <c r="BS3" s="89"/>
+      <c r="B3" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="124"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="44"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="44"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="44"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="44"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="44"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="44"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="44"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="48"/>
+      <c r="BQ3" s="48"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="45"/>
     </row>
     <row r="4" spans="1:71" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="89"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="89"/>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="130"/>
-      <c r="BQ4" s="130"/>
-      <c r="BR4" s="88"/>
-      <c r="BS4" s="89"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="44"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="44"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="44"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="44"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="48"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="45"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="89"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="89"/>
-      <c r="BF5" s="88"/>
-      <c r="BG5" s="89"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="89"/>
-      <c r="BJ5" s="88"/>
-      <c r="BK5" s="89"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="89"/>
-      <c r="BN5" s="88"/>
-      <c r="BO5" s="89"/>
-      <c r="BP5" s="130"/>
-      <c r="BQ5" s="130"/>
-      <c r="BR5" s="88"/>
-      <c r="BS5" s="89"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="45"/>
     </row>
     <row r="6" spans="1:71" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="91"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="91"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="91"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="90"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="130"/>
-      <c r="BQ6" s="130"/>
-      <c r="BR6" s="90"/>
-      <c r="BS6" s="91"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="47"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="47"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="47"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="47"/>
+      <c r="BP6" s="48"/>
+      <c r="BQ6" s="48"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="47"/>
     </row>
     <row r="7" spans="1:71" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="82"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="82"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="82"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="82"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="82"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="82"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="82"/>
-      <c r="BM7" s="83"/>
-      <c r="BN7" s="82"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="82"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="82"/>
-      <c r="BS7" s="83"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="50"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="50"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="50"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="50"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="50"/>
     </row>
     <row r="8" spans="1:71" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="6" t="s">
         <v>161</v>
       </c>
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="63" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2958,15 +2958,15 @@
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="17">
         <v>1</v>
       </c>
@@ -3161,15 +3161,15 @@
       </c>
     </row>
     <row r="12" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="17">
         <v>0</v>
       </c>
@@ -3364,17 +3364,17 @@
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="121" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="17">
         <v>2</v>
       </c>
@@ -3569,15 +3569,15 @@
       </c>
     </row>
     <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="17">
         <v>3</v>
       </c>
@@ -3772,15 +3772,15 @@
       </c>
     </row>
     <row r="15" spans="1:71" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="17">
         <v>0</v>
       </c>
@@ -3975,15 +3975,15 @@
       </c>
     </row>
     <row r="16" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="122"/>
+      <c r="B16" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="17">
         <v>1</v>
       </c>
@@ -4178,17 +4178,17 @@
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="17">
         <v>5</v>
       </c>
@@ -4383,15 +4383,15 @@
       </c>
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="17">
         <v>0</v>
       </c>
@@ -4586,15 +4586,15 @@
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="64"/>
+      <c r="B19" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="17">
         <v>7</v>
       </c>
@@ -4789,15 +4789,15 @@
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="17">
         <v>1</v>
       </c>
@@ -4992,17 +4992,17 @@
       </c>
     </row>
     <row r="21" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="17">
         <v>3</v>
       </c>
@@ -5197,15 +5197,15 @@
       </c>
     </row>
     <row r="22" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="17">
         <v>45</v>
       </c>
@@ -5400,15 +5400,15 @@
       </c>
     </row>
     <row r="23" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
@@ -5603,15 +5603,15 @@
       </c>
     </row>
     <row r="24" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="17">
         <v>7</v>
       </c>
@@ -5806,15 +5806,15 @@
       </c>
     </row>
     <row r="25" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="17">
         <v>1</v>
       </c>
@@ -6009,17 +6009,17 @@
       </c>
     </row>
     <row r="26" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="17">
         <v>3</v>
       </c>
@@ -6214,15 +6214,15 @@
       </c>
     </row>
     <row r="27" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="17">
         <v>45</v>
       </c>
@@ -6417,15 +6417,15 @@
       </c>
     </row>
     <row r="28" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="17">
         <v>8</v>
       </c>
@@ -6620,15 +6620,15 @@
       </c>
     </row>
     <row r="29" spans="1:71" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="17">
         <v>2</v>
       </c>
@@ -6823,15 +6823,15 @@
       </c>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="17">
         <v>0</v>
       </c>
@@ -7026,17 +7026,17 @@
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="17">
         <v>1</v>
       </c>
@@ -7231,15 +7231,15 @@
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="17">
         <v>6</v>
       </c>
@@ -7434,15 +7434,15 @@
       </c>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="17">
         <v>1</v>
       </c>
@@ -7637,15 +7637,15 @@
       </c>
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="64"/>
+      <c r="B34" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="17">
         <v>3</v>
       </c>
@@ -7840,17 +7840,17 @@
       </c>
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
       <c r="H35" s="17">
         <v>4</v>
       </c>
@@ -8045,15 +8045,15 @@
       </c>
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A36" s="56"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="106"/>
+      <c r="B36" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="17">
         <v>2</v>
       </c>
@@ -8248,15 +8248,15 @@
       </c>
     </row>
     <row r="37" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A37" s="56"/>
-      <c r="B37" s="47" t="s">
+      <c r="A37" s="106"/>
+      <c r="B37" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
       <c r="H37" s="17">
         <v>2</v>
       </c>
@@ -8451,15 +8451,15 @@
       </c>
     </row>
     <row r="38" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="107"/>
+      <c r="B38" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
       <c r="H38" s="17">
         <v>0</v>
       </c>
@@ -8654,17 +8654,17 @@
       </c>
     </row>
     <row r="39" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
       <c r="H39" s="17">
         <v>1</v>
       </c>
@@ -8859,15 +8859,15 @@
       </c>
     </row>
     <row r="40" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="64"/>
+      <c r="B40" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="17">
         <v>6</v>
       </c>
@@ -9062,15 +9062,15 @@
       </c>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="29" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
       <c r="H41" s="17">
         <v>1</v>
       </c>
@@ -9265,17 +9265,17 @@
       </c>
     </row>
     <row r="42" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="109"/>
       <c r="H42" s="17">
         <v>3</v>
       </c>
@@ -9470,13 +9470,13 @@
       </c>
     </row>
     <row r="43" spans="1:71" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
       <c r="H43" s="17">
         <v>4</v>
       </c>
@@ -9671,17 +9671,17 @@
       </c>
     </row>
     <row r="44" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
       <c r="H44" s="17">
         <v>2</v>
       </c>
@@ -9876,13 +9876,13 @@
       </c>
     </row>
     <row r="45" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
       <c r="H45" s="17">
         <v>7</v>
       </c>
@@ -10077,13 +10077,13 @@
       </c>
     </row>
     <row r="46" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="17">
         <v>1</v>
       </c>
@@ -10278,311 +10278,311 @@
       </c>
     </row>
     <row r="47" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="110"/>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="110"/>
-      <c r="AI47" s="110"/>
-      <c r="AJ47" s="110"/>
-      <c r="AK47" s="110"/>
-      <c r="AL47" s="110"/>
-      <c r="AM47" s="110"/>
-      <c r="AN47" s="110"/>
-      <c r="AO47" s="110"/>
-      <c r="AP47" s="110"/>
-      <c r="AQ47" s="110"/>
-      <c r="AR47" s="110"/>
-      <c r="AS47" s="110"/>
-      <c r="AT47" s="110"/>
-      <c r="AU47" s="110"/>
-      <c r="AV47" s="110"/>
-      <c r="AW47" s="110"/>
-      <c r="AX47" s="110"/>
-      <c r="AY47" s="110"/>
-      <c r="AZ47" s="110"/>
-      <c r="BA47" s="110"/>
-      <c r="BB47" s="110"/>
-      <c r="BC47" s="110"/>
-      <c r="BD47" s="110"/>
-      <c r="BE47" s="110"/>
-      <c r="BF47" s="110"/>
-      <c r="BG47" s="110"/>
-      <c r="BH47" s="110"/>
-      <c r="BI47" s="110"/>
-      <c r="BJ47" s="110"/>
-      <c r="BK47" s="110"/>
-      <c r="BL47" s="110"/>
-      <c r="BM47" s="110"/>
-      <c r="BN47" s="110"/>
-      <c r="BO47" s="110"/>
-      <c r="BP47" s="110"/>
-      <c r="BQ47" s="110"/>
-      <c r="BR47" s="110"/>
-      <c r="BS47" s="111"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22"/>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22"/>
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22"/>
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22"/>
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22"/>
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22"/>
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22"/>
+      <c r="BS47" s="23"/>
     </row>
     <row r="48" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-      <c r="N48" s="113"/>
-      <c r="O48" s="113"/>
-      <c r="P48" s="113"/>
-      <c r="Q48" s="113"/>
-      <c r="R48" s="113"/>
-      <c r="S48" s="113"/>
-      <c r="T48" s="113"/>
-      <c r="U48" s="113"/>
-      <c r="V48" s="113"/>
-      <c r="W48" s="113"/>
-      <c r="X48" s="113"/>
-      <c r="Y48" s="113"/>
-      <c r="Z48" s="113"/>
-      <c r="AA48" s="113"/>
-      <c r="AB48" s="113"/>
-      <c r="AC48" s="113"/>
-      <c r="AD48" s="113"/>
-      <c r="AE48" s="113"/>
-      <c r="AF48" s="113"/>
-      <c r="AG48" s="113"/>
-      <c r="AH48" s="113"/>
-      <c r="AI48" s="113"/>
-      <c r="AJ48" s="113"/>
-      <c r="AK48" s="113"/>
-      <c r="AL48" s="113"/>
-      <c r="AM48" s="113"/>
-      <c r="AN48" s="113"/>
-      <c r="AO48" s="113"/>
-      <c r="AP48" s="113"/>
-      <c r="AQ48" s="113"/>
-      <c r="AR48" s="113"/>
-      <c r="AS48" s="113"/>
-      <c r="AT48" s="113"/>
-      <c r="AU48" s="113"/>
-      <c r="AV48" s="113"/>
-      <c r="AW48" s="113"/>
-      <c r="AX48" s="113"/>
-      <c r="AY48" s="113"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="113"/>
-      <c r="BC48" s="113"/>
-      <c r="BD48" s="113"/>
-      <c r="BE48" s="113"/>
-      <c r="BF48" s="113"/>
-      <c r="BG48" s="113"/>
-      <c r="BH48" s="113"/>
-      <c r="BI48" s="113"/>
-      <c r="BJ48" s="113"/>
-      <c r="BK48" s="113"/>
-      <c r="BL48" s="113"/>
-      <c r="BM48" s="113"/>
-      <c r="BN48" s="113"/>
-      <c r="BO48" s="113"/>
-      <c r="BP48" s="113"/>
-      <c r="BQ48" s="113"/>
-      <c r="BR48" s="113"/>
-      <c r="BS48" s="114"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="25"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="25"/>
+      <c r="AL48" s="25"/>
+      <c r="AM48" s="25"/>
+      <c r="AN48" s="25"/>
+      <c r="AO48" s="25"/>
+      <c r="AP48" s="25"/>
+      <c r="AQ48" s="25"/>
+      <c r="AR48" s="25"/>
+      <c r="AS48" s="25"/>
+      <c r="AT48" s="25"/>
+      <c r="AU48" s="25"/>
+      <c r="AV48" s="25"/>
+      <c r="AW48" s="25"/>
+      <c r="AX48" s="25"/>
+      <c r="AY48" s="25"/>
+      <c r="AZ48" s="25"/>
+      <c r="BA48" s="25"/>
+      <c r="BB48" s="25"/>
+      <c r="BC48" s="25"/>
+      <c r="BD48" s="25"/>
+      <c r="BE48" s="25"/>
+      <c r="BF48" s="25"/>
+      <c r="BG48" s="25"/>
+      <c r="BH48" s="25"/>
+      <c r="BI48" s="25"/>
+      <c r="BJ48" s="25"/>
+      <c r="BK48" s="25"/>
+      <c r="BL48" s="25"/>
+      <c r="BM48" s="25"/>
+      <c r="BN48" s="25"/>
+      <c r="BO48" s="25"/>
+      <c r="BP48" s="25"/>
+      <c r="BQ48" s="25"/>
+      <c r="BR48" s="25"/>
+      <c r="BS48" s="26"/>
     </row>
     <row r="49" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-      <c r="L49" s="113"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="113"/>
-      <c r="U49" s="113"/>
-      <c r="V49" s="113"/>
-      <c r="W49" s="113"/>
-      <c r="X49" s="113"/>
-      <c r="Y49" s="113"/>
-      <c r="Z49" s="113"/>
-      <c r="AA49" s="113"/>
-      <c r="AB49" s="113"/>
-      <c r="AC49" s="113"/>
-      <c r="AD49" s="113"/>
-      <c r="AE49" s="113"/>
-      <c r="AF49" s="113"/>
-      <c r="AG49" s="113"/>
-      <c r="AH49" s="113"/>
-      <c r="AI49" s="113"/>
-      <c r="AJ49" s="113"/>
-      <c r="AK49" s="113"/>
-      <c r="AL49" s="113"/>
-      <c r="AM49" s="113"/>
-      <c r="AN49" s="113"/>
-      <c r="AO49" s="113"/>
-      <c r="AP49" s="113"/>
-      <c r="AQ49" s="113"/>
-      <c r="AR49" s="113"/>
-      <c r="AS49" s="113"/>
-      <c r="AT49" s="113"/>
-      <c r="AU49" s="113"/>
-      <c r="AV49" s="113"/>
-      <c r="AW49" s="113"/>
-      <c r="AX49" s="113"/>
-      <c r="AY49" s="113"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="113"/>
-      <c r="BC49" s="113"/>
-      <c r="BD49" s="113"/>
-      <c r="BE49" s="113"/>
-      <c r="BF49" s="113"/>
-      <c r="BG49" s="113"/>
-      <c r="BH49" s="113"/>
-      <c r="BI49" s="113"/>
-      <c r="BJ49" s="113"/>
-      <c r="BK49" s="113"/>
-      <c r="BL49" s="113"/>
-      <c r="BM49" s="113"/>
-      <c r="BN49" s="113"/>
-      <c r="BO49" s="113"/>
-      <c r="BP49" s="113"/>
-      <c r="BQ49" s="113"/>
-      <c r="BR49" s="113"/>
-      <c r="BS49" s="114"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="25"/>
+      <c r="AH49" s="25"/>
+      <c r="AI49" s="25"/>
+      <c r="AJ49" s="25"/>
+      <c r="AK49" s="25"/>
+      <c r="AL49" s="25"/>
+      <c r="AM49" s="25"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="25"/>
+      <c r="AP49" s="25"/>
+      <c r="AQ49" s="25"/>
+      <c r="AR49" s="25"/>
+      <c r="AS49" s="25"/>
+      <c r="AT49" s="25"/>
+      <c r="AU49" s="25"/>
+      <c r="AV49" s="25"/>
+      <c r="AW49" s="25"/>
+      <c r="AX49" s="25"/>
+      <c r="AY49" s="25"/>
+      <c r="AZ49" s="25"/>
+      <c r="BA49" s="25"/>
+      <c r="BB49" s="25"/>
+      <c r="BC49" s="25"/>
+      <c r="BD49" s="25"/>
+      <c r="BE49" s="25"/>
+      <c r="BF49" s="25"/>
+      <c r="BG49" s="25"/>
+      <c r="BH49" s="25"/>
+      <c r="BI49" s="25"/>
+      <c r="BJ49" s="25"/>
+      <c r="BK49" s="25"/>
+      <c r="BL49" s="25"/>
+      <c r="BM49" s="25"/>
+      <c r="BN49" s="25"/>
+      <c r="BO49" s="25"/>
+      <c r="BP49" s="25"/>
+      <c r="BQ49" s="25"/>
+      <c r="BR49" s="25"/>
+      <c r="BS49" s="26"/>
     </row>
     <row r="50" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-      <c r="M50" s="122"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="122"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="122"/>
-      <c r="X50" s="122"/>
-      <c r="Y50" s="122"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="122"/>
-      <c r="AB50" s="122"/>
-      <c r="AC50" s="122"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="122"/>
-      <c r="AF50" s="122"/>
-      <c r="AG50" s="122"/>
-      <c r="AH50" s="122"/>
-      <c r="AI50" s="122"/>
-      <c r="AJ50" s="122"/>
-      <c r="AK50" s="122"/>
-      <c r="AL50" s="122"/>
-      <c r="AM50" s="122"/>
-      <c r="AN50" s="122"/>
-      <c r="AO50" s="122"/>
-      <c r="AP50" s="122"/>
-      <c r="AQ50" s="122"/>
-      <c r="AR50" s="122"/>
-      <c r="AS50" s="122"/>
-      <c r="AT50" s="122"/>
-      <c r="AU50" s="122"/>
-      <c r="AV50" s="122"/>
-      <c r="AW50" s="122"/>
-      <c r="AX50" s="122"/>
-      <c r="AY50" s="122"/>
-      <c r="AZ50" s="122"/>
-      <c r="BA50" s="122"/>
-      <c r="BB50" s="122"/>
-      <c r="BC50" s="122"/>
-      <c r="BD50" s="122"/>
-      <c r="BE50" s="122"/>
-      <c r="BF50" s="122"/>
-      <c r="BG50" s="122"/>
-      <c r="BH50" s="122"/>
-      <c r="BI50" s="122"/>
-      <c r="BJ50" s="122"/>
-      <c r="BK50" s="122"/>
-      <c r="BL50" s="122"/>
-      <c r="BM50" s="122"/>
-      <c r="BN50" s="122"/>
-      <c r="BO50" s="122"/>
-      <c r="BP50" s="122"/>
-      <c r="BQ50" s="122"/>
-      <c r="BR50" s="122"/>
-      <c r="BS50" s="123"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="34"/>
+      <c r="AP50" s="34"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="34"/>
+      <c r="AS50" s="34"/>
+      <c r="AT50" s="34"/>
+      <c r="AU50" s="34"/>
+      <c r="AV50" s="34"/>
+      <c r="AW50" s="34"/>
+      <c r="AX50" s="34"/>
+      <c r="AY50" s="34"/>
+      <c r="AZ50" s="34"/>
+      <c r="BA50" s="34"/>
+      <c r="BB50" s="34"/>
+      <c r="BC50" s="34"/>
+      <c r="BD50" s="34"/>
+      <c r="BE50" s="34"/>
+      <c r="BF50" s="34"/>
+      <c r="BG50" s="34"/>
+      <c r="BH50" s="34"/>
+      <c r="BI50" s="34"/>
+      <c r="BJ50" s="34"/>
+      <c r="BK50" s="34"/>
+      <c r="BL50" s="34"/>
+      <c r="BM50" s="34"/>
+      <c r="BN50" s="34"/>
+      <c r="BO50" s="34"/>
+      <c r="BP50" s="34"/>
+      <c r="BQ50" s="34"/>
+      <c r="BR50" s="34"/>
+      <c r="BS50" s="35"/>
     </row>
     <row r="51" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -10649,15 +10649,15 @@
       <c r="BS51" s="17"/>
     </row>
     <row r="52" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
-      <c r="B52" s="29" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -10724,7 +10724,7 @@
       <c r="BS52" s="17"/>
     </row>
     <row r="53" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -10801,15 +10801,15 @@
       <c r="BS53" s="17"/>
     </row>
     <row r="54" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="75"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -10876,15 +10876,15 @@
       <c r="BS54" s="17"/>
     </row>
     <row r="55" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A55" s="67"/>
-      <c r="B55" s="80" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -10951,17 +10951,17 @@
       <c r="BS55" s="17"/>
     </row>
     <row r="56" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -11028,15 +11028,15 @@
       <c r="BS56" s="17"/>
     </row>
     <row r="57" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A57" s="75"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="52"/>
+      <c r="B57" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -11103,15 +11103,15 @@
       <c r="BS57" s="17"/>
     </row>
     <row r="58" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A58" s="75"/>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="52"/>
+      <c r="B58" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -11178,17 +11178,17 @@
       <c r="BS58" s="17"/>
     </row>
     <row r="59" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -11255,15 +11255,15 @@
       <c r="BS59" s="17"/>
     </row>
     <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="75"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="52"/>
+      <c r="B60" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="93"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -11330,15 +11330,15 @@
       <c r="BS60" s="17"/>
     </row>
     <row r="61" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A61" s="75"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="52"/>
+      <c r="B61" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -11405,15 +11405,15 @@
       <c r="BS61" s="17"/>
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A62" s="67"/>
-      <c r="B62" s="28" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -11480,17 +11480,17 @@
       <c r="BS62" s="17"/>
     </row>
     <row r="63" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -11557,15 +11557,15 @@
       <c r="BS63" s="17"/>
     </row>
     <row r="64" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A64" s="77"/>
-      <c r="B64" s="27" t="s">
+      <c r="A64" s="98"/>
+      <c r="B64" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -11632,17 +11632,17 @@
       <c r="BS64" s="17"/>
     </row>
     <row r="65" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A65" s="66" t="s">
+      <c r="A65" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -11709,15 +11709,15 @@
       <c r="BS65" s="17"/>
     </row>
     <row r="66" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A66" s="67"/>
-      <c r="B66" s="27" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -11787,14 +11787,14 @@
       <c r="A67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -11861,311 +11861,311 @@
       <c r="BS67" s="17"/>
     </row>
     <row r="68" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="109" t="s">
+      <c r="A68" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="110"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="110"/>
-      <c r="G68" s="110"/>
-      <c r="H68" s="110"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="110"/>
-      <c r="K68" s="110"/>
-      <c r="L68" s="110"/>
-      <c r="M68" s="110"/>
-      <c r="N68" s="110"/>
-      <c r="O68" s="110"/>
-      <c r="P68" s="110"/>
-      <c r="Q68" s="110"/>
-      <c r="R68" s="110"/>
-      <c r="S68" s="110"/>
-      <c r="T68" s="110"/>
-      <c r="U68" s="110"/>
-      <c r="V68" s="110"/>
-      <c r="W68" s="110"/>
-      <c r="X68" s="110"/>
-      <c r="Y68" s="110"/>
-      <c r="Z68" s="110"/>
-      <c r="AA68" s="110"/>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
-      <c r="AF68" s="110"/>
-      <c r="AG68" s="110"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="110"/>
-      <c r="AJ68" s="110"/>
-      <c r="AK68" s="110"/>
-      <c r="AL68" s="110"/>
-      <c r="AM68" s="110"/>
-      <c r="AN68" s="110"/>
-      <c r="AO68" s="110"/>
-      <c r="AP68" s="110"/>
-      <c r="AQ68" s="110"/>
-      <c r="AR68" s="110"/>
-      <c r="AS68" s="110"/>
-      <c r="AT68" s="110"/>
-      <c r="AU68" s="110"/>
-      <c r="AV68" s="110"/>
-      <c r="AW68" s="110"/>
-      <c r="AX68" s="110"/>
-      <c r="AY68" s="110"/>
-      <c r="AZ68" s="110"/>
-      <c r="BA68" s="110"/>
-      <c r="BB68" s="110"/>
-      <c r="BC68" s="110"/>
-      <c r="BD68" s="110"/>
-      <c r="BE68" s="110"/>
-      <c r="BF68" s="110"/>
-      <c r="BG68" s="110"/>
-      <c r="BH68" s="110"/>
-      <c r="BI68" s="110"/>
-      <c r="BJ68" s="110"/>
-      <c r="BK68" s="110"/>
-      <c r="BL68" s="110"/>
-      <c r="BM68" s="110"/>
-      <c r="BN68" s="110"/>
-      <c r="BO68" s="110"/>
-      <c r="BP68" s="110"/>
-      <c r="BQ68" s="110"/>
-      <c r="BR68" s="110"/>
-      <c r="BS68" s="111"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="22"/>
+      <c r="AJ68" s="22"/>
+      <c r="AK68" s="22"/>
+      <c r="AL68" s="22"/>
+      <c r="AM68" s="22"/>
+      <c r="AN68" s="22"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="22"/>
+      <c r="AQ68" s="22"/>
+      <c r="AR68" s="22"/>
+      <c r="AS68" s="22"/>
+      <c r="AT68" s="22"/>
+      <c r="AU68" s="22"/>
+      <c r="AV68" s="22"/>
+      <c r="AW68" s="22"/>
+      <c r="AX68" s="22"/>
+      <c r="AY68" s="22"/>
+      <c r="AZ68" s="22"/>
+      <c r="BA68" s="22"/>
+      <c r="BB68" s="22"/>
+      <c r="BC68" s="22"/>
+      <c r="BD68" s="22"/>
+      <c r="BE68" s="22"/>
+      <c r="BF68" s="22"/>
+      <c r="BG68" s="22"/>
+      <c r="BH68" s="22"/>
+      <c r="BI68" s="22"/>
+      <c r="BJ68" s="22"/>
+      <c r="BK68" s="22"/>
+      <c r="BL68" s="22"/>
+      <c r="BM68" s="22"/>
+      <c r="BN68" s="22"/>
+      <c r="BO68" s="22"/>
+      <c r="BP68" s="22"/>
+      <c r="BQ68" s="22"/>
+      <c r="BR68" s="22"/>
+      <c r="BS68" s="23"/>
     </row>
     <row r="69" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
-      <c r="R69" s="113"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="113"/>
-      <c r="U69" s="113"/>
-      <c r="V69" s="113"/>
-      <c r="W69" s="113"/>
-      <c r="X69" s="113"/>
-      <c r="Y69" s="113"/>
-      <c r="Z69" s="113"/>
-      <c r="AA69" s="113"/>
-      <c r="AB69" s="113"/>
-      <c r="AC69" s="113"/>
-      <c r="AD69" s="113"/>
-      <c r="AE69" s="113"/>
-      <c r="AF69" s="113"/>
-      <c r="AG69" s="113"/>
-      <c r="AH69" s="113"/>
-      <c r="AI69" s="113"/>
-      <c r="AJ69" s="113"/>
-      <c r="AK69" s="113"/>
-      <c r="AL69" s="113"/>
-      <c r="AM69" s="113"/>
-      <c r="AN69" s="113"/>
-      <c r="AO69" s="113"/>
-      <c r="AP69" s="113"/>
-      <c r="AQ69" s="113"/>
-      <c r="AR69" s="113"/>
-      <c r="AS69" s="113"/>
-      <c r="AT69" s="113"/>
-      <c r="AU69" s="113"/>
-      <c r="AV69" s="113"/>
-      <c r="AW69" s="113"/>
-      <c r="AX69" s="113"/>
-      <c r="AY69" s="113"/>
-      <c r="AZ69" s="113"/>
-      <c r="BA69" s="113"/>
-      <c r="BB69" s="113"/>
-      <c r="BC69" s="113"/>
-      <c r="BD69" s="113"/>
-      <c r="BE69" s="113"/>
-      <c r="BF69" s="113"/>
-      <c r="BG69" s="113"/>
-      <c r="BH69" s="113"/>
-      <c r="BI69" s="113"/>
-      <c r="BJ69" s="113"/>
-      <c r="BK69" s="113"/>
-      <c r="BL69" s="113"/>
-      <c r="BM69" s="113"/>
-      <c r="BN69" s="113"/>
-      <c r="BO69" s="113"/>
-      <c r="BP69" s="113"/>
-      <c r="BQ69" s="113"/>
-      <c r="BR69" s="113"/>
-      <c r="BS69" s="114"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
+      <c r="AO69" s="25"/>
+      <c r="AP69" s="25"/>
+      <c r="AQ69" s="25"/>
+      <c r="AR69" s="25"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="25"/>
+      <c r="AU69" s="25"/>
+      <c r="AV69" s="25"/>
+      <c r="AW69" s="25"/>
+      <c r="AX69" s="25"/>
+      <c r="AY69" s="25"/>
+      <c r="AZ69" s="25"/>
+      <c r="BA69" s="25"/>
+      <c r="BB69" s="25"/>
+      <c r="BC69" s="25"/>
+      <c r="BD69" s="25"/>
+      <c r="BE69" s="25"/>
+      <c r="BF69" s="25"/>
+      <c r="BG69" s="25"/>
+      <c r="BH69" s="25"/>
+      <c r="BI69" s="25"/>
+      <c r="BJ69" s="25"/>
+      <c r="BK69" s="25"/>
+      <c r="BL69" s="25"/>
+      <c r="BM69" s="25"/>
+      <c r="BN69" s="25"/>
+      <c r="BO69" s="25"/>
+      <c r="BP69" s="25"/>
+      <c r="BQ69" s="25"/>
+      <c r="BR69" s="25"/>
+      <c r="BS69" s="26"/>
     </row>
     <row r="70" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="113"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="113"/>
-      <c r="J70" s="113"/>
-      <c r="K70" s="113"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="113"/>
-      <c r="O70" s="113"/>
-      <c r="P70" s="113"/>
-      <c r="Q70" s="113"/>
-      <c r="R70" s="113"/>
-      <c r="S70" s="113"/>
-      <c r="T70" s="113"/>
-      <c r="U70" s="113"/>
-      <c r="V70" s="113"/>
-      <c r="W70" s="113"/>
-      <c r="X70" s="113"/>
-      <c r="Y70" s="113"/>
-      <c r="Z70" s="113"/>
-      <c r="AA70" s="113"/>
-      <c r="AB70" s="113"/>
-      <c r="AC70" s="113"/>
-      <c r="AD70" s="113"/>
-      <c r="AE70" s="113"/>
-      <c r="AF70" s="113"/>
-      <c r="AG70" s="113"/>
-      <c r="AH70" s="113"/>
-      <c r="AI70" s="113"/>
-      <c r="AJ70" s="113"/>
-      <c r="AK70" s="113"/>
-      <c r="AL70" s="113"/>
-      <c r="AM70" s="113"/>
-      <c r="AN70" s="113"/>
-      <c r="AO70" s="113"/>
-      <c r="AP70" s="113"/>
-      <c r="AQ70" s="113"/>
-      <c r="AR70" s="113"/>
-      <c r="AS70" s="113"/>
-      <c r="AT70" s="113"/>
-      <c r="AU70" s="113"/>
-      <c r="AV70" s="113"/>
-      <c r="AW70" s="113"/>
-      <c r="AX70" s="113"/>
-      <c r="AY70" s="113"/>
-      <c r="AZ70" s="113"/>
-      <c r="BA70" s="113"/>
-      <c r="BB70" s="113"/>
-      <c r="BC70" s="113"/>
-      <c r="BD70" s="113"/>
-      <c r="BE70" s="113"/>
-      <c r="BF70" s="113"/>
-      <c r="BG70" s="113"/>
-      <c r="BH70" s="113"/>
-      <c r="BI70" s="113"/>
-      <c r="BJ70" s="113"/>
-      <c r="BK70" s="113"/>
-      <c r="BL70" s="113"/>
-      <c r="BM70" s="113"/>
-      <c r="BN70" s="113"/>
-      <c r="BO70" s="113"/>
-      <c r="BP70" s="113"/>
-      <c r="BQ70" s="113"/>
-      <c r="BR70" s="113"/>
-      <c r="BS70" s="114"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="25"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="25"/>
+      <c r="AO70" s="25"/>
+      <c r="AP70" s="25"/>
+      <c r="AQ70" s="25"/>
+      <c r="AR70" s="25"/>
+      <c r="AS70" s="25"/>
+      <c r="AT70" s="25"/>
+      <c r="AU70" s="25"/>
+      <c r="AV70" s="25"/>
+      <c r="AW70" s="25"/>
+      <c r="AX70" s="25"/>
+      <c r="AY70" s="25"/>
+      <c r="AZ70" s="25"/>
+      <c r="BA70" s="25"/>
+      <c r="BB70" s="25"/>
+      <c r="BC70" s="25"/>
+      <c r="BD70" s="25"/>
+      <c r="BE70" s="25"/>
+      <c r="BF70" s="25"/>
+      <c r="BG70" s="25"/>
+      <c r="BH70" s="25"/>
+      <c r="BI70" s="25"/>
+      <c r="BJ70" s="25"/>
+      <c r="BK70" s="25"/>
+      <c r="BL70" s="25"/>
+      <c r="BM70" s="25"/>
+      <c r="BN70" s="25"/>
+      <c r="BO70" s="25"/>
+      <c r="BP70" s="25"/>
+      <c r="BQ70" s="25"/>
+      <c r="BR70" s="25"/>
+      <c r="BS70" s="26"/>
     </row>
     <row r="71" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A71" s="121"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="122"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="122"/>
-      <c r="P71" s="122"/>
-      <c r="Q71" s="122"/>
-      <c r="R71" s="122"/>
-      <c r="S71" s="122"/>
-      <c r="T71" s="122"/>
-      <c r="U71" s="122"/>
-      <c r="V71" s="122"/>
-      <c r="W71" s="122"/>
-      <c r="X71" s="122"/>
-      <c r="Y71" s="122"/>
-      <c r="Z71" s="122"/>
-      <c r="AA71" s="122"/>
-      <c r="AB71" s="122"/>
-      <c r="AC71" s="122"/>
-      <c r="AD71" s="122"/>
-      <c r="AE71" s="122"/>
-      <c r="AF71" s="122"/>
-      <c r="AG71" s="122"/>
-      <c r="AH71" s="122"/>
-      <c r="AI71" s="122"/>
-      <c r="AJ71" s="122"/>
-      <c r="AK71" s="122"/>
-      <c r="AL71" s="122"/>
-      <c r="AM71" s="122"/>
-      <c r="AN71" s="122"/>
-      <c r="AO71" s="122"/>
-      <c r="AP71" s="122"/>
-      <c r="AQ71" s="122"/>
-      <c r="AR71" s="122"/>
-      <c r="AS71" s="122"/>
-      <c r="AT71" s="122"/>
-      <c r="AU71" s="122"/>
-      <c r="AV71" s="122"/>
-      <c r="AW71" s="122"/>
-      <c r="AX71" s="122"/>
-      <c r="AY71" s="122"/>
-      <c r="AZ71" s="122"/>
-      <c r="BA71" s="122"/>
-      <c r="BB71" s="122"/>
-      <c r="BC71" s="122"/>
-      <c r="BD71" s="122"/>
-      <c r="BE71" s="122"/>
-      <c r="BF71" s="122"/>
-      <c r="BG71" s="122"/>
-      <c r="BH71" s="122"/>
-      <c r="BI71" s="122"/>
-      <c r="BJ71" s="122"/>
-      <c r="BK71" s="122"/>
-      <c r="BL71" s="122"/>
-      <c r="BM71" s="122"/>
-      <c r="BN71" s="122"/>
-      <c r="BO71" s="122"/>
-      <c r="BP71" s="122"/>
-      <c r="BQ71" s="122"/>
-      <c r="BR71" s="122"/>
-      <c r="BS71" s="123"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="34"/>
+      <c r="X71" s="34"/>
+      <c r="Y71" s="34"/>
+      <c r="Z71" s="34"/>
+      <c r="AA71" s="34"/>
+      <c r="AB71" s="34"/>
+      <c r="AC71" s="34"/>
+      <c r="AD71" s="34"/>
+      <c r="AE71" s="34"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="34"/>
+      <c r="AI71" s="34"/>
+      <c r="AJ71" s="34"/>
+      <c r="AK71" s="34"/>
+      <c r="AL71" s="34"/>
+      <c r="AM71" s="34"/>
+      <c r="AN71" s="34"/>
+      <c r="AO71" s="34"/>
+      <c r="AP71" s="34"/>
+      <c r="AQ71" s="34"/>
+      <c r="AR71" s="34"/>
+      <c r="AS71" s="34"/>
+      <c r="AT71" s="34"/>
+      <c r="AU71" s="34"/>
+      <c r="AV71" s="34"/>
+      <c r="AW71" s="34"/>
+      <c r="AX71" s="34"/>
+      <c r="AY71" s="34"/>
+      <c r="AZ71" s="34"/>
+      <c r="BA71" s="34"/>
+      <c r="BB71" s="34"/>
+      <c r="BC71" s="34"/>
+      <c r="BD71" s="34"/>
+      <c r="BE71" s="34"/>
+      <c r="BF71" s="34"/>
+      <c r="BG71" s="34"/>
+      <c r="BH71" s="34"/>
+      <c r="BI71" s="34"/>
+      <c r="BJ71" s="34"/>
+      <c r="BK71" s="34"/>
+      <c r="BL71" s="34"/>
+      <c r="BM71" s="34"/>
+      <c r="BN71" s="34"/>
+      <c r="BO71" s="34"/>
+      <c r="BP71" s="34"/>
+      <c r="BQ71" s="34"/>
+      <c r="BR71" s="34"/>
+      <c r="BS71" s="35"/>
     </row>
     <row r="72" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -12232,15 +12232,15 @@
       <c r="BS72" s="17"/>
     </row>
     <row r="73" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A73" s="75"/>
-      <c r="B73" s="29" t="s">
+      <c r="A73" s="52"/>
+      <c r="B73" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -12307,15 +12307,15 @@
       <c r="BS73" s="17"/>
     </row>
     <row r="74" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A74" s="75"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="52"/>
+      <c r="B74" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
@@ -12385,14 +12385,14 @@
       <c r="A75" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
@@ -12459,17 +12459,17 @@
       <c r="BS75" s="17"/>
     </row>
     <row r="76" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -12536,15 +12536,15 @@
       <c r="BS76" s="17"/>
     </row>
     <row r="77" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A77" s="75"/>
-      <c r="B77" s="27" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="86"/>
+      <c r="G77" s="86"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -12611,17 +12611,17 @@
       <c r="BS77" s="17"/>
     </row>
     <row r="78" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -12688,15 +12688,15 @@
       <c r="BS78" s="17"/>
     </row>
     <row r="79" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A79" s="72"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="59"/>
+      <c r="B79" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -12763,15 +12763,15 @@
       <c r="BS79" s="17"/>
     </row>
     <row r="80" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A80" s="72"/>
-      <c r="B80" s="53" t="s">
+      <c r="A80" s="59"/>
+      <c r="B80" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -12838,15 +12838,15 @@
       <c r="BS80" s="17"/>
     </row>
     <row r="81" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="60"/>
+      <c r="B81" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -12913,17 +12913,17 @@
       <c r="BS81" s="17"/>
     </row>
     <row r="82" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -12990,15 +12990,15 @@
       <c r="BS82" s="17"/>
     </row>
     <row r="83" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A83" s="72"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -13065,15 +13065,15 @@
       <c r="BS83" s="17"/>
     </row>
     <row r="84" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="29" t="s">
+      <c r="A84" s="60"/>
+      <c r="B84" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -13140,311 +13140,311 @@
       <c r="BS84" s="17"/>
     </row>
     <row r="85" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
-      <c r="J85" s="125"/>
-      <c r="K85" s="125"/>
-      <c r="L85" s="125"/>
-      <c r="M85" s="125"/>
-      <c r="N85" s="125"/>
-      <c r="O85" s="125"/>
-      <c r="P85" s="125"/>
-      <c r="Q85" s="125"/>
-      <c r="R85" s="125"/>
-      <c r="S85" s="125"/>
-      <c r="T85" s="125"/>
-      <c r="U85" s="125"/>
-      <c r="V85" s="125"/>
-      <c r="W85" s="125"/>
-      <c r="X85" s="125"/>
-      <c r="Y85" s="125"/>
-      <c r="Z85" s="125"/>
-      <c r="AA85" s="125"/>
-      <c r="AB85" s="125"/>
-      <c r="AC85" s="125"/>
-      <c r="AD85" s="125"/>
-      <c r="AE85" s="125"/>
-      <c r="AF85" s="125"/>
-      <c r="AG85" s="125"/>
-      <c r="AH85" s="125"/>
-      <c r="AI85" s="125"/>
-      <c r="AJ85" s="125"/>
-      <c r="AK85" s="125"/>
-      <c r="AL85" s="125"/>
-      <c r="AM85" s="125"/>
-      <c r="AN85" s="125"/>
-      <c r="AO85" s="125"/>
-      <c r="AP85" s="125"/>
-      <c r="AQ85" s="125"/>
-      <c r="AR85" s="125"/>
-      <c r="AS85" s="125"/>
-      <c r="AT85" s="125"/>
-      <c r="AU85" s="125"/>
-      <c r="AV85" s="125"/>
-      <c r="AW85" s="125"/>
-      <c r="AX85" s="125"/>
-      <c r="AY85" s="125"/>
-      <c r="AZ85" s="125"/>
-      <c r="BA85" s="125"/>
-      <c r="BB85" s="125"/>
-      <c r="BC85" s="125"/>
-      <c r="BD85" s="125"/>
-      <c r="BE85" s="125"/>
-      <c r="BF85" s="125"/>
-      <c r="BG85" s="125"/>
-      <c r="BH85" s="125"/>
-      <c r="BI85" s="125"/>
-      <c r="BJ85" s="125"/>
-      <c r="BK85" s="125"/>
-      <c r="BL85" s="125"/>
-      <c r="BM85" s="125"/>
-      <c r="BN85" s="125"/>
-      <c r="BO85" s="125"/>
-      <c r="BP85" s="125"/>
-      <c r="BQ85" s="125"/>
-      <c r="BR85" s="125"/>
-      <c r="BS85" s="126"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37"/>
+      <c r="AA85" s="37"/>
+      <c r="AB85" s="37"/>
+      <c r="AC85" s="37"/>
+      <c r="AD85" s="37"/>
+      <c r="AE85" s="37"/>
+      <c r="AF85" s="37"/>
+      <c r="AG85" s="37"/>
+      <c r="AH85" s="37"/>
+      <c r="AI85" s="37"/>
+      <c r="AJ85" s="37"/>
+      <c r="AK85" s="37"/>
+      <c r="AL85" s="37"/>
+      <c r="AM85" s="37"/>
+      <c r="AN85" s="37"/>
+      <c r="AO85" s="37"/>
+      <c r="AP85" s="37"/>
+      <c r="AQ85" s="37"/>
+      <c r="AR85" s="37"/>
+      <c r="AS85" s="37"/>
+      <c r="AT85" s="37"/>
+      <c r="AU85" s="37"/>
+      <c r="AV85" s="37"/>
+      <c r="AW85" s="37"/>
+      <c r="AX85" s="37"/>
+      <c r="AY85" s="37"/>
+      <c r="AZ85" s="37"/>
+      <c r="BA85" s="37"/>
+      <c r="BB85" s="37"/>
+      <c r="BC85" s="37"/>
+      <c r="BD85" s="37"/>
+      <c r="BE85" s="37"/>
+      <c r="BF85" s="37"/>
+      <c r="BG85" s="37"/>
+      <c r="BH85" s="37"/>
+      <c r="BI85" s="37"/>
+      <c r="BJ85" s="37"/>
+      <c r="BK85" s="37"/>
+      <c r="BL85" s="37"/>
+      <c r="BM85" s="37"/>
+      <c r="BN85" s="37"/>
+      <c r="BO85" s="37"/>
+      <c r="BP85" s="37"/>
+      <c r="BQ85" s="37"/>
+      <c r="BR85" s="37"/>
+      <c r="BS85" s="38"/>
     </row>
     <row r="86" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A86" s="127"/>
-      <c r="B86" s="128"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="128"/>
-      <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
-      <c r="H86" s="128"/>
-      <c r="I86" s="128"/>
-      <c r="J86" s="128"/>
-      <c r="K86" s="128"/>
-      <c r="L86" s="128"/>
-      <c r="M86" s="128"/>
-      <c r="N86" s="128"/>
-      <c r="O86" s="128"/>
-      <c r="P86" s="128"/>
-      <c r="Q86" s="128"/>
-      <c r="R86" s="128"/>
-      <c r="S86" s="128"/>
-      <c r="T86" s="128"/>
-      <c r="U86" s="128"/>
-      <c r="V86" s="128"/>
-      <c r="W86" s="128"/>
-      <c r="X86" s="128"/>
-      <c r="Y86" s="128"/>
-      <c r="Z86" s="128"/>
-      <c r="AA86" s="128"/>
-      <c r="AB86" s="128"/>
-      <c r="AC86" s="128"/>
-      <c r="AD86" s="128"/>
-      <c r="AE86" s="128"/>
-      <c r="AF86" s="128"/>
-      <c r="AG86" s="128"/>
-      <c r="AH86" s="128"/>
-      <c r="AI86" s="128"/>
-      <c r="AJ86" s="128"/>
-      <c r="AK86" s="128"/>
-      <c r="AL86" s="128"/>
-      <c r="AM86" s="128"/>
-      <c r="AN86" s="128"/>
-      <c r="AO86" s="128"/>
-      <c r="AP86" s="128"/>
-      <c r="AQ86" s="128"/>
-      <c r="AR86" s="128"/>
-      <c r="AS86" s="128"/>
-      <c r="AT86" s="128"/>
-      <c r="AU86" s="128"/>
-      <c r="AV86" s="128"/>
-      <c r="AW86" s="128"/>
-      <c r="AX86" s="128"/>
-      <c r="AY86" s="128"/>
-      <c r="AZ86" s="128"/>
-      <c r="BA86" s="128"/>
-      <c r="BB86" s="128"/>
-      <c r="BC86" s="128"/>
-      <c r="BD86" s="128"/>
-      <c r="BE86" s="128"/>
-      <c r="BF86" s="128"/>
-      <c r="BG86" s="128"/>
-      <c r="BH86" s="128"/>
-      <c r="BI86" s="128"/>
-      <c r="BJ86" s="128"/>
-      <c r="BK86" s="128"/>
-      <c r="BL86" s="128"/>
-      <c r="BM86" s="128"/>
-      <c r="BN86" s="128"/>
-      <c r="BO86" s="128"/>
-      <c r="BP86" s="128"/>
-      <c r="BQ86" s="128"/>
-      <c r="BR86" s="128"/>
-      <c r="BS86" s="129"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+      <c r="AB86" s="40"/>
+      <c r="AC86" s="40"/>
+      <c r="AD86" s="40"/>
+      <c r="AE86" s="40"/>
+      <c r="AF86" s="40"/>
+      <c r="AG86" s="40"/>
+      <c r="AH86" s="40"/>
+      <c r="AI86" s="40"/>
+      <c r="AJ86" s="40"/>
+      <c r="AK86" s="40"/>
+      <c r="AL86" s="40"/>
+      <c r="AM86" s="40"/>
+      <c r="AN86" s="40"/>
+      <c r="AO86" s="40"/>
+      <c r="AP86" s="40"/>
+      <c r="AQ86" s="40"/>
+      <c r="AR86" s="40"/>
+      <c r="AS86" s="40"/>
+      <c r="AT86" s="40"/>
+      <c r="AU86" s="40"/>
+      <c r="AV86" s="40"/>
+      <c r="AW86" s="40"/>
+      <c r="AX86" s="40"/>
+      <c r="AY86" s="40"/>
+      <c r="AZ86" s="40"/>
+      <c r="BA86" s="40"/>
+      <c r="BB86" s="40"/>
+      <c r="BC86" s="40"/>
+      <c r="BD86" s="40"/>
+      <c r="BE86" s="40"/>
+      <c r="BF86" s="40"/>
+      <c r="BG86" s="40"/>
+      <c r="BH86" s="40"/>
+      <c r="BI86" s="40"/>
+      <c r="BJ86" s="40"/>
+      <c r="BK86" s="40"/>
+      <c r="BL86" s="40"/>
+      <c r="BM86" s="40"/>
+      <c r="BN86" s="40"/>
+      <c r="BO86" s="40"/>
+      <c r="BP86" s="40"/>
+      <c r="BQ86" s="40"/>
+      <c r="BR86" s="40"/>
+      <c r="BS86" s="41"/>
     </row>
     <row r="87" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A87" s="127"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="128"/>
-      <c r="D87" s="128"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="128"/>
-      <c r="J87" s="128"/>
-      <c r="K87" s="128"/>
-      <c r="L87" s="128"/>
-      <c r="M87" s="128"/>
-      <c r="N87" s="128"/>
-      <c r="O87" s="128"/>
-      <c r="P87" s="128"/>
-      <c r="Q87" s="128"/>
-      <c r="R87" s="128"/>
-      <c r="S87" s="128"/>
-      <c r="T87" s="128"/>
-      <c r="U87" s="128"/>
-      <c r="V87" s="128"/>
-      <c r="W87" s="128"/>
-      <c r="X87" s="128"/>
-      <c r="Y87" s="128"/>
-      <c r="Z87" s="128"/>
-      <c r="AA87" s="128"/>
-      <c r="AB87" s="128"/>
-      <c r="AC87" s="128"/>
-      <c r="AD87" s="128"/>
-      <c r="AE87" s="128"/>
-      <c r="AF87" s="128"/>
-      <c r="AG87" s="128"/>
-      <c r="AH87" s="128"/>
-      <c r="AI87" s="128"/>
-      <c r="AJ87" s="128"/>
-      <c r="AK87" s="128"/>
-      <c r="AL87" s="128"/>
-      <c r="AM87" s="128"/>
-      <c r="AN87" s="128"/>
-      <c r="AO87" s="128"/>
-      <c r="AP87" s="128"/>
-      <c r="AQ87" s="128"/>
-      <c r="AR87" s="128"/>
-      <c r="AS87" s="128"/>
-      <c r="AT87" s="128"/>
-      <c r="AU87" s="128"/>
-      <c r="AV87" s="128"/>
-      <c r="AW87" s="128"/>
-      <c r="AX87" s="128"/>
-      <c r="AY87" s="128"/>
-      <c r="AZ87" s="128"/>
-      <c r="BA87" s="128"/>
-      <c r="BB87" s="128"/>
-      <c r="BC87" s="128"/>
-      <c r="BD87" s="128"/>
-      <c r="BE87" s="128"/>
-      <c r="BF87" s="128"/>
-      <c r="BG87" s="128"/>
-      <c r="BH87" s="128"/>
-      <c r="BI87" s="128"/>
-      <c r="BJ87" s="128"/>
-      <c r="BK87" s="128"/>
-      <c r="BL87" s="128"/>
-      <c r="BM87" s="128"/>
-      <c r="BN87" s="128"/>
-      <c r="BO87" s="128"/>
-      <c r="BP87" s="128"/>
-      <c r="BQ87" s="128"/>
-      <c r="BR87" s="128"/>
-      <c r="BS87" s="129"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
+      <c r="AB87" s="40"/>
+      <c r="AC87" s="40"/>
+      <c r="AD87" s="40"/>
+      <c r="AE87" s="40"/>
+      <c r="AF87" s="40"/>
+      <c r="AG87" s="40"/>
+      <c r="AH87" s="40"/>
+      <c r="AI87" s="40"/>
+      <c r="AJ87" s="40"/>
+      <c r="AK87" s="40"/>
+      <c r="AL87" s="40"/>
+      <c r="AM87" s="40"/>
+      <c r="AN87" s="40"/>
+      <c r="AO87" s="40"/>
+      <c r="AP87" s="40"/>
+      <c r="AQ87" s="40"/>
+      <c r="AR87" s="40"/>
+      <c r="AS87" s="40"/>
+      <c r="AT87" s="40"/>
+      <c r="AU87" s="40"/>
+      <c r="AV87" s="40"/>
+      <c r="AW87" s="40"/>
+      <c r="AX87" s="40"/>
+      <c r="AY87" s="40"/>
+      <c r="AZ87" s="40"/>
+      <c r="BA87" s="40"/>
+      <c r="BB87" s="40"/>
+      <c r="BC87" s="40"/>
+      <c r="BD87" s="40"/>
+      <c r="BE87" s="40"/>
+      <c r="BF87" s="40"/>
+      <c r="BG87" s="40"/>
+      <c r="BH87" s="40"/>
+      <c r="BI87" s="40"/>
+      <c r="BJ87" s="40"/>
+      <c r="BK87" s="40"/>
+      <c r="BL87" s="40"/>
+      <c r="BM87" s="40"/>
+      <c r="BN87" s="40"/>
+      <c r="BO87" s="40"/>
+      <c r="BP87" s="40"/>
+      <c r="BQ87" s="40"/>
+      <c r="BR87" s="40"/>
+      <c r="BS87" s="41"/>
     </row>
     <row r="88" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A88" s="127"/>
-      <c r="B88" s="128"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="128"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="128"/>
-      <c r="L88" s="128"/>
-      <c r="M88" s="128"/>
-      <c r="N88" s="128"/>
-      <c r="O88" s="128"/>
-      <c r="P88" s="128"/>
-      <c r="Q88" s="128"/>
-      <c r="R88" s="128"/>
-      <c r="S88" s="128"/>
-      <c r="T88" s="128"/>
-      <c r="U88" s="128"/>
-      <c r="V88" s="128"/>
-      <c r="W88" s="128"/>
-      <c r="X88" s="128"/>
-      <c r="Y88" s="128"/>
-      <c r="Z88" s="128"/>
-      <c r="AA88" s="128"/>
-      <c r="AB88" s="128"/>
-      <c r="AC88" s="128"/>
-      <c r="AD88" s="128"/>
-      <c r="AE88" s="128"/>
-      <c r="AF88" s="128"/>
-      <c r="AG88" s="128"/>
-      <c r="AH88" s="128"/>
-      <c r="AI88" s="128"/>
-      <c r="AJ88" s="128"/>
-      <c r="AK88" s="128"/>
-      <c r="AL88" s="128"/>
-      <c r="AM88" s="128"/>
-      <c r="AN88" s="128"/>
-      <c r="AO88" s="128"/>
-      <c r="AP88" s="128"/>
-      <c r="AQ88" s="128"/>
-      <c r="AR88" s="128"/>
-      <c r="AS88" s="128"/>
-      <c r="AT88" s="128"/>
-      <c r="AU88" s="128"/>
-      <c r="AV88" s="128"/>
-      <c r="AW88" s="128"/>
-      <c r="AX88" s="128"/>
-      <c r="AY88" s="128"/>
-      <c r="AZ88" s="128"/>
-      <c r="BA88" s="128"/>
-      <c r="BB88" s="128"/>
-      <c r="BC88" s="128"/>
-      <c r="BD88" s="128"/>
-      <c r="BE88" s="128"/>
-      <c r="BF88" s="128"/>
-      <c r="BG88" s="128"/>
-      <c r="BH88" s="128"/>
-      <c r="BI88" s="128"/>
-      <c r="BJ88" s="128"/>
-      <c r="BK88" s="128"/>
-      <c r="BL88" s="128"/>
-      <c r="BM88" s="128"/>
-      <c r="BN88" s="128"/>
-      <c r="BO88" s="128"/>
-      <c r="BP88" s="128"/>
-      <c r="BQ88" s="128"/>
-      <c r="BR88" s="128"/>
-      <c r="BS88" s="129"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="40"/>
+      <c r="AC88" s="40"/>
+      <c r="AD88" s="40"/>
+      <c r="AE88" s="40"/>
+      <c r="AF88" s="40"/>
+      <c r="AG88" s="40"/>
+      <c r="AH88" s="40"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
+      <c r="AK88" s="40"/>
+      <c r="AL88" s="40"/>
+      <c r="AM88" s="40"/>
+      <c r="AN88" s="40"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="40"/>
+      <c r="AQ88" s="40"/>
+      <c r="AR88" s="40"/>
+      <c r="AS88" s="40"/>
+      <c r="AT88" s="40"/>
+      <c r="AU88" s="40"/>
+      <c r="AV88" s="40"/>
+      <c r="AW88" s="40"/>
+      <c r="AX88" s="40"/>
+      <c r="AY88" s="40"/>
+      <c r="AZ88" s="40"/>
+      <c r="BA88" s="40"/>
+      <c r="BB88" s="40"/>
+      <c r="BC88" s="40"/>
+      <c r="BD88" s="40"/>
+      <c r="BE88" s="40"/>
+      <c r="BF88" s="40"/>
+      <c r="BG88" s="40"/>
+      <c r="BH88" s="40"/>
+      <c r="BI88" s="40"/>
+      <c r="BJ88" s="40"/>
+      <c r="BK88" s="40"/>
+      <c r="BL88" s="40"/>
+      <c r="BM88" s="40"/>
+      <c r="BN88" s="40"/>
+      <c r="BO88" s="40"/>
+      <c r="BP88" s="40"/>
+      <c r="BQ88" s="40"/>
+      <c r="BR88" s="40"/>
+      <c r="BS88" s="41"/>
     </row>
     <row r="89" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A89" s="66" t="s">
+      <c r="A89" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="88"/>
+      <c r="G89" s="88"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
@@ -13511,15 +13511,15 @@
       <c r="BS89" s="17"/>
     </row>
     <row r="90" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A90" s="75"/>
-      <c r="B90" s="29" t="s">
+      <c r="A90" s="52"/>
+      <c r="B90" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -13586,15 +13586,15 @@
       <c r="BS90" s="17"/>
     </row>
     <row r="91" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A91" s="75"/>
-      <c r="B91" s="29" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -13661,15 +13661,15 @@
       <c r="BS91" s="17"/>
     </row>
     <row r="92" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A92" s="75"/>
-      <c r="B92" s="29" t="s">
+      <c r="A92" s="52"/>
+      <c r="B92" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="30"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="88"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -13736,15 +13736,15 @@
       <c r="BS92" s="17"/>
     </row>
     <row r="93" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A93" s="67"/>
-      <c r="B93" s="29" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -13814,14 +13814,14 @@
       <c r="A94" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -13888,17 +13888,17 @@
       <c r="BS94" s="17"/>
     </row>
     <row r="95" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A95" s="66" t="s">
+      <c r="A95" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="68"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
+      <c r="G95" s="96"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -13965,15 +13965,15 @@
       <c r="BS95" s="17"/>
     </row>
     <row r="96" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A96" s="67"/>
-      <c r="B96" s="29" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
@@ -14040,17 +14040,17 @@
       <c r="BS96" s="17"/>
     </row>
     <row r="97" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="86"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
@@ -14117,15 +14117,15 @@
       <c r="BS97" s="17"/>
     </row>
     <row r="98" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A98" s="67"/>
-      <c r="B98" s="27" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
@@ -14192,311 +14192,311 @@
       <c r="BS98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="109" t="s">
+      <c r="A99" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
-      <c r="L99" s="110"/>
-      <c r="M99" s="110"/>
-      <c r="N99" s="110"/>
-      <c r="O99" s="110"/>
-      <c r="P99" s="110"/>
-      <c r="Q99" s="110"/>
-      <c r="R99" s="110"/>
-      <c r="S99" s="110"/>
-      <c r="T99" s="110"/>
-      <c r="U99" s="110"/>
-      <c r="V99" s="110"/>
-      <c r="W99" s="110"/>
-      <c r="X99" s="110"/>
-      <c r="Y99" s="110"/>
-      <c r="Z99" s="110"/>
-      <c r="AA99" s="110"/>
-      <c r="AB99" s="110"/>
-      <c r="AC99" s="110"/>
-      <c r="AD99" s="110"/>
-      <c r="AE99" s="110"/>
-      <c r="AF99" s="110"/>
-      <c r="AG99" s="110"/>
-      <c r="AH99" s="110"/>
-      <c r="AI99" s="110"/>
-      <c r="AJ99" s="110"/>
-      <c r="AK99" s="110"/>
-      <c r="AL99" s="110"/>
-      <c r="AM99" s="110"/>
-      <c r="AN99" s="110"/>
-      <c r="AO99" s="110"/>
-      <c r="AP99" s="110"/>
-      <c r="AQ99" s="110"/>
-      <c r="AR99" s="110"/>
-      <c r="AS99" s="110"/>
-      <c r="AT99" s="110"/>
-      <c r="AU99" s="110"/>
-      <c r="AV99" s="110"/>
-      <c r="AW99" s="110"/>
-      <c r="AX99" s="110"/>
-      <c r="AY99" s="110"/>
-      <c r="AZ99" s="110"/>
-      <c r="BA99" s="110"/>
-      <c r="BB99" s="110"/>
-      <c r="BC99" s="110"/>
-      <c r="BD99" s="110"/>
-      <c r="BE99" s="110"/>
-      <c r="BF99" s="110"/>
-      <c r="BG99" s="110"/>
-      <c r="BH99" s="110"/>
-      <c r="BI99" s="110"/>
-      <c r="BJ99" s="110"/>
-      <c r="BK99" s="110"/>
-      <c r="BL99" s="110"/>
-      <c r="BM99" s="110"/>
-      <c r="BN99" s="110"/>
-      <c r="BO99" s="110"/>
-      <c r="BP99" s="110"/>
-      <c r="BQ99" s="110"/>
-      <c r="BR99" s="110"/>
-      <c r="BS99" s="111"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="22"/>
+      <c r="AI99" s="22"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="22"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="22"/>
+      <c r="AP99" s="22"/>
+      <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
+      <c r="AS99" s="22"/>
+      <c r="AT99" s="22"/>
+      <c r="AU99" s="22"/>
+      <c r="AV99" s="22"/>
+      <c r="AW99" s="22"/>
+      <c r="AX99" s="22"/>
+      <c r="AY99" s="22"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="22"/>
+      <c r="BC99" s="22"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="22"/>
+      <c r="BH99" s="22"/>
+      <c r="BI99" s="22"/>
+      <c r="BJ99" s="22"/>
+      <c r="BK99" s="22"/>
+      <c r="BL99" s="22"/>
+      <c r="BM99" s="22"/>
+      <c r="BN99" s="22"/>
+      <c r="BO99" s="22"/>
+      <c r="BP99" s="22"/>
+      <c r="BQ99" s="22"/>
+      <c r="BR99" s="22"/>
+      <c r="BS99" s="23"/>
     </row>
     <row r="100" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A100" s="112"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
-      <c r="J100" s="113"/>
-      <c r="K100" s="113"/>
-      <c r="L100" s="113"/>
-      <c r="M100" s="113"/>
-      <c r="N100" s="113"/>
-      <c r="O100" s="113"/>
-      <c r="P100" s="113"/>
-      <c r="Q100" s="113"/>
-      <c r="R100" s="113"/>
-      <c r="S100" s="113"/>
-      <c r="T100" s="113"/>
-      <c r="U100" s="113"/>
-      <c r="V100" s="113"/>
-      <c r="W100" s="113"/>
-      <c r="X100" s="113"/>
-      <c r="Y100" s="113"/>
-      <c r="Z100" s="113"/>
-      <c r="AA100" s="113"/>
-      <c r="AB100" s="113"/>
-      <c r="AC100" s="113"/>
-      <c r="AD100" s="113"/>
-      <c r="AE100" s="113"/>
-      <c r="AF100" s="113"/>
-      <c r="AG100" s="113"/>
-      <c r="AH100" s="113"/>
-      <c r="AI100" s="113"/>
-      <c r="AJ100" s="113"/>
-      <c r="AK100" s="113"/>
-      <c r="AL100" s="113"/>
-      <c r="AM100" s="113"/>
-      <c r="AN100" s="113"/>
-      <c r="AO100" s="113"/>
-      <c r="AP100" s="113"/>
-      <c r="AQ100" s="113"/>
-      <c r="AR100" s="113"/>
-      <c r="AS100" s="113"/>
-      <c r="AT100" s="113"/>
-      <c r="AU100" s="113"/>
-      <c r="AV100" s="113"/>
-      <c r="AW100" s="113"/>
-      <c r="AX100" s="113"/>
-      <c r="AY100" s="113"/>
-      <c r="AZ100" s="113"/>
-      <c r="BA100" s="113"/>
-      <c r="BB100" s="113"/>
-      <c r="BC100" s="113"/>
-      <c r="BD100" s="113"/>
-      <c r="BE100" s="113"/>
-      <c r="BF100" s="113"/>
-      <c r="BG100" s="113"/>
-      <c r="BH100" s="113"/>
-      <c r="BI100" s="113"/>
-      <c r="BJ100" s="113"/>
-      <c r="BK100" s="113"/>
-      <c r="BL100" s="113"/>
-      <c r="BM100" s="113"/>
-      <c r="BN100" s="113"/>
-      <c r="BO100" s="113"/>
-      <c r="BP100" s="113"/>
-      <c r="BQ100" s="113"/>
-      <c r="BR100" s="113"/>
-      <c r="BS100" s="114"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="25"/>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25"/>
+      <c r="AA100" s="25"/>
+      <c r="AB100" s="25"/>
+      <c r="AC100" s="25"/>
+      <c r="AD100" s="25"/>
+      <c r="AE100" s="25"/>
+      <c r="AF100" s="25"/>
+      <c r="AG100" s="25"/>
+      <c r="AH100" s="25"/>
+      <c r="AI100" s="25"/>
+      <c r="AJ100" s="25"/>
+      <c r="AK100" s="25"/>
+      <c r="AL100" s="25"/>
+      <c r="AM100" s="25"/>
+      <c r="AN100" s="25"/>
+      <c r="AO100" s="25"/>
+      <c r="AP100" s="25"/>
+      <c r="AQ100" s="25"/>
+      <c r="AR100" s="25"/>
+      <c r="AS100" s="25"/>
+      <c r="AT100" s="25"/>
+      <c r="AU100" s="25"/>
+      <c r="AV100" s="25"/>
+      <c r="AW100" s="25"/>
+      <c r="AX100" s="25"/>
+      <c r="AY100" s="25"/>
+      <c r="AZ100" s="25"/>
+      <c r="BA100" s="25"/>
+      <c r="BB100" s="25"/>
+      <c r="BC100" s="25"/>
+      <c r="BD100" s="25"/>
+      <c r="BE100" s="25"/>
+      <c r="BF100" s="25"/>
+      <c r="BG100" s="25"/>
+      <c r="BH100" s="25"/>
+      <c r="BI100" s="25"/>
+      <c r="BJ100" s="25"/>
+      <c r="BK100" s="25"/>
+      <c r="BL100" s="25"/>
+      <c r="BM100" s="25"/>
+      <c r="BN100" s="25"/>
+      <c r="BO100" s="25"/>
+      <c r="BP100" s="25"/>
+      <c r="BQ100" s="25"/>
+      <c r="BR100" s="25"/>
+      <c r="BS100" s="26"/>
     </row>
     <row r="101" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A101" s="112"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="113"/>
-      <c r="E101" s="113"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="113"/>
-      <c r="H101" s="113"/>
-      <c r="I101" s="113"/>
-      <c r="J101" s="113"/>
-      <c r="K101" s="113"/>
-      <c r="L101" s="113"/>
-      <c r="M101" s="113"/>
-      <c r="N101" s="113"/>
-      <c r="O101" s="113"/>
-      <c r="P101" s="113"/>
-      <c r="Q101" s="113"/>
-      <c r="R101" s="113"/>
-      <c r="S101" s="113"/>
-      <c r="T101" s="113"/>
-      <c r="U101" s="113"/>
-      <c r="V101" s="113"/>
-      <c r="W101" s="113"/>
-      <c r="X101" s="113"/>
-      <c r="Y101" s="113"/>
-      <c r="Z101" s="113"/>
-      <c r="AA101" s="113"/>
-      <c r="AB101" s="113"/>
-      <c r="AC101" s="113"/>
-      <c r="AD101" s="113"/>
-      <c r="AE101" s="113"/>
-      <c r="AF101" s="113"/>
-      <c r="AG101" s="113"/>
-      <c r="AH101" s="113"/>
-      <c r="AI101" s="113"/>
-      <c r="AJ101" s="113"/>
-      <c r="AK101" s="113"/>
-      <c r="AL101" s="113"/>
-      <c r="AM101" s="113"/>
-      <c r="AN101" s="113"/>
-      <c r="AO101" s="113"/>
-      <c r="AP101" s="113"/>
-      <c r="AQ101" s="113"/>
-      <c r="AR101" s="113"/>
-      <c r="AS101" s="113"/>
-      <c r="AT101" s="113"/>
-      <c r="AU101" s="113"/>
-      <c r="AV101" s="113"/>
-      <c r="AW101" s="113"/>
-      <c r="AX101" s="113"/>
-      <c r="AY101" s="113"/>
-      <c r="AZ101" s="113"/>
-      <c r="BA101" s="113"/>
-      <c r="BB101" s="113"/>
-      <c r="BC101" s="113"/>
-      <c r="BD101" s="113"/>
-      <c r="BE101" s="113"/>
-      <c r="BF101" s="113"/>
-      <c r="BG101" s="113"/>
-      <c r="BH101" s="113"/>
-      <c r="BI101" s="113"/>
-      <c r="BJ101" s="113"/>
-      <c r="BK101" s="113"/>
-      <c r="BL101" s="113"/>
-      <c r="BM101" s="113"/>
-      <c r="BN101" s="113"/>
-      <c r="BO101" s="113"/>
-      <c r="BP101" s="113"/>
-      <c r="BQ101" s="113"/>
-      <c r="BR101" s="113"/>
-      <c r="BS101" s="114"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="25"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="25"/>
+      <c r="AD101" s="25"/>
+      <c r="AE101" s="25"/>
+      <c r="AF101" s="25"/>
+      <c r="AG101" s="25"/>
+      <c r="AH101" s="25"/>
+      <c r="AI101" s="25"/>
+      <c r="AJ101" s="25"/>
+      <c r="AK101" s="25"/>
+      <c r="AL101" s="25"/>
+      <c r="AM101" s="25"/>
+      <c r="AN101" s="25"/>
+      <c r="AO101" s="25"/>
+      <c r="AP101" s="25"/>
+      <c r="AQ101" s="25"/>
+      <c r="AR101" s="25"/>
+      <c r="AS101" s="25"/>
+      <c r="AT101" s="25"/>
+      <c r="AU101" s="25"/>
+      <c r="AV101" s="25"/>
+      <c r="AW101" s="25"/>
+      <c r="AX101" s="25"/>
+      <c r="AY101" s="25"/>
+      <c r="AZ101" s="25"/>
+      <c r="BA101" s="25"/>
+      <c r="BB101" s="25"/>
+      <c r="BC101" s="25"/>
+      <c r="BD101" s="25"/>
+      <c r="BE101" s="25"/>
+      <c r="BF101" s="25"/>
+      <c r="BG101" s="25"/>
+      <c r="BH101" s="25"/>
+      <c r="BI101" s="25"/>
+      <c r="BJ101" s="25"/>
+      <c r="BK101" s="25"/>
+      <c r="BL101" s="25"/>
+      <c r="BM101" s="25"/>
+      <c r="BN101" s="25"/>
+      <c r="BO101" s="25"/>
+      <c r="BP101" s="25"/>
+      <c r="BQ101" s="25"/>
+      <c r="BR101" s="25"/>
+      <c r="BS101" s="26"/>
     </row>
     <row r="102" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A102" s="112"/>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
-      <c r="G102" s="113"/>
-      <c r="H102" s="113"/>
-      <c r="I102" s="113"/>
-      <c r="J102" s="113"/>
-      <c r="K102" s="113"/>
-      <c r="L102" s="113"/>
-      <c r="M102" s="113"/>
-      <c r="N102" s="113"/>
-      <c r="O102" s="113"/>
-      <c r="P102" s="113"/>
-      <c r="Q102" s="113"/>
-      <c r="R102" s="113"/>
-      <c r="S102" s="113"/>
-      <c r="T102" s="113"/>
-      <c r="U102" s="113"/>
-      <c r="V102" s="113"/>
-      <c r="W102" s="113"/>
-      <c r="X102" s="113"/>
-      <c r="Y102" s="113"/>
-      <c r="Z102" s="113"/>
-      <c r="AA102" s="113"/>
-      <c r="AB102" s="113"/>
-      <c r="AC102" s="113"/>
-      <c r="AD102" s="113"/>
-      <c r="AE102" s="113"/>
-      <c r="AF102" s="113"/>
-      <c r="AG102" s="113"/>
-      <c r="AH102" s="113"/>
-      <c r="AI102" s="113"/>
-      <c r="AJ102" s="113"/>
-      <c r="AK102" s="113"/>
-      <c r="AL102" s="113"/>
-      <c r="AM102" s="113"/>
-      <c r="AN102" s="113"/>
-      <c r="AO102" s="113"/>
-      <c r="AP102" s="113"/>
-      <c r="AQ102" s="113"/>
-      <c r="AR102" s="113"/>
-      <c r="AS102" s="113"/>
-      <c r="AT102" s="113"/>
-      <c r="AU102" s="113"/>
-      <c r="AV102" s="113"/>
-      <c r="AW102" s="113"/>
-      <c r="AX102" s="113"/>
-      <c r="AY102" s="113"/>
-      <c r="AZ102" s="113"/>
-      <c r="BA102" s="113"/>
-      <c r="BB102" s="113"/>
-      <c r="BC102" s="113"/>
-      <c r="BD102" s="113"/>
-      <c r="BE102" s="113"/>
-      <c r="BF102" s="113"/>
-      <c r="BG102" s="113"/>
-      <c r="BH102" s="113"/>
-      <c r="BI102" s="113"/>
-      <c r="BJ102" s="113"/>
-      <c r="BK102" s="113"/>
-      <c r="BL102" s="113"/>
-      <c r="BM102" s="113"/>
-      <c r="BN102" s="113"/>
-      <c r="BO102" s="113"/>
-      <c r="BP102" s="113"/>
-      <c r="BQ102" s="113"/>
-      <c r="BR102" s="113"/>
-      <c r="BS102" s="114"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="25"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="25"/>
+      <c r="AD102" s="25"/>
+      <c r="AE102" s="25"/>
+      <c r="AF102" s="25"/>
+      <c r="AG102" s="25"/>
+      <c r="AH102" s="25"/>
+      <c r="AI102" s="25"/>
+      <c r="AJ102" s="25"/>
+      <c r="AK102" s="25"/>
+      <c r="AL102" s="25"/>
+      <c r="AM102" s="25"/>
+      <c r="AN102" s="25"/>
+      <c r="AO102" s="25"/>
+      <c r="AP102" s="25"/>
+      <c r="AQ102" s="25"/>
+      <c r="AR102" s="25"/>
+      <c r="AS102" s="25"/>
+      <c r="AT102" s="25"/>
+      <c r="AU102" s="25"/>
+      <c r="AV102" s="25"/>
+      <c r="AW102" s="25"/>
+      <c r="AX102" s="25"/>
+      <c r="AY102" s="25"/>
+      <c r="AZ102" s="25"/>
+      <c r="BA102" s="25"/>
+      <c r="BB102" s="25"/>
+      <c r="BC102" s="25"/>
+      <c r="BD102" s="25"/>
+      <c r="BE102" s="25"/>
+      <c r="BF102" s="25"/>
+      <c r="BG102" s="25"/>
+      <c r="BH102" s="25"/>
+      <c r="BI102" s="25"/>
+      <c r="BJ102" s="25"/>
+      <c r="BK102" s="25"/>
+      <c r="BL102" s="25"/>
+      <c r="BM102" s="25"/>
+      <c r="BN102" s="25"/>
+      <c r="BO102" s="25"/>
+      <c r="BP102" s="25"/>
+      <c r="BQ102" s="25"/>
+      <c r="BR102" s="25"/>
+      <c r="BS102" s="26"/>
     </row>
     <row r="103" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
+      <c r="C103" s="88"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="88"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -14563,15 +14563,15 @@
       <c r="BS103" s="17"/>
     </row>
     <row r="104" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A104" s="65"/>
-      <c r="B104" s="29" t="s">
+      <c r="A104" s="60"/>
+      <c r="B104" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -14638,17 +14638,17 @@
       <c r="BS104" s="17"/>
     </row>
     <row r="105" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="F105" s="88"/>
+      <c r="G105" s="88"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -14715,15 +14715,15 @@
       <c r="BS105" s="17"/>
     </row>
     <row r="106" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A106" s="65"/>
-      <c r="B106" s="29" t="s">
+      <c r="A106" s="60"/>
+      <c r="B106" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="30"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="88"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -14793,14 +14793,14 @@
       <c r="A107" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="88"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -14867,17 +14867,17 @@
       <c r="BS107" s="17"/>
     </row>
     <row r="108" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="88"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -14944,15 +14944,15 @@
       <c r="BS108" s="17"/>
     </row>
     <row r="109" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A109" s="72"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="59"/>
+      <c r="B109" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="88"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -15019,17 +15019,17 @@
       <c r="BS109" s="17"/>
     </row>
     <row r="110" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="88"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -15096,15 +15096,15 @@
       <c r="BS110" s="17"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A111" s="72"/>
-      <c r="B111" s="29" t="s">
+      <c r="A111" s="59"/>
+      <c r="B111" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="30"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="F111" s="88"/>
+      <c r="G111" s="88"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -15171,15 +15171,15 @@
       <c r="BS111" s="17"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A112" s="65"/>
-      <c r="B112" s="29" t="s">
+      <c r="A112" s="60"/>
+      <c r="B112" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="F112" s="88"/>
+      <c r="G112" s="88"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -15246,311 +15246,311 @@
       <c r="BS112" s="17"/>
     </row>
     <row r="113" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="110"/>
-      <c r="C113" s="110"/>
-      <c r="D113" s="110"/>
-      <c r="E113" s="110"/>
-      <c r="F113" s="110"/>
-      <c r="G113" s="110"/>
-      <c r="H113" s="110"/>
-      <c r="I113" s="110"/>
-      <c r="J113" s="110"/>
-      <c r="K113" s="110"/>
-      <c r="L113" s="110"/>
-      <c r="M113" s="110"/>
-      <c r="N113" s="110"/>
-      <c r="O113" s="110"/>
-      <c r="P113" s="110"/>
-      <c r="Q113" s="110"/>
-      <c r="R113" s="110"/>
-      <c r="S113" s="110"/>
-      <c r="T113" s="110"/>
-      <c r="U113" s="110"/>
-      <c r="V113" s="110"/>
-      <c r="W113" s="110"/>
-      <c r="X113" s="110"/>
-      <c r="Y113" s="110"/>
-      <c r="Z113" s="110"/>
-      <c r="AA113" s="110"/>
-      <c r="AB113" s="110"/>
-      <c r="AC113" s="110"/>
-      <c r="AD113" s="110"/>
-      <c r="AE113" s="110"/>
-      <c r="AF113" s="110"/>
-      <c r="AG113" s="110"/>
-      <c r="AH113" s="110"/>
-      <c r="AI113" s="110"/>
-      <c r="AJ113" s="110"/>
-      <c r="AK113" s="110"/>
-      <c r="AL113" s="110"/>
-      <c r="AM113" s="110"/>
-      <c r="AN113" s="110"/>
-      <c r="AO113" s="110"/>
-      <c r="AP113" s="110"/>
-      <c r="AQ113" s="110"/>
-      <c r="AR113" s="110"/>
-      <c r="AS113" s="110"/>
-      <c r="AT113" s="110"/>
-      <c r="AU113" s="110"/>
-      <c r="AV113" s="110"/>
-      <c r="AW113" s="110"/>
-      <c r="AX113" s="110"/>
-      <c r="AY113" s="110"/>
-      <c r="AZ113" s="110"/>
-      <c r="BA113" s="110"/>
-      <c r="BB113" s="110"/>
-      <c r="BC113" s="110"/>
-      <c r="BD113" s="110"/>
-      <c r="BE113" s="110"/>
-      <c r="BF113" s="110"/>
-      <c r="BG113" s="110"/>
-      <c r="BH113" s="110"/>
-      <c r="BI113" s="110"/>
-      <c r="BJ113" s="110"/>
-      <c r="BK113" s="110"/>
-      <c r="BL113" s="110"/>
-      <c r="BM113" s="110"/>
-      <c r="BN113" s="110"/>
-      <c r="BO113" s="110"/>
-      <c r="BP113" s="110"/>
-      <c r="BQ113" s="110"/>
-      <c r="BR113" s="110"/>
-      <c r="BS113" s="111"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="22"/>
+      <c r="AD113" s="22"/>
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="22"/>
+      <c r="AI113" s="22"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="22"/>
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="22"/>
+      <c r="AP113" s="22"/>
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="22"/>
+      <c r="AT113" s="22"/>
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="22"/>
+      <c r="AY113" s="22"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="22"/>
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="22"/>
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="22"/>
+      <c r="BK113" s="22"/>
+      <c r="BL113" s="22"/>
+      <c r="BM113" s="22"/>
+      <c r="BN113" s="22"/>
+      <c r="BO113" s="22"/>
+      <c r="BP113" s="22"/>
+      <c r="BQ113" s="22"/>
+      <c r="BR113" s="22"/>
+      <c r="BS113" s="23"/>
     </row>
     <row r="114" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A114" s="112"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="113"/>
-      <c r="G114" s="113"/>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="113"/>
-      <c r="K114" s="113"/>
-      <c r="L114" s="113"/>
-      <c r="M114" s="113"/>
-      <c r="N114" s="113"/>
-      <c r="O114" s="113"/>
-      <c r="P114" s="113"/>
-      <c r="Q114" s="113"/>
-      <c r="R114" s="113"/>
-      <c r="S114" s="113"/>
-      <c r="T114" s="113"/>
-      <c r="U114" s="113"/>
-      <c r="V114" s="113"/>
-      <c r="W114" s="113"/>
-      <c r="X114" s="113"/>
-      <c r="Y114" s="113"/>
-      <c r="Z114" s="113"/>
-      <c r="AA114" s="113"/>
-      <c r="AB114" s="113"/>
-      <c r="AC114" s="113"/>
-      <c r="AD114" s="113"/>
-      <c r="AE114" s="113"/>
-      <c r="AF114" s="113"/>
-      <c r="AG114" s="113"/>
-      <c r="AH114" s="113"/>
-      <c r="AI114" s="113"/>
-      <c r="AJ114" s="113"/>
-      <c r="AK114" s="113"/>
-      <c r="AL114" s="113"/>
-      <c r="AM114" s="113"/>
-      <c r="AN114" s="113"/>
-      <c r="AO114" s="113"/>
-      <c r="AP114" s="113"/>
-      <c r="AQ114" s="113"/>
-      <c r="AR114" s="113"/>
-      <c r="AS114" s="113"/>
-      <c r="AT114" s="113"/>
-      <c r="AU114" s="113"/>
-      <c r="AV114" s="113"/>
-      <c r="AW114" s="113"/>
-      <c r="AX114" s="113"/>
-      <c r="AY114" s="113"/>
-      <c r="AZ114" s="113"/>
-      <c r="BA114" s="113"/>
-      <c r="BB114" s="113"/>
-      <c r="BC114" s="113"/>
-      <c r="BD114" s="113"/>
-      <c r="BE114" s="113"/>
-      <c r="BF114" s="113"/>
-      <c r="BG114" s="113"/>
-      <c r="BH114" s="113"/>
-      <c r="BI114" s="113"/>
-      <c r="BJ114" s="113"/>
-      <c r="BK114" s="113"/>
-      <c r="BL114" s="113"/>
-      <c r="BM114" s="113"/>
-      <c r="BN114" s="113"/>
-      <c r="BO114" s="113"/>
-      <c r="BP114" s="113"/>
-      <c r="BQ114" s="113"/>
-      <c r="BR114" s="113"/>
-      <c r="BS114" s="114"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
+      <c r="X114" s="25"/>
+      <c r="Y114" s="25"/>
+      <c r="Z114" s="25"/>
+      <c r="AA114" s="25"/>
+      <c r="AB114" s="25"/>
+      <c r="AC114" s="25"/>
+      <c r="AD114" s="25"/>
+      <c r="AE114" s="25"/>
+      <c r="AF114" s="25"/>
+      <c r="AG114" s="25"/>
+      <c r="AH114" s="25"/>
+      <c r="AI114" s="25"/>
+      <c r="AJ114" s="25"/>
+      <c r="AK114" s="25"/>
+      <c r="AL114" s="25"/>
+      <c r="AM114" s="25"/>
+      <c r="AN114" s="25"/>
+      <c r="AO114" s="25"/>
+      <c r="AP114" s="25"/>
+      <c r="AQ114" s="25"/>
+      <c r="AR114" s="25"/>
+      <c r="AS114" s="25"/>
+      <c r="AT114" s="25"/>
+      <c r="AU114" s="25"/>
+      <c r="AV114" s="25"/>
+      <c r="AW114" s="25"/>
+      <c r="AX114" s="25"/>
+      <c r="AY114" s="25"/>
+      <c r="AZ114" s="25"/>
+      <c r="BA114" s="25"/>
+      <c r="BB114" s="25"/>
+      <c r="BC114" s="25"/>
+      <c r="BD114" s="25"/>
+      <c r="BE114" s="25"/>
+      <c r="BF114" s="25"/>
+      <c r="BG114" s="25"/>
+      <c r="BH114" s="25"/>
+      <c r="BI114" s="25"/>
+      <c r="BJ114" s="25"/>
+      <c r="BK114" s="25"/>
+      <c r="BL114" s="25"/>
+      <c r="BM114" s="25"/>
+      <c r="BN114" s="25"/>
+      <c r="BO114" s="25"/>
+      <c r="BP114" s="25"/>
+      <c r="BQ114" s="25"/>
+      <c r="BR114" s="25"/>
+      <c r="BS114" s="26"/>
     </row>
     <row r="115" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A115" s="112"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="113"/>
-      <c r="G115" s="113"/>
-      <c r="H115" s="113"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="113"/>
-      <c r="K115" s="113"/>
-      <c r="L115" s="113"/>
-      <c r="M115" s="113"/>
-      <c r="N115" s="113"/>
-      <c r="O115" s="113"/>
-      <c r="P115" s="113"/>
-      <c r="Q115" s="113"/>
-      <c r="R115" s="113"/>
-      <c r="S115" s="113"/>
-      <c r="T115" s="113"/>
-      <c r="U115" s="113"/>
-      <c r="V115" s="113"/>
-      <c r="W115" s="113"/>
-      <c r="X115" s="113"/>
-      <c r="Y115" s="113"/>
-      <c r="Z115" s="113"/>
-      <c r="AA115" s="113"/>
-      <c r="AB115" s="113"/>
-      <c r="AC115" s="113"/>
-      <c r="AD115" s="113"/>
-      <c r="AE115" s="113"/>
-      <c r="AF115" s="113"/>
-      <c r="AG115" s="113"/>
-      <c r="AH115" s="113"/>
-      <c r="AI115" s="113"/>
-      <c r="AJ115" s="113"/>
-      <c r="AK115" s="113"/>
-      <c r="AL115" s="113"/>
-      <c r="AM115" s="113"/>
-      <c r="AN115" s="113"/>
-      <c r="AO115" s="113"/>
-      <c r="AP115" s="113"/>
-      <c r="AQ115" s="113"/>
-      <c r="AR115" s="113"/>
-      <c r="AS115" s="113"/>
-      <c r="AT115" s="113"/>
-      <c r="AU115" s="113"/>
-      <c r="AV115" s="113"/>
-      <c r="AW115" s="113"/>
-      <c r="AX115" s="113"/>
-      <c r="AY115" s="113"/>
-      <c r="AZ115" s="113"/>
-      <c r="BA115" s="113"/>
-      <c r="BB115" s="113"/>
-      <c r="BC115" s="113"/>
-      <c r="BD115" s="113"/>
-      <c r="BE115" s="113"/>
-      <c r="BF115" s="113"/>
-      <c r="BG115" s="113"/>
-      <c r="BH115" s="113"/>
-      <c r="BI115" s="113"/>
-      <c r="BJ115" s="113"/>
-      <c r="BK115" s="113"/>
-      <c r="BL115" s="113"/>
-      <c r="BM115" s="113"/>
-      <c r="BN115" s="113"/>
-      <c r="BO115" s="113"/>
-      <c r="BP115" s="113"/>
-      <c r="BQ115" s="113"/>
-      <c r="BR115" s="113"/>
-      <c r="BS115" s="114"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="25"/>
+      <c r="W115" s="25"/>
+      <c r="X115" s="25"/>
+      <c r="Y115" s="25"/>
+      <c r="Z115" s="25"/>
+      <c r="AA115" s="25"/>
+      <c r="AB115" s="25"/>
+      <c r="AC115" s="25"/>
+      <c r="AD115" s="25"/>
+      <c r="AE115" s="25"/>
+      <c r="AF115" s="25"/>
+      <c r="AG115" s="25"/>
+      <c r="AH115" s="25"/>
+      <c r="AI115" s="25"/>
+      <c r="AJ115" s="25"/>
+      <c r="AK115" s="25"/>
+      <c r="AL115" s="25"/>
+      <c r="AM115" s="25"/>
+      <c r="AN115" s="25"/>
+      <c r="AO115" s="25"/>
+      <c r="AP115" s="25"/>
+      <c r="AQ115" s="25"/>
+      <c r="AR115" s="25"/>
+      <c r="AS115" s="25"/>
+      <c r="AT115" s="25"/>
+      <c r="AU115" s="25"/>
+      <c r="AV115" s="25"/>
+      <c r="AW115" s="25"/>
+      <c r="AX115" s="25"/>
+      <c r="AY115" s="25"/>
+      <c r="AZ115" s="25"/>
+      <c r="BA115" s="25"/>
+      <c r="BB115" s="25"/>
+      <c r="BC115" s="25"/>
+      <c r="BD115" s="25"/>
+      <c r="BE115" s="25"/>
+      <c r="BF115" s="25"/>
+      <c r="BG115" s="25"/>
+      <c r="BH115" s="25"/>
+      <c r="BI115" s="25"/>
+      <c r="BJ115" s="25"/>
+      <c r="BK115" s="25"/>
+      <c r="BL115" s="25"/>
+      <c r="BM115" s="25"/>
+      <c r="BN115" s="25"/>
+      <c r="BO115" s="25"/>
+      <c r="BP115" s="25"/>
+      <c r="BQ115" s="25"/>
+      <c r="BR115" s="25"/>
+      <c r="BS115" s="26"/>
     </row>
     <row r="116" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A116" s="112"/>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
-      <c r="F116" s="113"/>
-      <c r="G116" s="113"/>
-      <c r="H116" s="113"/>
-      <c r="I116" s="113"/>
-      <c r="J116" s="113"/>
-      <c r="K116" s="113"/>
-      <c r="L116" s="113"/>
-      <c r="M116" s="113"/>
-      <c r="N116" s="113"/>
-      <c r="O116" s="113"/>
-      <c r="P116" s="113"/>
-      <c r="Q116" s="113"/>
-      <c r="R116" s="113"/>
-      <c r="S116" s="113"/>
-      <c r="T116" s="113"/>
-      <c r="U116" s="113"/>
-      <c r="V116" s="113"/>
-      <c r="W116" s="113"/>
-      <c r="X116" s="113"/>
-      <c r="Y116" s="113"/>
-      <c r="Z116" s="113"/>
-      <c r="AA116" s="113"/>
-      <c r="AB116" s="113"/>
-      <c r="AC116" s="113"/>
-      <c r="AD116" s="113"/>
-      <c r="AE116" s="113"/>
-      <c r="AF116" s="113"/>
-      <c r="AG116" s="113"/>
-      <c r="AH116" s="113"/>
-      <c r="AI116" s="113"/>
-      <c r="AJ116" s="113"/>
-      <c r="AK116" s="113"/>
-      <c r="AL116" s="113"/>
-      <c r="AM116" s="113"/>
-      <c r="AN116" s="113"/>
-      <c r="AO116" s="113"/>
-      <c r="AP116" s="113"/>
-      <c r="AQ116" s="113"/>
-      <c r="AR116" s="113"/>
-      <c r="AS116" s="113"/>
-      <c r="AT116" s="113"/>
-      <c r="AU116" s="113"/>
-      <c r="AV116" s="113"/>
-      <c r="AW116" s="113"/>
-      <c r="AX116" s="113"/>
-      <c r="AY116" s="113"/>
-      <c r="AZ116" s="113"/>
-      <c r="BA116" s="113"/>
-      <c r="BB116" s="113"/>
-      <c r="BC116" s="113"/>
-      <c r="BD116" s="113"/>
-      <c r="BE116" s="113"/>
-      <c r="BF116" s="113"/>
-      <c r="BG116" s="113"/>
-      <c r="BH116" s="113"/>
-      <c r="BI116" s="113"/>
-      <c r="BJ116" s="113"/>
-      <c r="BK116" s="113"/>
-      <c r="BL116" s="113"/>
-      <c r="BM116" s="113"/>
-      <c r="BN116" s="113"/>
-      <c r="BO116" s="113"/>
-      <c r="BP116" s="113"/>
-      <c r="BQ116" s="113"/>
-      <c r="BR116" s="113"/>
-      <c r="BS116" s="114"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="25"/>
+      <c r="W116" s="25"/>
+      <c r="X116" s="25"/>
+      <c r="Y116" s="25"/>
+      <c r="Z116" s="25"/>
+      <c r="AA116" s="25"/>
+      <c r="AB116" s="25"/>
+      <c r="AC116" s="25"/>
+      <c r="AD116" s="25"/>
+      <c r="AE116" s="25"/>
+      <c r="AF116" s="25"/>
+      <c r="AG116" s="25"/>
+      <c r="AH116" s="25"/>
+      <c r="AI116" s="25"/>
+      <c r="AJ116" s="25"/>
+      <c r="AK116" s="25"/>
+      <c r="AL116" s="25"/>
+      <c r="AM116" s="25"/>
+      <c r="AN116" s="25"/>
+      <c r="AO116" s="25"/>
+      <c r="AP116" s="25"/>
+      <c r="AQ116" s="25"/>
+      <c r="AR116" s="25"/>
+      <c r="AS116" s="25"/>
+      <c r="AT116" s="25"/>
+      <c r="AU116" s="25"/>
+      <c r="AV116" s="25"/>
+      <c r="AW116" s="25"/>
+      <c r="AX116" s="25"/>
+      <c r="AY116" s="25"/>
+      <c r="AZ116" s="25"/>
+      <c r="BA116" s="25"/>
+      <c r="BB116" s="25"/>
+      <c r="BC116" s="25"/>
+      <c r="BD116" s="25"/>
+      <c r="BE116" s="25"/>
+      <c r="BF116" s="25"/>
+      <c r="BG116" s="25"/>
+      <c r="BH116" s="25"/>
+      <c r="BI116" s="25"/>
+      <c r="BJ116" s="25"/>
+      <c r="BK116" s="25"/>
+      <c r="BL116" s="25"/>
+      <c r="BM116" s="25"/>
+      <c r="BN116" s="25"/>
+      <c r="BO116" s="25"/>
+      <c r="BP116" s="25"/>
+      <c r="BQ116" s="25"/>
+      <c r="BR116" s="25"/>
+      <c r="BS116" s="26"/>
     </row>
     <row r="117" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="73" t="s">
+      <c r="A117" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="71"/>
-      <c r="D117" s="71"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="71"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -15617,15 +15617,15 @@
       <c r="BS117" s="17"/>
     </row>
     <row r="118" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A118" s="74"/>
-      <c r="B118" s="51" t="s">
+      <c r="A118" s="103"/>
+      <c r="B118" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -15692,17 +15692,17 @@
       <c r="BS118" s="17"/>
     </row>
     <row r="119" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A119" s="66" t="s">
+      <c r="A119" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="101"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="101"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -15769,15 +15769,15 @@
       <c r="BS119" s="17"/>
     </row>
     <row r="120" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A120" s="75"/>
-      <c r="B120" s="53" t="s">
+      <c r="A120" s="52"/>
+      <c r="B120" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -15844,15 +15844,15 @@
       <c r="BS120" s="17"/>
     </row>
     <row r="121" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A121" s="67"/>
-      <c r="B121" s="51" t="s">
+      <c r="A121" s="53"/>
+      <c r="B121" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="71"/>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="71"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -15919,17 +15919,17 @@
       <c r="BS121" s="17"/>
     </row>
     <row r="122" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A122" s="66" t="s">
+      <c r="A122" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="51" t="s">
+      <c r="B122" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="71"/>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -15996,15 +15996,15 @@
       <c r="BS122" s="17"/>
     </row>
     <row r="123" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A123" s="75"/>
-      <c r="B123" s="51" t="s">
+      <c r="A123" s="52"/>
+      <c r="B123" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="71"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="71"/>
-      <c r="G123" s="71"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
@@ -16071,15 +16071,15 @@
       <c r="BS123" s="17"/>
     </row>
     <row r="124" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A124" s="67"/>
-      <c r="B124" s="51" t="s">
+      <c r="A124" s="53"/>
+      <c r="B124" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="52"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="101"/>
+      <c r="G124" s="101"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
@@ -16146,311 +16146,311 @@
       <c r="BS124" s="17"/>
     </row>
     <row r="125" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="115" t="s">
+      <c r="A125" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B125" s="116"/>
-      <c r="C125" s="116"/>
-      <c r="D125" s="116"/>
-      <c r="E125" s="116"/>
-      <c r="F125" s="116"/>
-      <c r="G125" s="116"/>
-      <c r="H125" s="116"/>
-      <c r="I125" s="116"/>
-      <c r="J125" s="116"/>
-      <c r="K125" s="116"/>
-      <c r="L125" s="116"/>
-      <c r="M125" s="116"/>
-      <c r="N125" s="116"/>
-      <c r="O125" s="116"/>
-      <c r="P125" s="116"/>
-      <c r="Q125" s="116"/>
-      <c r="R125" s="116"/>
-      <c r="S125" s="116"/>
-      <c r="T125" s="116"/>
-      <c r="U125" s="116"/>
-      <c r="V125" s="116"/>
-      <c r="W125" s="116"/>
-      <c r="X125" s="116"/>
-      <c r="Y125" s="116"/>
-      <c r="Z125" s="116"/>
-      <c r="AA125" s="116"/>
-      <c r="AB125" s="116"/>
-      <c r="AC125" s="116"/>
-      <c r="AD125" s="116"/>
-      <c r="AE125" s="116"/>
-      <c r="AF125" s="116"/>
-      <c r="AG125" s="116"/>
-      <c r="AH125" s="116"/>
-      <c r="AI125" s="116"/>
-      <c r="AJ125" s="116"/>
-      <c r="AK125" s="116"/>
-      <c r="AL125" s="116"/>
-      <c r="AM125" s="116"/>
-      <c r="AN125" s="116"/>
-      <c r="AO125" s="116"/>
-      <c r="AP125" s="116"/>
-      <c r="AQ125" s="116"/>
-      <c r="AR125" s="116"/>
-      <c r="AS125" s="116"/>
-      <c r="AT125" s="116"/>
-      <c r="AU125" s="116"/>
-      <c r="AV125" s="116"/>
-      <c r="AW125" s="116"/>
-      <c r="AX125" s="116"/>
-      <c r="AY125" s="116"/>
-      <c r="AZ125" s="116"/>
-      <c r="BA125" s="116"/>
-      <c r="BB125" s="116"/>
-      <c r="BC125" s="116"/>
-      <c r="BD125" s="116"/>
-      <c r="BE125" s="116"/>
-      <c r="BF125" s="116"/>
-      <c r="BG125" s="116"/>
-      <c r="BH125" s="116"/>
-      <c r="BI125" s="116"/>
-      <c r="BJ125" s="116"/>
-      <c r="BK125" s="116"/>
-      <c r="BL125" s="116"/>
-      <c r="BM125" s="116"/>
-      <c r="BN125" s="116"/>
-      <c r="BO125" s="116"/>
-      <c r="BP125" s="116"/>
-      <c r="BQ125" s="116"/>
-      <c r="BR125" s="116"/>
-      <c r="BS125" s="117"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="28"/>
+      <c r="N125" s="28"/>
+      <c r="O125" s="28"/>
+      <c r="P125" s="28"/>
+      <c r="Q125" s="28"/>
+      <c r="R125" s="28"/>
+      <c r="S125" s="28"/>
+      <c r="T125" s="28"/>
+      <c r="U125" s="28"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="28"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="28"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="28"/>
+      <c r="AC125" s="28"/>
+      <c r="AD125" s="28"/>
+      <c r="AE125" s="28"/>
+      <c r="AF125" s="28"/>
+      <c r="AG125" s="28"/>
+      <c r="AH125" s="28"/>
+      <c r="AI125" s="28"/>
+      <c r="AJ125" s="28"/>
+      <c r="AK125" s="28"/>
+      <c r="AL125" s="28"/>
+      <c r="AM125" s="28"/>
+      <c r="AN125" s="28"/>
+      <c r="AO125" s="28"/>
+      <c r="AP125" s="28"/>
+      <c r="AQ125" s="28"/>
+      <c r="AR125" s="28"/>
+      <c r="AS125" s="28"/>
+      <c r="AT125" s="28"/>
+      <c r="AU125" s="28"/>
+      <c r="AV125" s="28"/>
+      <c r="AW125" s="28"/>
+      <c r="AX125" s="28"/>
+      <c r="AY125" s="28"/>
+      <c r="AZ125" s="28"/>
+      <c r="BA125" s="28"/>
+      <c r="BB125" s="28"/>
+      <c r="BC125" s="28"/>
+      <c r="BD125" s="28"/>
+      <c r="BE125" s="28"/>
+      <c r="BF125" s="28"/>
+      <c r="BG125" s="28"/>
+      <c r="BH125" s="28"/>
+      <c r="BI125" s="28"/>
+      <c r="BJ125" s="28"/>
+      <c r="BK125" s="28"/>
+      <c r="BL125" s="28"/>
+      <c r="BM125" s="28"/>
+      <c r="BN125" s="28"/>
+      <c r="BO125" s="28"/>
+      <c r="BP125" s="28"/>
+      <c r="BQ125" s="28"/>
+      <c r="BR125" s="28"/>
+      <c r="BS125" s="29"/>
     </row>
     <row r="126" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A126" s="118"/>
-      <c r="B126" s="119"/>
-      <c r="C126" s="119"/>
-      <c r="D126" s="119"/>
-      <c r="E126" s="119"/>
-      <c r="F126" s="119"/>
-      <c r="G126" s="119"/>
-      <c r="H126" s="119"/>
-      <c r="I126" s="119"/>
-      <c r="J126" s="119"/>
-      <c r="K126" s="119"/>
-      <c r="L126" s="119"/>
-      <c r="M126" s="119"/>
-      <c r="N126" s="119"/>
-      <c r="O126" s="119"/>
-      <c r="P126" s="119"/>
-      <c r="Q126" s="119"/>
-      <c r="R126" s="119"/>
-      <c r="S126" s="119"/>
-      <c r="T126" s="119"/>
-      <c r="U126" s="119"/>
-      <c r="V126" s="119"/>
-      <c r="W126" s="119"/>
-      <c r="X126" s="119"/>
-      <c r="Y126" s="119"/>
-      <c r="Z126" s="119"/>
-      <c r="AA126" s="119"/>
-      <c r="AB126" s="119"/>
-      <c r="AC126" s="119"/>
-      <c r="AD126" s="119"/>
-      <c r="AE126" s="119"/>
-      <c r="AF126" s="119"/>
-      <c r="AG126" s="119"/>
-      <c r="AH126" s="119"/>
-      <c r="AI126" s="119"/>
-      <c r="AJ126" s="119"/>
-      <c r="AK126" s="119"/>
-      <c r="AL126" s="119"/>
-      <c r="AM126" s="119"/>
-      <c r="AN126" s="119"/>
-      <c r="AO126" s="119"/>
-      <c r="AP126" s="119"/>
-      <c r="AQ126" s="119"/>
-      <c r="AR126" s="119"/>
-      <c r="AS126" s="119"/>
-      <c r="AT126" s="119"/>
-      <c r="AU126" s="119"/>
-      <c r="AV126" s="119"/>
-      <c r="AW126" s="119"/>
-      <c r="AX126" s="119"/>
-      <c r="AY126" s="119"/>
-      <c r="AZ126" s="119"/>
-      <c r="BA126" s="119"/>
-      <c r="BB126" s="119"/>
-      <c r="BC126" s="119"/>
-      <c r="BD126" s="119"/>
-      <c r="BE126" s="119"/>
-      <c r="BF126" s="119"/>
-      <c r="BG126" s="119"/>
-      <c r="BH126" s="119"/>
-      <c r="BI126" s="119"/>
-      <c r="BJ126" s="119"/>
-      <c r="BK126" s="119"/>
-      <c r="BL126" s="119"/>
-      <c r="BM126" s="119"/>
-      <c r="BN126" s="119"/>
-      <c r="BO126" s="119"/>
-      <c r="BP126" s="119"/>
-      <c r="BQ126" s="119"/>
-      <c r="BR126" s="119"/>
-      <c r="BS126" s="120"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="31"/>
+      <c r="O126" s="31"/>
+      <c r="P126" s="31"/>
+      <c r="Q126" s="31"/>
+      <c r="R126" s="31"/>
+      <c r="S126" s="31"/>
+      <c r="T126" s="31"/>
+      <c r="U126" s="31"/>
+      <c r="V126" s="31"/>
+      <c r="W126" s="31"/>
+      <c r="X126" s="31"/>
+      <c r="Y126" s="31"/>
+      <c r="Z126" s="31"/>
+      <c r="AA126" s="31"/>
+      <c r="AB126" s="31"/>
+      <c r="AC126" s="31"/>
+      <c r="AD126" s="31"/>
+      <c r="AE126" s="31"/>
+      <c r="AF126" s="31"/>
+      <c r="AG126" s="31"/>
+      <c r="AH126" s="31"/>
+      <c r="AI126" s="31"/>
+      <c r="AJ126" s="31"/>
+      <c r="AK126" s="31"/>
+      <c r="AL126" s="31"/>
+      <c r="AM126" s="31"/>
+      <c r="AN126" s="31"/>
+      <c r="AO126" s="31"/>
+      <c r="AP126" s="31"/>
+      <c r="AQ126" s="31"/>
+      <c r="AR126" s="31"/>
+      <c r="AS126" s="31"/>
+      <c r="AT126" s="31"/>
+      <c r="AU126" s="31"/>
+      <c r="AV126" s="31"/>
+      <c r="AW126" s="31"/>
+      <c r="AX126" s="31"/>
+      <c r="AY126" s="31"/>
+      <c r="AZ126" s="31"/>
+      <c r="BA126" s="31"/>
+      <c r="BB126" s="31"/>
+      <c r="BC126" s="31"/>
+      <c r="BD126" s="31"/>
+      <c r="BE126" s="31"/>
+      <c r="BF126" s="31"/>
+      <c r="BG126" s="31"/>
+      <c r="BH126" s="31"/>
+      <c r="BI126" s="31"/>
+      <c r="BJ126" s="31"/>
+      <c r="BK126" s="31"/>
+      <c r="BL126" s="31"/>
+      <c r="BM126" s="31"/>
+      <c r="BN126" s="31"/>
+      <c r="BO126" s="31"/>
+      <c r="BP126" s="31"/>
+      <c r="BQ126" s="31"/>
+      <c r="BR126" s="31"/>
+      <c r="BS126" s="32"/>
     </row>
     <row r="127" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A127" s="118"/>
-      <c r="B127" s="119"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="119"/>
-      <c r="E127" s="119"/>
-      <c r="F127" s="119"/>
-      <c r="G127" s="119"/>
-      <c r="H127" s="119"/>
-      <c r="I127" s="119"/>
-      <c r="J127" s="119"/>
-      <c r="K127" s="119"/>
-      <c r="L127" s="119"/>
-      <c r="M127" s="119"/>
-      <c r="N127" s="119"/>
-      <c r="O127" s="119"/>
-      <c r="P127" s="119"/>
-      <c r="Q127" s="119"/>
-      <c r="R127" s="119"/>
-      <c r="S127" s="119"/>
-      <c r="T127" s="119"/>
-      <c r="U127" s="119"/>
-      <c r="V127" s="119"/>
-      <c r="W127" s="119"/>
-      <c r="X127" s="119"/>
-      <c r="Y127" s="119"/>
-      <c r="Z127" s="119"/>
-      <c r="AA127" s="119"/>
-      <c r="AB127" s="119"/>
-      <c r="AC127" s="119"/>
-      <c r="AD127" s="119"/>
-      <c r="AE127" s="119"/>
-      <c r="AF127" s="119"/>
-      <c r="AG127" s="119"/>
-      <c r="AH127" s="119"/>
-      <c r="AI127" s="119"/>
-      <c r="AJ127" s="119"/>
-      <c r="AK127" s="119"/>
-      <c r="AL127" s="119"/>
-      <c r="AM127" s="119"/>
-      <c r="AN127" s="119"/>
-      <c r="AO127" s="119"/>
-      <c r="AP127" s="119"/>
-      <c r="AQ127" s="119"/>
-      <c r="AR127" s="119"/>
-      <c r="AS127" s="119"/>
-      <c r="AT127" s="119"/>
-      <c r="AU127" s="119"/>
-      <c r="AV127" s="119"/>
-      <c r="AW127" s="119"/>
-      <c r="AX127" s="119"/>
-      <c r="AY127" s="119"/>
-      <c r="AZ127" s="119"/>
-      <c r="BA127" s="119"/>
-      <c r="BB127" s="119"/>
-      <c r="BC127" s="119"/>
-      <c r="BD127" s="119"/>
-      <c r="BE127" s="119"/>
-      <c r="BF127" s="119"/>
-      <c r="BG127" s="119"/>
-      <c r="BH127" s="119"/>
-      <c r="BI127" s="119"/>
-      <c r="BJ127" s="119"/>
-      <c r="BK127" s="119"/>
-      <c r="BL127" s="119"/>
-      <c r="BM127" s="119"/>
-      <c r="BN127" s="119"/>
-      <c r="BO127" s="119"/>
-      <c r="BP127" s="119"/>
-      <c r="BQ127" s="119"/>
-      <c r="BR127" s="119"/>
-      <c r="BS127" s="120"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
+      <c r="N127" s="31"/>
+      <c r="O127" s="31"/>
+      <c r="P127" s="31"/>
+      <c r="Q127" s="31"/>
+      <c r="R127" s="31"/>
+      <c r="S127" s="31"/>
+      <c r="T127" s="31"/>
+      <c r="U127" s="31"/>
+      <c r="V127" s="31"/>
+      <c r="W127" s="31"/>
+      <c r="X127" s="31"/>
+      <c r="Y127" s="31"/>
+      <c r="Z127" s="31"/>
+      <c r="AA127" s="31"/>
+      <c r="AB127" s="31"/>
+      <c r="AC127" s="31"/>
+      <c r="AD127" s="31"/>
+      <c r="AE127" s="31"/>
+      <c r="AF127" s="31"/>
+      <c r="AG127" s="31"/>
+      <c r="AH127" s="31"/>
+      <c r="AI127" s="31"/>
+      <c r="AJ127" s="31"/>
+      <c r="AK127" s="31"/>
+      <c r="AL127" s="31"/>
+      <c r="AM127" s="31"/>
+      <c r="AN127" s="31"/>
+      <c r="AO127" s="31"/>
+      <c r="AP127" s="31"/>
+      <c r="AQ127" s="31"/>
+      <c r="AR127" s="31"/>
+      <c r="AS127" s="31"/>
+      <c r="AT127" s="31"/>
+      <c r="AU127" s="31"/>
+      <c r="AV127" s="31"/>
+      <c r="AW127" s="31"/>
+      <c r="AX127" s="31"/>
+      <c r="AY127" s="31"/>
+      <c r="AZ127" s="31"/>
+      <c r="BA127" s="31"/>
+      <c r="BB127" s="31"/>
+      <c r="BC127" s="31"/>
+      <c r="BD127" s="31"/>
+      <c r="BE127" s="31"/>
+      <c r="BF127" s="31"/>
+      <c r="BG127" s="31"/>
+      <c r="BH127" s="31"/>
+      <c r="BI127" s="31"/>
+      <c r="BJ127" s="31"/>
+      <c r="BK127" s="31"/>
+      <c r="BL127" s="31"/>
+      <c r="BM127" s="31"/>
+      <c r="BN127" s="31"/>
+      <c r="BO127" s="31"/>
+      <c r="BP127" s="31"/>
+      <c r="BQ127" s="31"/>
+      <c r="BR127" s="31"/>
+      <c r="BS127" s="32"/>
     </row>
     <row r="128" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A128" s="118"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="119"/>
-      <c r="D128" s="119"/>
-      <c r="E128" s="119"/>
-      <c r="F128" s="119"/>
-      <c r="G128" s="119"/>
-      <c r="H128" s="119"/>
-      <c r="I128" s="119"/>
-      <c r="J128" s="119"/>
-      <c r="K128" s="119"/>
-      <c r="L128" s="119"/>
-      <c r="M128" s="119"/>
-      <c r="N128" s="119"/>
-      <c r="O128" s="119"/>
-      <c r="P128" s="119"/>
-      <c r="Q128" s="119"/>
-      <c r="R128" s="119"/>
-      <c r="S128" s="119"/>
-      <c r="T128" s="119"/>
-      <c r="U128" s="119"/>
-      <c r="V128" s="119"/>
-      <c r="W128" s="119"/>
-      <c r="X128" s="119"/>
-      <c r="Y128" s="119"/>
-      <c r="Z128" s="119"/>
-      <c r="AA128" s="119"/>
-      <c r="AB128" s="119"/>
-      <c r="AC128" s="119"/>
-      <c r="AD128" s="119"/>
-      <c r="AE128" s="119"/>
-      <c r="AF128" s="119"/>
-      <c r="AG128" s="119"/>
-      <c r="AH128" s="119"/>
-      <c r="AI128" s="119"/>
-      <c r="AJ128" s="119"/>
-      <c r="AK128" s="119"/>
-      <c r="AL128" s="119"/>
-      <c r="AM128" s="119"/>
-      <c r="AN128" s="119"/>
-      <c r="AO128" s="119"/>
-      <c r="AP128" s="119"/>
-      <c r="AQ128" s="119"/>
-      <c r="AR128" s="119"/>
-      <c r="AS128" s="119"/>
-      <c r="AT128" s="119"/>
-      <c r="AU128" s="119"/>
-      <c r="AV128" s="119"/>
-      <c r="AW128" s="119"/>
-      <c r="AX128" s="119"/>
-      <c r="AY128" s="119"/>
-      <c r="AZ128" s="119"/>
-      <c r="BA128" s="119"/>
-      <c r="BB128" s="119"/>
-      <c r="BC128" s="119"/>
-      <c r="BD128" s="119"/>
-      <c r="BE128" s="119"/>
-      <c r="BF128" s="119"/>
-      <c r="BG128" s="119"/>
-      <c r="BH128" s="119"/>
-      <c r="BI128" s="119"/>
-      <c r="BJ128" s="119"/>
-      <c r="BK128" s="119"/>
-      <c r="BL128" s="119"/>
-      <c r="BM128" s="119"/>
-      <c r="BN128" s="119"/>
-      <c r="BO128" s="119"/>
-      <c r="BP128" s="119"/>
-      <c r="BQ128" s="119"/>
-      <c r="BR128" s="119"/>
-      <c r="BS128" s="120"/>
+      <c r="A128" s="30"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="31"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
+      <c r="L128" s="31"/>
+      <c r="M128" s="31"/>
+      <c r="N128" s="31"/>
+      <c r="O128" s="31"/>
+      <c r="P128" s="31"/>
+      <c r="Q128" s="31"/>
+      <c r="R128" s="31"/>
+      <c r="S128" s="31"/>
+      <c r="T128" s="31"/>
+      <c r="U128" s="31"/>
+      <c r="V128" s="31"/>
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="31"/>
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="31"/>
+      <c r="AE128" s="31"/>
+      <c r="AF128" s="31"/>
+      <c r="AG128" s="31"/>
+      <c r="AH128" s="31"/>
+      <c r="AI128" s="31"/>
+      <c r="AJ128" s="31"/>
+      <c r="AK128" s="31"/>
+      <c r="AL128" s="31"/>
+      <c r="AM128" s="31"/>
+      <c r="AN128" s="31"/>
+      <c r="AO128" s="31"/>
+      <c r="AP128" s="31"/>
+      <c r="AQ128" s="31"/>
+      <c r="AR128" s="31"/>
+      <c r="AS128" s="31"/>
+      <c r="AT128" s="31"/>
+      <c r="AU128" s="31"/>
+      <c r="AV128" s="31"/>
+      <c r="AW128" s="31"/>
+      <c r="AX128" s="31"/>
+      <c r="AY128" s="31"/>
+      <c r="AZ128" s="31"/>
+      <c r="BA128" s="31"/>
+      <c r="BB128" s="31"/>
+      <c r="BC128" s="31"/>
+      <c r="BD128" s="31"/>
+      <c r="BE128" s="31"/>
+      <c r="BF128" s="31"/>
+      <c r="BG128" s="31"/>
+      <c r="BH128" s="31"/>
+      <c r="BI128" s="31"/>
+      <c r="BJ128" s="31"/>
+      <c r="BK128" s="31"/>
+      <c r="BL128" s="31"/>
+      <c r="BM128" s="31"/>
+      <c r="BN128" s="31"/>
+      <c r="BO128" s="31"/>
+      <c r="BP128" s="31"/>
+      <c r="BQ128" s="31"/>
+      <c r="BR128" s="31"/>
+      <c r="BS128" s="32"/>
     </row>
     <row r="129" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A129" s="64" t="s">
+      <c r="A129" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="51" t="s">
+      <c r="B129" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
+      <c r="C129" s="101"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -16517,15 +16517,15 @@
       <c r="BS129" s="17"/>
     </row>
     <row r="130" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A130" s="72"/>
-      <c r="B130" s="51" t="s">
+      <c r="A130" s="59"/>
+      <c r="B130" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -16592,15 +16592,15 @@
       <c r="BS130" s="17"/>
     </row>
     <row r="131" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A131" s="65"/>
-      <c r="B131" s="51" t="s">
+      <c r="A131" s="60"/>
+      <c r="B131" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
@@ -16667,17 +16667,17 @@
       <c r="BS131" s="17"/>
     </row>
     <row r="132" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B132" s="69" t="s">
+      <c r="B132" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="70"/>
-      <c r="D132" s="70"/>
-      <c r="E132" s="70"/>
-      <c r="F132" s="70"/>
-      <c r="G132" s="70"/>
+      <c r="C132" s="100"/>
+      <c r="D132" s="100"/>
+      <c r="E132" s="100"/>
+      <c r="F132" s="100"/>
+      <c r="G132" s="100"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
       <c r="J132" s="17"/>
@@ -16744,15 +16744,15 @@
       <c r="BS132" s="17"/>
     </row>
     <row r="133" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A133" s="67"/>
-      <c r="B133" s="51" t="s">
+      <c r="A133" s="53"/>
+      <c r="B133" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="71"/>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="71"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
       <c r="J133" s="17"/>
@@ -16819,17 +16819,17 @@
       <c r="BS133" s="17"/>
     </row>
     <row r="134" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A134" s="64" t="s">
+      <c r="A134" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
       <c r="J134" s="17"/>
@@ -16896,15 +16896,15 @@
       <c r="BS134" s="17"/>
     </row>
     <row r="135" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A135" s="72"/>
-      <c r="B135" s="47" t="s">
+      <c r="A135" s="59"/>
+      <c r="B135" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="108"/>
-      <c r="D135" s="108"/>
-      <c r="E135" s="108"/>
-      <c r="F135" s="108"/>
-      <c r="G135" s="108"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
       <c r="J135" s="17"/>
@@ -16971,15 +16971,15 @@
       <c r="BS135" s="17"/>
     </row>
     <row r="136" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A136" s="72"/>
-      <c r="B136" s="51" t="s">
+      <c r="A136" s="59"/>
+      <c r="B136" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="71"/>
-      <c r="D136" s="71"/>
-      <c r="E136" s="71"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
@@ -17046,15 +17046,15 @@
       <c r="BS136" s="17"/>
     </row>
     <row r="137" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A137" s="72"/>
-      <c r="B137" s="51" t="s">
+      <c r="A137" s="59"/>
+      <c r="B137" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="71"/>
-      <c r="D137" s="71"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
@@ -17121,15 +17121,15 @@
       <c r="BS137" s="17"/>
     </row>
     <row r="138" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A138" s="72"/>
-      <c r="B138" s="51" t="s">
+      <c r="A138" s="59"/>
+      <c r="B138" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="71"/>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="71"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
@@ -17196,15 +17196,15 @@
       <c r="BS138" s="17"/>
     </row>
     <row r="139" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A139" s="72"/>
-      <c r="B139" s="51" t="s">
+      <c r="A139" s="59"/>
+      <c r="B139" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="71"/>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="71"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
       <c r="J139" s="17"/>
@@ -17271,15 +17271,15 @@
       <c r="BS139" s="17"/>
     </row>
     <row r="140" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A140" s="72"/>
-      <c r="B140" s="51" t="s">
+      <c r="A140" s="59"/>
+      <c r="B140" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="71"/>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="71"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
@@ -17346,15 +17346,15 @@
       <c r="BS140" s="17"/>
     </row>
     <row r="141" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A141" s="72"/>
-      <c r="B141" s="51" t="s">
+      <c r="A141" s="59"/>
+      <c r="B141" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="71"/>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
@@ -17421,17 +17421,17 @@
       <c r="BS141" s="17"/>
     </row>
     <row r="142" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B142" s="71" t="s">
+      <c r="B142" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="71"/>
-      <c r="D142" s="71"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="55"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
@@ -17498,15 +17498,15 @@
       <c r="BS142" s="17"/>
     </row>
     <row r="143" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A143" s="75"/>
-      <c r="B143" s="51" t="s">
+      <c r="A143" s="52"/>
+      <c r="B143" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="71"/>
-      <c r="D143" s="71"/>
-      <c r="E143" s="71"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
@@ -17573,15 +17573,15 @@
       <c r="BS143" s="17"/>
     </row>
     <row r="144" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A144" s="67"/>
-      <c r="B144" s="47" t="s">
+      <c r="A144" s="53"/>
+      <c r="B144" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="108"/>
-      <c r="D144" s="108"/>
-      <c r="E144" s="108"/>
-      <c r="F144" s="108"/>
-      <c r="G144" s="108"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
       <c r="J144" s="17"/>
@@ -17654,6 +17654,199 @@
   </sheetData>
   <autoFilter ref="Q1:Q145"/>
   <mergeCells count="217">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="B44:G46"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="T1:U6"/>
+    <mergeCell ref="V1:W6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="H1:I6"/>
+    <mergeCell ref="J1:K6"/>
+    <mergeCell ref="L1:M6"/>
+    <mergeCell ref="N1:O6"/>
+    <mergeCell ref="P1:Q6"/>
+    <mergeCell ref="R1:S6"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:G7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="A134:A141"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="X1:Y6"/>
+    <mergeCell ref="Z1:AA6"/>
+    <mergeCell ref="AB1:AC6"/>
+    <mergeCell ref="AD1:AE6"/>
+    <mergeCell ref="AF1:AG6"/>
+    <mergeCell ref="AH1:AI6"/>
+    <mergeCell ref="AJ1:AK6"/>
+    <mergeCell ref="AL1:AM6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="AN1:AO6"/>
+    <mergeCell ref="AP1:AQ6"/>
+    <mergeCell ref="AR1:AS6"/>
+    <mergeCell ref="AT1:AU6"/>
+    <mergeCell ref="AV1:AW6"/>
+    <mergeCell ref="AX1:AY6"/>
+    <mergeCell ref="AZ1:BA6"/>
+    <mergeCell ref="BB1:BC6"/>
+    <mergeCell ref="BD1:BE6"/>
     <mergeCell ref="A99:BS102"/>
     <mergeCell ref="A113:BS116"/>
     <mergeCell ref="A125:BS128"/>
@@ -17678,199 +17871,6 @@
     <mergeCell ref="BD7:BE7"/>
     <mergeCell ref="BF7:BG7"/>
     <mergeCell ref="BH7:BI7"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="AN1:AO6"/>
-    <mergeCell ref="AP1:AQ6"/>
-    <mergeCell ref="AR1:AS6"/>
-    <mergeCell ref="AT1:AU6"/>
-    <mergeCell ref="AV1:AW6"/>
-    <mergeCell ref="AX1:AY6"/>
-    <mergeCell ref="AZ1:BA6"/>
-    <mergeCell ref="BB1:BC6"/>
-    <mergeCell ref="BD1:BE6"/>
-    <mergeCell ref="X1:Y6"/>
-    <mergeCell ref="Z1:AA6"/>
-    <mergeCell ref="AB1:AC6"/>
-    <mergeCell ref="AD1:AE6"/>
-    <mergeCell ref="AF1:AG6"/>
-    <mergeCell ref="AH1:AI6"/>
-    <mergeCell ref="AJ1:AK6"/>
-    <mergeCell ref="AL1:AM6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="A134:A141"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="T1:U6"/>
-    <mergeCell ref="V1:W6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="H1:I6"/>
-    <mergeCell ref="J1:K6"/>
-    <mergeCell ref="L1:M6"/>
-    <mergeCell ref="N1:O6"/>
-    <mergeCell ref="P1:Q6"/>
-    <mergeCell ref="R1:S6"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:G7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B42:G43"/>
-    <mergeCell ref="B44:G46"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:BS144">
     <cfRule type="iconSet" priority="1">

--- a/evaluatiefiches/keukenmedewerker/Evaluatie initiatie keuken ( nieuwe versie )(10844).xlsx
+++ b/evaluatiefiches/keukenmedewerker/Evaluatie initiatie keuken ( nieuwe versie )(10844).xlsx
@@ -1146,6 +1146,256 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,258 +1459,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1802,8 +1802,8 @@
   </sheetPr>
   <dimension ref="A1:BS145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1825,537 +1825,537 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="42"/>
-      <c r="BM1" s="43"/>
-      <c r="BN1" s="42"/>
-      <c r="BO1" s="43"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="42"/>
-      <c r="BS1" s="43"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="85"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="85"/>
+      <c r="BP1" s="130"/>
+      <c r="BQ1" s="130"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="85"/>
     </row>
     <row r="2" spans="1:71" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="45"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="45"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="45"/>
-      <c r="BP2" s="48"/>
-      <c r="BQ2" s="48"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="45"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="86"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="86"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
+      <c r="BR2" s="86"/>
+      <c r="BS2" s="87"/>
     </row>
     <row r="3" spans="1:71" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="44"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="44"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="44"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="44"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="44"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="44"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="48"/>
-      <c r="BQ3" s="48"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="45"/>
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="87"/>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="87"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="87"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="87"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="87"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="87"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="87"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="87"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="87"/>
+      <c r="BN3" s="86"/>
+      <c r="BO3" s="87"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="86"/>
+      <c r="BS3" s="87"/>
     </row>
     <row r="4" spans="1:71" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="90" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="44"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="44"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="44"/>
-      <c r="BC4" s="45"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="45"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="45"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="45"/>
-      <c r="BJ4" s="44"/>
-      <c r="BK4" s="45"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="45"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="48"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="45"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="86"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="87"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="87"/>
+      <c r="BP4" s="130"/>
+      <c r="BQ4" s="130"/>
+      <c r="BR4" s="86"/>
+      <c r="BS4" s="87"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="48"/>
-      <c r="BQ5" s="48"/>
-      <c r="BR5" s="44"/>
-      <c r="BS5" s="45"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="87"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="87"/>
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="87"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="87"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="87"/>
+      <c r="BJ5" s="86"/>
+      <c r="BK5" s="87"/>
+      <c r="BL5" s="86"/>
+      <c r="BM5" s="87"/>
+      <c r="BN5" s="86"/>
+      <c r="BO5" s="87"/>
+      <c r="BP5" s="130"/>
+      <c r="BQ5" s="130"/>
+      <c r="BR5" s="86"/>
+      <c r="BS5" s="87"/>
     </row>
     <row r="6" spans="1:71" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="46"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="46"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="47"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="47"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="130"/>
+      <c r="BQ6" s="130"/>
+      <c r="BR6" s="88"/>
+      <c r="BS6" s="89"/>
     </row>
     <row r="7" spans="1:71" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="49"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="50"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="50"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="50"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="50"/>
-      <c r="BP7" s="49"/>
-      <c r="BQ7" s="50"/>
-      <c r="BR7" s="49"/>
-      <c r="BS7" s="50"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="80"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="80"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="80"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="80"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="80"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="80"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="80"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="80"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="80"/>
+      <c r="BK7" s="81"/>
+      <c r="BL7" s="80"/>
+      <c r="BM7" s="81"/>
+      <c r="BN7" s="80"/>
+      <c r="BO7" s="81"/>
+      <c r="BP7" s="80"/>
+      <c r="BQ7" s="81"/>
+      <c r="BR7" s="80"/>
+      <c r="BS7" s="81"/>
     </row>
     <row r="8" spans="1:71" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="6" t="s">
         <v>161</v>
       </c>
@@ -2550,7 +2550,7 @@
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="40" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="10" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
@@ -2958,15 +2958,15 @@
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="17">
         <v>1</v>
       </c>
@@ -3161,15 +3161,15 @@
       </c>
     </row>
     <row r="12" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="17">
         <v>0</v>
       </c>
@@ -3364,17 +3364,17 @@
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="17">
         <v>2</v>
       </c>
@@ -3569,15 +3569,15 @@
       </c>
     </row>
     <row r="14" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="17">
         <v>3</v>
       </c>
@@ -3772,15 +3772,15 @@
       </c>
     </row>
     <row r="15" spans="1:71" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="129" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="17">
         <v>0</v>
       </c>
@@ -3975,15 +3975,15 @@
       </c>
     </row>
     <row r="16" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="17">
         <v>1</v>
       </c>
@@ -4178,17 +4178,17 @@
       </c>
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="17">
         <v>5</v>
       </c>
@@ -4383,15 +4383,15 @@
       </c>
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="17">
         <v>0</v>
       </c>
@@ -4586,15 +4586,15 @@
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="17">
         <v>7</v>
       </c>
@@ -4789,15 +4789,15 @@
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="17">
         <v>1</v>
       </c>
@@ -4992,17 +4992,17 @@
       </c>
     </row>
     <row r="21" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="17">
         <v>3</v>
       </c>
@@ -5197,15 +5197,15 @@
       </c>
     </row>
     <row r="22" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="17">
         <v>45</v>
       </c>
@@ -5400,15 +5400,15 @@
       </c>
     </row>
     <row r="23" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="118" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="17">
         <v>1</v>
       </c>
@@ -5603,15 +5603,15 @@
       </c>
     </row>
     <row r="24" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="88" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="17">
         <v>7</v>
       </c>
@@ -5806,15 +5806,15 @@
       </c>
     </row>
     <row r="25" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="118" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="17">
         <v>1</v>
       </c>
@@ -6009,17 +6009,17 @@
       </c>
     </row>
     <row r="26" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="H26" s="17">
         <v>3</v>
       </c>
@@ -6214,15 +6214,15 @@
       </c>
     </row>
     <row r="27" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
-      <c r="B27" s="94" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="17">
         <v>45</v>
       </c>
@@ -6417,15 +6417,15 @@
       </c>
     </row>
     <row r="28" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
-      <c r="B28" s="87" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="17">
         <v>8</v>
       </c>
@@ -6620,15 +6620,15 @@
       </c>
     </row>
     <row r="29" spans="1:71" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
-      <c r="B29" s="127" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="17">
         <v>2</v>
       </c>
@@ -6823,15 +6823,15 @@
       </c>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
-      <c r="B30" s="85" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="17">
         <v>0</v>
       </c>
@@ -7026,17 +7026,17 @@
       </c>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="17">
         <v>1</v>
       </c>
@@ -7231,15 +7231,15 @@
       </c>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="85" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="17">
         <v>6</v>
       </c>
@@ -7434,15 +7434,15 @@
       </c>
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
-      <c r="B33" s="87" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="17">
         <v>1</v>
       </c>
@@ -7637,15 +7637,15 @@
       </c>
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
-      <c r="B34" s="85" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="H34" s="17">
         <v>3</v>
       </c>
@@ -7840,17 +7840,17 @@
       </c>
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
       <c r="H35" s="17">
         <v>4</v>
       </c>
@@ -8045,15 +8045,15 @@
       </c>
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
-      <c r="B36" s="116" t="s">
+      <c r="A36" s="54"/>
+      <c r="B36" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="17">
         <v>2</v>
       </c>
@@ -8248,15 +8248,15 @@
       </c>
     </row>
     <row r="37" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="54"/>
+      <c r="B37" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="17">
         <v>2</v>
       </c>
@@ -8451,15 +8451,15 @@
       </c>
     </row>
     <row r="38" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
-      <c r="B38" s="95" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="17">
         <v>0</v>
       </c>
@@ -8654,17 +8654,17 @@
       </c>
     </row>
     <row r="39" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="17">
         <v>1</v>
       </c>
@@ -8859,15 +8859,15 @@
       </c>
     </row>
     <row r="40" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="B40" s="85" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="17">
         <v>6</v>
       </c>
@@ -9062,15 +9062,15 @@
       </c>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="17">
         <v>1</v>
       </c>
@@ -9265,17 +9265,17 @@
       </c>
     </row>
     <row r="42" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
       <c r="H42" s="17">
         <v>3</v>
       </c>
@@ -9470,13 +9470,13 @@
       </c>
     </row>
     <row r="43" spans="1:71" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="17">
         <v>4</v>
       </c>
@@ -9671,17 +9671,17 @@
       </c>
     </row>
     <row r="44" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
-      <c r="G44" s="109"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
       <c r="H44" s="17">
         <v>2</v>
       </c>
@@ -9876,13 +9876,13 @@
       </c>
     </row>
     <row r="45" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="17">
         <v>7</v>
       </c>
@@ -10077,13 +10077,13 @@
       </c>
     </row>
     <row r="46" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="17">
         <v>1</v>
       </c>
@@ -10278,311 +10278,311 @@
       </c>
     </row>
     <row r="47" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22"/>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22"/>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22"/>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22"/>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22"/>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22"/>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22"/>
-      <c r="BS47" s="23"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="110"/>
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+      <c r="AF47" s="110"/>
+      <c r="AG47" s="110"/>
+      <c r="AH47" s="110"/>
+      <c r="AI47" s="110"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
+      <c r="AL47" s="110"/>
+      <c r="AM47" s="110"/>
+      <c r="AN47" s="110"/>
+      <c r="AO47" s="110"/>
+      <c r="AP47" s="110"/>
+      <c r="AQ47" s="110"/>
+      <c r="AR47" s="110"/>
+      <c r="AS47" s="110"/>
+      <c r="AT47" s="110"/>
+      <c r="AU47" s="110"/>
+      <c r="AV47" s="110"/>
+      <c r="AW47" s="110"/>
+      <c r="AX47" s="110"/>
+      <c r="AY47" s="110"/>
+      <c r="AZ47" s="110"/>
+      <c r="BA47" s="110"/>
+      <c r="BB47" s="110"/>
+      <c r="BC47" s="110"/>
+      <c r="BD47" s="110"/>
+      <c r="BE47" s="110"/>
+      <c r="BF47" s="110"/>
+      <c r="BG47" s="110"/>
+      <c r="BH47" s="110"/>
+      <c r="BI47" s="110"/>
+      <c r="BJ47" s="110"/>
+      <c r="BK47" s="110"/>
+      <c r="BL47" s="110"/>
+      <c r="BM47" s="110"/>
+      <c r="BN47" s="110"/>
+      <c r="BO47" s="110"/>
+      <c r="BP47" s="110"/>
+      <c r="BQ47" s="110"/>
+      <c r="BR47" s="110"/>
+      <c r="BS47" s="111"/>
     </row>
     <row r="48" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="25"/>
-      <c r="AR48" s="25"/>
-      <c r="AS48" s="25"/>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="25"/>
-      <c r="AV48" s="25"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="25"/>
-      <c r="AY48" s="25"/>
-      <c r="AZ48" s="25"/>
-      <c r="BA48" s="25"/>
-      <c r="BB48" s="25"/>
-      <c r="BC48" s="25"/>
-      <c r="BD48" s="25"/>
-      <c r="BE48" s="25"/>
-      <c r="BF48" s="25"/>
-      <c r="BG48" s="25"/>
-      <c r="BH48" s="25"/>
-      <c r="BI48" s="25"/>
-      <c r="BJ48" s="25"/>
-      <c r="BK48" s="25"/>
-      <c r="BL48" s="25"/>
-      <c r="BM48" s="25"/>
-      <c r="BN48" s="25"/>
-      <c r="BO48" s="25"/>
-      <c r="BP48" s="25"/>
-      <c r="BQ48" s="25"/>
-      <c r="BR48" s="25"/>
-      <c r="BS48" s="26"/>
+      <c r="A48" s="112"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113"/>
+      <c r="Y48" s="113"/>
+      <c r="Z48" s="113"/>
+      <c r="AA48" s="113"/>
+      <c r="AB48" s="113"/>
+      <c r="AC48" s="113"/>
+      <c r="AD48" s="113"/>
+      <c r="AE48" s="113"/>
+      <c r="AF48" s="113"/>
+      <c r="AG48" s="113"/>
+      <c r="AH48" s="113"/>
+      <c r="AI48" s="113"/>
+      <c r="AJ48" s="113"/>
+      <c r="AK48" s="113"/>
+      <c r="AL48" s="113"/>
+      <c r="AM48" s="113"/>
+      <c r="AN48" s="113"/>
+      <c r="AO48" s="113"/>
+      <c r="AP48" s="113"/>
+      <c r="AQ48" s="113"/>
+      <c r="AR48" s="113"/>
+      <c r="AS48" s="113"/>
+      <c r="AT48" s="113"/>
+      <c r="AU48" s="113"/>
+      <c r="AV48" s="113"/>
+      <c r="AW48" s="113"/>
+      <c r="AX48" s="113"/>
+      <c r="AY48" s="113"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="113"/>
+      <c r="BC48" s="113"/>
+      <c r="BD48" s="113"/>
+      <c r="BE48" s="113"/>
+      <c r="BF48" s="113"/>
+      <c r="BG48" s="113"/>
+      <c r="BH48" s="113"/>
+      <c r="BI48" s="113"/>
+      <c r="BJ48" s="113"/>
+      <c r="BK48" s="113"/>
+      <c r="BL48" s="113"/>
+      <c r="BM48" s="113"/>
+      <c r="BN48" s="113"/>
+      <c r="BO48" s="113"/>
+      <c r="BP48" s="113"/>
+      <c r="BQ48" s="113"/>
+      <c r="BR48" s="113"/>
+      <c r="BS48" s="114"/>
     </row>
     <row r="49" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="25"/>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="25"/>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25"/>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
-      <c r="AT49" s="25"/>
-      <c r="AU49" s="25"/>
-      <c r="AV49" s="25"/>
-      <c r="AW49" s="25"/>
-      <c r="AX49" s="25"/>
-      <c r="AY49" s="25"/>
-      <c r="AZ49" s="25"/>
-      <c r="BA49" s="25"/>
-      <c r="BB49" s="25"/>
-      <c r="BC49" s="25"/>
-      <c r="BD49" s="25"/>
-      <c r="BE49" s="25"/>
-      <c r="BF49" s="25"/>
-      <c r="BG49" s="25"/>
-      <c r="BH49" s="25"/>
-      <c r="BI49" s="25"/>
-      <c r="BJ49" s="25"/>
-      <c r="BK49" s="25"/>
-      <c r="BL49" s="25"/>
-      <c r="BM49" s="25"/>
-      <c r="BN49" s="25"/>
-      <c r="BO49" s="25"/>
-      <c r="BP49" s="25"/>
-      <c r="BQ49" s="25"/>
-      <c r="BR49" s="25"/>
-      <c r="BS49" s="26"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113"/>
+      <c r="Y49" s="113"/>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113"/>
+      <c r="AC49" s="113"/>
+      <c r="AD49" s="113"/>
+      <c r="AE49" s="113"/>
+      <c r="AF49" s="113"/>
+      <c r="AG49" s="113"/>
+      <c r="AH49" s="113"/>
+      <c r="AI49" s="113"/>
+      <c r="AJ49" s="113"/>
+      <c r="AK49" s="113"/>
+      <c r="AL49" s="113"/>
+      <c r="AM49" s="113"/>
+      <c r="AN49" s="113"/>
+      <c r="AO49" s="113"/>
+      <c r="AP49" s="113"/>
+      <c r="AQ49" s="113"/>
+      <c r="AR49" s="113"/>
+      <c r="AS49" s="113"/>
+      <c r="AT49" s="113"/>
+      <c r="AU49" s="113"/>
+      <c r="AV49" s="113"/>
+      <c r="AW49" s="113"/>
+      <c r="AX49" s="113"/>
+      <c r="AY49" s="113"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="113"/>
+      <c r="BC49" s="113"/>
+      <c r="BD49" s="113"/>
+      <c r="BE49" s="113"/>
+      <c r="BF49" s="113"/>
+      <c r="BG49" s="113"/>
+      <c r="BH49" s="113"/>
+      <c r="BI49" s="113"/>
+      <c r="BJ49" s="113"/>
+      <c r="BK49" s="113"/>
+      <c r="BL49" s="113"/>
+      <c r="BM49" s="113"/>
+      <c r="BN49" s="113"/>
+      <c r="BO49" s="113"/>
+      <c r="BP49" s="113"/>
+      <c r="BQ49" s="113"/>
+      <c r="BR49" s="113"/>
+      <c r="BS49" s="114"/>
     </row>
     <row r="50" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="34"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="34"/>
-      <c r="AL50" s="34"/>
-      <c r="AM50" s="34"/>
-      <c r="AN50" s="34"/>
-      <c r="AO50" s="34"/>
-      <c r="AP50" s="34"/>
-      <c r="AQ50" s="34"/>
-      <c r="AR50" s="34"/>
-      <c r="AS50" s="34"/>
-      <c r="AT50" s="34"/>
-      <c r="AU50" s="34"/>
-      <c r="AV50" s="34"/>
-      <c r="AW50" s="34"/>
-      <c r="AX50" s="34"/>
-      <c r="AY50" s="34"/>
-      <c r="AZ50" s="34"/>
-      <c r="BA50" s="34"/>
-      <c r="BB50" s="34"/>
-      <c r="BC50" s="34"/>
-      <c r="BD50" s="34"/>
-      <c r="BE50" s="34"/>
-      <c r="BF50" s="34"/>
-      <c r="BG50" s="34"/>
-      <c r="BH50" s="34"/>
-      <c r="BI50" s="34"/>
-      <c r="BJ50" s="34"/>
-      <c r="BK50" s="34"/>
-      <c r="BL50" s="34"/>
-      <c r="BM50" s="34"/>
-      <c r="BN50" s="34"/>
-      <c r="BO50" s="34"/>
-      <c r="BP50" s="34"/>
-      <c r="BQ50" s="34"/>
-      <c r="BR50" s="34"/>
-      <c r="BS50" s="35"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+      <c r="M50" s="122"/>
+      <c r="N50" s="122"/>
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="122"/>
+      <c r="X50" s="122"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="122"/>
+      <c r="AA50" s="122"/>
+      <c r="AB50" s="122"/>
+      <c r="AC50" s="122"/>
+      <c r="AD50" s="122"/>
+      <c r="AE50" s="122"/>
+      <c r="AF50" s="122"/>
+      <c r="AG50" s="122"/>
+      <c r="AH50" s="122"/>
+      <c r="AI50" s="122"/>
+      <c r="AJ50" s="122"/>
+      <c r="AK50" s="122"/>
+      <c r="AL50" s="122"/>
+      <c r="AM50" s="122"/>
+      <c r="AN50" s="122"/>
+      <c r="AO50" s="122"/>
+      <c r="AP50" s="122"/>
+      <c r="AQ50" s="122"/>
+      <c r="AR50" s="122"/>
+      <c r="AS50" s="122"/>
+      <c r="AT50" s="122"/>
+      <c r="AU50" s="122"/>
+      <c r="AV50" s="122"/>
+      <c r="AW50" s="122"/>
+      <c r="AX50" s="122"/>
+      <c r="AY50" s="122"/>
+      <c r="AZ50" s="122"/>
+      <c r="BA50" s="122"/>
+      <c r="BB50" s="122"/>
+      <c r="BC50" s="122"/>
+      <c r="BD50" s="122"/>
+      <c r="BE50" s="122"/>
+      <c r="BF50" s="122"/>
+      <c r="BG50" s="122"/>
+      <c r="BH50" s="122"/>
+      <c r="BI50" s="122"/>
+      <c r="BJ50" s="122"/>
+      <c r="BK50" s="122"/>
+      <c r="BL50" s="122"/>
+      <c r="BM50" s="122"/>
+      <c r="BN50" s="122"/>
+      <c r="BO50" s="122"/>
+      <c r="BP50" s="122"/>
+      <c r="BQ50" s="122"/>
+      <c r="BR50" s="122"/>
+      <c r="BS50" s="123"/>
     </row>
     <row r="51" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -10649,15 +10649,15 @@
       <c r="BS51" s="17"/>
     </row>
     <row r="52" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A52" s="52"/>
-      <c r="B52" s="87" t="s">
+      <c r="A52" s="73"/>
+      <c r="B52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -10724,7 +10724,7 @@
       <c r="BS52" s="17"/>
     </row>
     <row r="53" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="64" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -10801,15 +10801,15 @@
       <c r="BS53" s="17"/>
     </row>
     <row r="54" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52"/>
-      <c r="B54" s="89" t="s">
+      <c r="A54" s="73"/>
+      <c r="B54" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -10876,15 +10876,15 @@
       <c r="BS54" s="17"/>
     </row>
     <row r="55" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="91" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -10951,17 +10951,17 @@
       <c r="BS55" s="17"/>
     </row>
     <row r="56" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -11028,15 +11028,15 @@
       <c r="BS56" s="17"/>
     </row>
     <row r="57" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A57" s="52"/>
-      <c r="B57" s="87" t="s">
+      <c r="A57" s="73"/>
+      <c r="B57" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -11103,15 +11103,15 @@
       <c r="BS57" s="17"/>
     </row>
     <row r="58" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A58" s="52"/>
-      <c r="B58" s="85" t="s">
+      <c r="A58" s="73"/>
+      <c r="B58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -11178,17 +11178,17 @@
       <c r="BS58" s="17"/>
     </row>
     <row r="59" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -11255,15 +11255,15 @@
       <c r="BS59" s="17"/>
     </row>
     <row r="60" spans="1:71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
-      <c r="B60" s="94" t="s">
+      <c r="A60" s="73"/>
+      <c r="B60" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -11330,15 +11330,15 @@
       <c r="BS60" s="17"/>
     </row>
     <row r="61" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
-      <c r="B61" s="95" t="s">
+      <c r="A61" s="73"/>
+      <c r="B61" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
@@ -11405,15 +11405,15 @@
       <c r="BS61" s="17"/>
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="86" t="s">
+      <c r="A62" s="65"/>
+      <c r="B62" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -11480,17 +11480,17 @@
       <c r="BS62" s="17"/>
     </row>
     <row r="63" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A63" s="97" t="s">
+      <c r="A63" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -11557,15 +11557,15 @@
       <c r="BS63" s="17"/>
     </row>
     <row r="64" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A64" s="98"/>
-      <c r="B64" s="85" t="s">
+      <c r="A64" s="75"/>
+      <c r="B64" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -11632,17 +11632,17 @@
       <c r="BS64" s="17"/>
     </row>
     <row r="65" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -11709,15 +11709,15 @@
       <c r="BS65" s="17"/>
     </row>
     <row r="66" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="85" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -11787,14 +11787,14 @@
       <c r="A67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -11861,311 +11861,311 @@
       <c r="BS67" s="17"/>
     </row>
     <row r="68" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="22"/>
-      <c r="AJ68" s="22"/>
-      <c r="AK68" s="22"/>
-      <c r="AL68" s="22"/>
-      <c r="AM68" s="22"/>
-      <c r="AN68" s="22"/>
-      <c r="AO68" s="22"/>
-      <c r="AP68" s="22"/>
-      <c r="AQ68" s="22"/>
-      <c r="AR68" s="22"/>
-      <c r="AS68" s="22"/>
-      <c r="AT68" s="22"/>
-      <c r="AU68" s="22"/>
-      <c r="AV68" s="22"/>
-      <c r="AW68" s="22"/>
-      <c r="AX68" s="22"/>
-      <c r="AY68" s="22"/>
-      <c r="AZ68" s="22"/>
-      <c r="BA68" s="22"/>
-      <c r="BB68" s="22"/>
-      <c r="BC68" s="22"/>
-      <c r="BD68" s="22"/>
-      <c r="BE68" s="22"/>
-      <c r="BF68" s="22"/>
-      <c r="BG68" s="22"/>
-      <c r="BH68" s="22"/>
-      <c r="BI68" s="22"/>
-      <c r="BJ68" s="22"/>
-      <c r="BK68" s="22"/>
-      <c r="BL68" s="22"/>
-      <c r="BM68" s="22"/>
-      <c r="BN68" s="22"/>
-      <c r="BO68" s="22"/>
-      <c r="BP68" s="22"/>
-      <c r="BQ68" s="22"/>
-      <c r="BR68" s="22"/>
-      <c r="BS68" s="23"/>
+      <c r="B68" s="110"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="110"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
+      <c r="T68" s="110"/>
+      <c r="U68" s="110"/>
+      <c r="V68" s="110"/>
+      <c r="W68" s="110"/>
+      <c r="X68" s="110"/>
+      <c r="Y68" s="110"/>
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="110"/>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="110"/>
+      <c r="AD68" s="110"/>
+      <c r="AE68" s="110"/>
+      <c r="AF68" s="110"/>
+      <c r="AG68" s="110"/>
+      <c r="AH68" s="110"/>
+      <c r="AI68" s="110"/>
+      <c r="AJ68" s="110"/>
+      <c r="AK68" s="110"/>
+      <c r="AL68" s="110"/>
+      <c r="AM68" s="110"/>
+      <c r="AN68" s="110"/>
+      <c r="AO68" s="110"/>
+      <c r="AP68" s="110"/>
+      <c r="AQ68" s="110"/>
+      <c r="AR68" s="110"/>
+      <c r="AS68" s="110"/>
+      <c r="AT68" s="110"/>
+      <c r="AU68" s="110"/>
+      <c r="AV68" s="110"/>
+      <c r="AW68" s="110"/>
+      <c r="AX68" s="110"/>
+      <c r="AY68" s="110"/>
+      <c r="AZ68" s="110"/>
+      <c r="BA68" s="110"/>
+      <c r="BB68" s="110"/>
+      <c r="BC68" s="110"/>
+      <c r="BD68" s="110"/>
+      <c r="BE68" s="110"/>
+      <c r="BF68" s="110"/>
+      <c r="BG68" s="110"/>
+      <c r="BH68" s="110"/>
+      <c r="BI68" s="110"/>
+      <c r="BJ68" s="110"/>
+      <c r="BK68" s="110"/>
+      <c r="BL68" s="110"/>
+      <c r="BM68" s="110"/>
+      <c r="BN68" s="110"/>
+      <c r="BO68" s="110"/>
+      <c r="BP68" s="110"/>
+      <c r="BQ68" s="110"/>
+      <c r="BR68" s="110"/>
+      <c r="BS68" s="111"/>
     </row>
     <row r="69" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="25"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="25"/>
-      <c r="AD69" s="25"/>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="25"/>
-      <c r="AG69" s="25"/>
-      <c r="AH69" s="25"/>
-      <c r="AI69" s="25"/>
-      <c r="AJ69" s="25"/>
-      <c r="AK69" s="25"/>
-      <c r="AL69" s="25"/>
-      <c r="AM69" s="25"/>
-      <c r="AN69" s="25"/>
-      <c r="AO69" s="25"/>
-      <c r="AP69" s="25"/>
-      <c r="AQ69" s="25"/>
-      <c r="AR69" s="25"/>
-      <c r="AS69" s="25"/>
-      <c r="AT69" s="25"/>
-      <c r="AU69" s="25"/>
-      <c r="AV69" s="25"/>
-      <c r="AW69" s="25"/>
-      <c r="AX69" s="25"/>
-      <c r="AY69" s="25"/>
-      <c r="AZ69" s="25"/>
-      <c r="BA69" s="25"/>
-      <c r="BB69" s="25"/>
-      <c r="BC69" s="25"/>
-      <c r="BD69" s="25"/>
-      <c r="BE69" s="25"/>
-      <c r="BF69" s="25"/>
-      <c r="BG69" s="25"/>
-      <c r="BH69" s="25"/>
-      <c r="BI69" s="25"/>
-      <c r="BJ69" s="25"/>
-      <c r="BK69" s="25"/>
-      <c r="BL69" s="25"/>
-      <c r="BM69" s="25"/>
-      <c r="BN69" s="25"/>
-      <c r="BO69" s="25"/>
-      <c r="BP69" s="25"/>
-      <c r="BQ69" s="25"/>
-      <c r="BR69" s="25"/>
-      <c r="BS69" s="26"/>
+      <c r="A69" s="112"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="113"/>
+      <c r="S69" s="113"/>
+      <c r="T69" s="113"/>
+      <c r="U69" s="113"/>
+      <c r="V69" s="113"/>
+      <c r="W69" s="113"/>
+      <c r="X69" s="113"/>
+      <c r="Y69" s="113"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="113"/>
+      <c r="AB69" s="113"/>
+      <c r="AC69" s="113"/>
+      <c r="AD69" s="113"/>
+      <c r="AE69" s="113"/>
+      <c r="AF69" s="113"/>
+      <c r="AG69" s="113"/>
+      <c r="AH69" s="113"/>
+      <c r="AI69" s="113"/>
+      <c r="AJ69" s="113"/>
+      <c r="AK69" s="113"/>
+      <c r="AL69" s="113"/>
+      <c r="AM69" s="113"/>
+      <c r="AN69" s="113"/>
+      <c r="AO69" s="113"/>
+      <c r="AP69" s="113"/>
+      <c r="AQ69" s="113"/>
+      <c r="AR69" s="113"/>
+      <c r="AS69" s="113"/>
+      <c r="AT69" s="113"/>
+      <c r="AU69" s="113"/>
+      <c r="AV69" s="113"/>
+      <c r="AW69" s="113"/>
+      <c r="AX69" s="113"/>
+      <c r="AY69" s="113"/>
+      <c r="AZ69" s="113"/>
+      <c r="BA69" s="113"/>
+      <c r="BB69" s="113"/>
+      <c r="BC69" s="113"/>
+      <c r="BD69" s="113"/>
+      <c r="BE69" s="113"/>
+      <c r="BF69" s="113"/>
+      <c r="BG69" s="113"/>
+      <c r="BH69" s="113"/>
+      <c r="BI69" s="113"/>
+      <c r="BJ69" s="113"/>
+      <c r="BK69" s="113"/>
+      <c r="BL69" s="113"/>
+      <c r="BM69" s="113"/>
+      <c r="BN69" s="113"/>
+      <c r="BO69" s="113"/>
+      <c r="BP69" s="113"/>
+      <c r="BQ69" s="113"/>
+      <c r="BR69" s="113"/>
+      <c r="BS69" s="114"/>
     </row>
     <row r="70" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="25"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="25"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="25"/>
-      <c r="AD70" s="25"/>
-      <c r="AE70" s="25"/>
-      <c r="AF70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AH70" s="25"/>
-      <c r="AI70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="25"/>
-      <c r="AL70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AN70" s="25"/>
-      <c r="AO70" s="25"/>
-      <c r="AP70" s="25"/>
-      <c r="AQ70" s="25"/>
-      <c r="AR70" s="25"/>
-      <c r="AS70" s="25"/>
-      <c r="AT70" s="25"/>
-      <c r="AU70" s="25"/>
-      <c r="AV70" s="25"/>
-      <c r="AW70" s="25"/>
-      <c r="AX70" s="25"/>
-      <c r="AY70" s="25"/>
-      <c r="AZ70" s="25"/>
-      <c r="BA70" s="25"/>
-      <c r="BB70" s="25"/>
-      <c r="BC70" s="25"/>
-      <c r="BD70" s="25"/>
-      <c r="BE70" s="25"/>
-      <c r="BF70" s="25"/>
-      <c r="BG70" s="25"/>
-      <c r="BH70" s="25"/>
-      <c r="BI70" s="25"/>
-      <c r="BJ70" s="25"/>
-      <c r="BK70" s="25"/>
-      <c r="BL70" s="25"/>
-      <c r="BM70" s="25"/>
-      <c r="BN70" s="25"/>
-      <c r="BO70" s="25"/>
-      <c r="BP70" s="25"/>
-      <c r="BQ70" s="25"/>
-      <c r="BR70" s="25"/>
-      <c r="BS70" s="26"/>
+      <c r="A70" s="112"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="113"/>
+      <c r="O70" s="113"/>
+      <c r="P70" s="113"/>
+      <c r="Q70" s="113"/>
+      <c r="R70" s="113"/>
+      <c r="S70" s="113"/>
+      <c r="T70" s="113"/>
+      <c r="U70" s="113"/>
+      <c r="V70" s="113"/>
+      <c r="W70" s="113"/>
+      <c r="X70" s="113"/>
+      <c r="Y70" s="113"/>
+      <c r="Z70" s="113"/>
+      <c r="AA70" s="113"/>
+      <c r="AB70" s="113"/>
+      <c r="AC70" s="113"/>
+      <c r="AD70" s="113"/>
+      <c r="AE70" s="113"/>
+      <c r="AF70" s="113"/>
+      <c r="AG70" s="113"/>
+      <c r="AH70" s="113"/>
+      <c r="AI70" s="113"/>
+      <c r="AJ70" s="113"/>
+      <c r="AK70" s="113"/>
+      <c r="AL70" s="113"/>
+      <c r="AM70" s="113"/>
+      <c r="AN70" s="113"/>
+      <c r="AO70" s="113"/>
+      <c r="AP70" s="113"/>
+      <c r="AQ70" s="113"/>
+      <c r="AR70" s="113"/>
+      <c r="AS70" s="113"/>
+      <c r="AT70" s="113"/>
+      <c r="AU70" s="113"/>
+      <c r="AV70" s="113"/>
+      <c r="AW70" s="113"/>
+      <c r="AX70" s="113"/>
+      <c r="AY70" s="113"/>
+      <c r="AZ70" s="113"/>
+      <c r="BA70" s="113"/>
+      <c r="BB70" s="113"/>
+      <c r="BC70" s="113"/>
+      <c r="BD70" s="113"/>
+      <c r="BE70" s="113"/>
+      <c r="BF70" s="113"/>
+      <c r="BG70" s="113"/>
+      <c r="BH70" s="113"/>
+      <c r="BI70" s="113"/>
+      <c r="BJ70" s="113"/>
+      <c r="BK70" s="113"/>
+      <c r="BL70" s="113"/>
+      <c r="BM70" s="113"/>
+      <c r="BN70" s="113"/>
+      <c r="BO70" s="113"/>
+      <c r="BP70" s="113"/>
+      <c r="BQ70" s="113"/>
+      <c r="BR70" s="113"/>
+      <c r="BS70" s="114"/>
     </row>
     <row r="71" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="34"/>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="34"/>
-      <c r="AK71" s="34"/>
-      <c r="AL71" s="34"/>
-      <c r="AM71" s="34"/>
-      <c r="AN71" s="34"/>
-      <c r="AO71" s="34"/>
-      <c r="AP71" s="34"/>
-      <c r="AQ71" s="34"/>
-      <c r="AR71" s="34"/>
-      <c r="AS71" s="34"/>
-      <c r="AT71" s="34"/>
-      <c r="AU71" s="34"/>
-      <c r="AV71" s="34"/>
-      <c r="AW71" s="34"/>
-      <c r="AX71" s="34"/>
-      <c r="AY71" s="34"/>
-      <c r="AZ71" s="34"/>
-      <c r="BA71" s="34"/>
-      <c r="BB71" s="34"/>
-      <c r="BC71" s="34"/>
-      <c r="BD71" s="34"/>
-      <c r="BE71" s="34"/>
-      <c r="BF71" s="34"/>
-      <c r="BG71" s="34"/>
-      <c r="BH71" s="34"/>
-      <c r="BI71" s="34"/>
-      <c r="BJ71" s="34"/>
-      <c r="BK71" s="34"/>
-      <c r="BL71" s="34"/>
-      <c r="BM71" s="34"/>
-      <c r="BN71" s="34"/>
-      <c r="BO71" s="34"/>
-      <c r="BP71" s="34"/>
-      <c r="BQ71" s="34"/>
-      <c r="BR71" s="34"/>
-      <c r="BS71" s="35"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="122"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="122"/>
+      <c r="P71" s="122"/>
+      <c r="Q71" s="122"/>
+      <c r="R71" s="122"/>
+      <c r="S71" s="122"/>
+      <c r="T71" s="122"/>
+      <c r="U71" s="122"/>
+      <c r="V71" s="122"/>
+      <c r="W71" s="122"/>
+      <c r="X71" s="122"/>
+      <c r="Y71" s="122"/>
+      <c r="Z71" s="122"/>
+      <c r="AA71" s="122"/>
+      <c r="AB71" s="122"/>
+      <c r="AC71" s="122"/>
+      <c r="AD71" s="122"/>
+      <c r="AE71" s="122"/>
+      <c r="AF71" s="122"/>
+      <c r="AG71" s="122"/>
+      <c r="AH71" s="122"/>
+      <c r="AI71" s="122"/>
+      <c r="AJ71" s="122"/>
+      <c r="AK71" s="122"/>
+      <c r="AL71" s="122"/>
+      <c r="AM71" s="122"/>
+      <c r="AN71" s="122"/>
+      <c r="AO71" s="122"/>
+      <c r="AP71" s="122"/>
+      <c r="AQ71" s="122"/>
+      <c r="AR71" s="122"/>
+      <c r="AS71" s="122"/>
+      <c r="AT71" s="122"/>
+      <c r="AU71" s="122"/>
+      <c r="AV71" s="122"/>
+      <c r="AW71" s="122"/>
+      <c r="AX71" s="122"/>
+      <c r="AY71" s="122"/>
+      <c r="AZ71" s="122"/>
+      <c r="BA71" s="122"/>
+      <c r="BB71" s="122"/>
+      <c r="BC71" s="122"/>
+      <c r="BD71" s="122"/>
+      <c r="BE71" s="122"/>
+      <c r="BF71" s="122"/>
+      <c r="BG71" s="122"/>
+      <c r="BH71" s="122"/>
+      <c r="BI71" s="122"/>
+      <c r="BJ71" s="122"/>
+      <c r="BK71" s="122"/>
+      <c r="BL71" s="122"/>
+      <c r="BM71" s="122"/>
+      <c r="BN71" s="122"/>
+      <c r="BO71" s="122"/>
+      <c r="BP71" s="122"/>
+      <c r="BQ71" s="122"/>
+      <c r="BR71" s="122"/>
+      <c r="BS71" s="123"/>
     </row>
     <row r="72" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -12232,15 +12232,15 @@
       <c r="BS72" s="17"/>
     </row>
     <row r="73" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-      <c r="B73" s="87" t="s">
+      <c r="A73" s="73"/>
+      <c r="B73" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -12307,15 +12307,15 @@
       <c r="BS73" s="17"/>
     </row>
     <row r="74" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A74" s="52"/>
-      <c r="B74" s="87" t="s">
+      <c r="A74" s="73"/>
+      <c r="B74" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
@@ -12385,14 +12385,14 @@
       <c r="A75" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="87" t="s">
+      <c r="B75" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="17"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
@@ -12459,17 +12459,17 @@
       <c r="BS75" s="17"/>
     </row>
     <row r="76" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="85" t="s">
+      <c r="B76" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -12536,15 +12536,15 @@
       <c r="BS76" s="17"/>
     </row>
     <row r="77" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="85" t="s">
+      <c r="A77" s="73"/>
+      <c r="B77" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -12611,17 +12611,17 @@
       <c r="BS77" s="17"/>
     </row>
     <row r="78" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="85" t="s">
+      <c r="B78" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -12688,15 +12688,15 @@
       <c r="BS78" s="17"/>
     </row>
     <row r="79" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A79" s="59"/>
-      <c r="B79" s="95" t="s">
+      <c r="A79" s="70"/>
+      <c r="B79" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -12763,15 +12763,15 @@
       <c r="BS79" s="17"/>
     </row>
     <row r="80" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A80" s="59"/>
-      <c r="B80" s="95" t="s">
+      <c r="A80" s="70"/>
+      <c r="B80" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
@@ -12838,15 +12838,15 @@
       <c r="BS80" s="17"/>
     </row>
     <row r="81" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
-      <c r="B81" s="95" t="s">
+      <c r="A81" s="63"/>
+      <c r="B81" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
@@ -12913,17 +12913,17 @@
       <c r="BS81" s="17"/>
     </row>
     <row r="82" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="95" t="s">
+      <c r="B82" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -12990,15 +12990,15 @@
       <c r="BS82" s="17"/>
     </row>
     <row r="83" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="95" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -13065,15 +13065,15 @@
       <c r="BS83" s="17"/>
     </row>
     <row r="84" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="87" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
       <c r="J84" s="17"/>
@@ -13140,311 +13140,311 @@
       <c r="BS84" s="17"/>
     </row>
     <row r="85" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="37"/>
-      <c r="X85" s="37"/>
-      <c r="Y85" s="37"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="37"/>
-      <c r="AB85" s="37"/>
-      <c r="AC85" s="37"/>
-      <c r="AD85" s="37"/>
-      <c r="AE85" s="37"/>
-      <c r="AF85" s="37"/>
-      <c r="AG85" s="37"/>
-      <c r="AH85" s="37"/>
-      <c r="AI85" s="37"/>
-      <c r="AJ85" s="37"/>
-      <c r="AK85" s="37"/>
-      <c r="AL85" s="37"/>
-      <c r="AM85" s="37"/>
-      <c r="AN85" s="37"/>
-      <c r="AO85" s="37"/>
-      <c r="AP85" s="37"/>
-      <c r="AQ85" s="37"/>
-      <c r="AR85" s="37"/>
-      <c r="AS85" s="37"/>
-      <c r="AT85" s="37"/>
-      <c r="AU85" s="37"/>
-      <c r="AV85" s="37"/>
-      <c r="AW85" s="37"/>
-      <c r="AX85" s="37"/>
-      <c r="AY85" s="37"/>
-      <c r="AZ85" s="37"/>
-      <c r="BA85" s="37"/>
-      <c r="BB85" s="37"/>
-      <c r="BC85" s="37"/>
-      <c r="BD85" s="37"/>
-      <c r="BE85" s="37"/>
-      <c r="BF85" s="37"/>
-      <c r="BG85" s="37"/>
-      <c r="BH85" s="37"/>
-      <c r="BI85" s="37"/>
-      <c r="BJ85" s="37"/>
-      <c r="BK85" s="37"/>
-      <c r="BL85" s="37"/>
-      <c r="BM85" s="37"/>
-      <c r="BN85" s="37"/>
-      <c r="BO85" s="37"/>
-      <c r="BP85" s="37"/>
-      <c r="BQ85" s="37"/>
-      <c r="BR85" s="37"/>
-      <c r="BS85" s="38"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="125"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="125"/>
+      <c r="K85" s="125"/>
+      <c r="L85" s="125"/>
+      <c r="M85" s="125"/>
+      <c r="N85" s="125"/>
+      <c r="O85" s="125"/>
+      <c r="P85" s="125"/>
+      <c r="Q85" s="125"/>
+      <c r="R85" s="125"/>
+      <c r="S85" s="125"/>
+      <c r="T85" s="125"/>
+      <c r="U85" s="125"/>
+      <c r="V85" s="125"/>
+      <c r="W85" s="125"/>
+      <c r="X85" s="125"/>
+      <c r="Y85" s="125"/>
+      <c r="Z85" s="125"/>
+      <c r="AA85" s="125"/>
+      <c r="AB85" s="125"/>
+      <c r="AC85" s="125"/>
+      <c r="AD85" s="125"/>
+      <c r="AE85" s="125"/>
+      <c r="AF85" s="125"/>
+      <c r="AG85" s="125"/>
+      <c r="AH85" s="125"/>
+      <c r="AI85" s="125"/>
+      <c r="AJ85" s="125"/>
+      <c r="AK85" s="125"/>
+      <c r="AL85" s="125"/>
+      <c r="AM85" s="125"/>
+      <c r="AN85" s="125"/>
+      <c r="AO85" s="125"/>
+      <c r="AP85" s="125"/>
+      <c r="AQ85" s="125"/>
+      <c r="AR85" s="125"/>
+      <c r="AS85" s="125"/>
+      <c r="AT85" s="125"/>
+      <c r="AU85" s="125"/>
+      <c r="AV85" s="125"/>
+      <c r="AW85" s="125"/>
+      <c r="AX85" s="125"/>
+      <c r="AY85" s="125"/>
+      <c r="AZ85" s="125"/>
+      <c r="BA85" s="125"/>
+      <c r="BB85" s="125"/>
+      <c r="BC85" s="125"/>
+      <c r="BD85" s="125"/>
+      <c r="BE85" s="125"/>
+      <c r="BF85" s="125"/>
+      <c r="BG85" s="125"/>
+      <c r="BH85" s="125"/>
+      <c r="BI85" s="125"/>
+      <c r="BJ85" s="125"/>
+      <c r="BK85" s="125"/>
+      <c r="BL85" s="125"/>
+      <c r="BM85" s="125"/>
+      <c r="BN85" s="125"/>
+      <c r="BO85" s="125"/>
+      <c r="BP85" s="125"/>
+      <c r="BQ85" s="125"/>
+      <c r="BR85" s="125"/>
+      <c r="BS85" s="126"/>
     </row>
     <row r="86" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="40"/>
-      <c r="O86" s="40"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="40"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="40"/>
-      <c r="T86" s="40"/>
-      <c r="U86" s="40"/>
-      <c r="V86" s="40"/>
-      <c r="W86" s="40"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="40"/>
-      <c r="AA86" s="40"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="40"/>
-      <c r="AD86" s="40"/>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="40"/>
-      <c r="AG86" s="40"/>
-      <c r="AH86" s="40"/>
-      <c r="AI86" s="40"/>
-      <c r="AJ86" s="40"/>
-      <c r="AK86" s="40"/>
-      <c r="AL86" s="40"/>
-      <c r="AM86" s="40"/>
-      <c r="AN86" s="40"/>
-      <c r="AO86" s="40"/>
-      <c r="AP86" s="40"/>
-      <c r="AQ86" s="40"/>
-      <c r="AR86" s="40"/>
-      <c r="AS86" s="40"/>
-      <c r="AT86" s="40"/>
-      <c r="AU86" s="40"/>
-      <c r="AV86" s="40"/>
-      <c r="AW86" s="40"/>
-      <c r="AX86" s="40"/>
-      <c r="AY86" s="40"/>
-      <c r="AZ86" s="40"/>
-      <c r="BA86" s="40"/>
-      <c r="BB86" s="40"/>
-      <c r="BC86" s="40"/>
-      <c r="BD86" s="40"/>
-      <c r="BE86" s="40"/>
-      <c r="BF86" s="40"/>
-      <c r="BG86" s="40"/>
-      <c r="BH86" s="40"/>
-      <c r="BI86" s="40"/>
-      <c r="BJ86" s="40"/>
-      <c r="BK86" s="40"/>
-      <c r="BL86" s="40"/>
-      <c r="BM86" s="40"/>
-      <c r="BN86" s="40"/>
-      <c r="BO86" s="40"/>
-      <c r="BP86" s="40"/>
-      <c r="BQ86" s="40"/>
-      <c r="BR86" s="40"/>
-      <c r="BS86" s="41"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="128"/>
+      <c r="D86" s="128"/>
+      <c r="E86" s="128"/>
+      <c r="F86" s="128"/>
+      <c r="G86" s="128"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="128"/>
+      <c r="L86" s="128"/>
+      <c r="M86" s="128"/>
+      <c r="N86" s="128"/>
+      <c r="O86" s="128"/>
+      <c r="P86" s="128"/>
+      <c r="Q86" s="128"/>
+      <c r="R86" s="128"/>
+      <c r="S86" s="128"/>
+      <c r="T86" s="128"/>
+      <c r="U86" s="128"/>
+      <c r="V86" s="128"/>
+      <c r="W86" s="128"/>
+      <c r="X86" s="128"/>
+      <c r="Y86" s="128"/>
+      <c r="Z86" s="128"/>
+      <c r="AA86" s="128"/>
+      <c r="AB86" s="128"/>
+      <c r="AC86" s="128"/>
+      <c r="AD86" s="128"/>
+      <c r="AE86" s="128"/>
+      <c r="AF86" s="128"/>
+      <c r="AG86" s="128"/>
+      <c r="AH86" s="128"/>
+      <c r="AI86" s="128"/>
+      <c r="AJ86" s="128"/>
+      <c r="AK86" s="128"/>
+      <c r="AL86" s="128"/>
+      <c r="AM86" s="128"/>
+      <c r="AN86" s="128"/>
+      <c r="AO86" s="128"/>
+      <c r="AP86" s="128"/>
+      <c r="AQ86" s="128"/>
+      <c r="AR86" s="128"/>
+      <c r="AS86" s="128"/>
+      <c r="AT86" s="128"/>
+      <c r="AU86" s="128"/>
+      <c r="AV86" s="128"/>
+      <c r="AW86" s="128"/>
+      <c r="AX86" s="128"/>
+      <c r="AY86" s="128"/>
+      <c r="AZ86" s="128"/>
+      <c r="BA86" s="128"/>
+      <c r="BB86" s="128"/>
+      <c r="BC86" s="128"/>
+      <c r="BD86" s="128"/>
+      <c r="BE86" s="128"/>
+      <c r="BF86" s="128"/>
+      <c r="BG86" s="128"/>
+      <c r="BH86" s="128"/>
+      <c r="BI86" s="128"/>
+      <c r="BJ86" s="128"/>
+      <c r="BK86" s="128"/>
+      <c r="BL86" s="128"/>
+      <c r="BM86" s="128"/>
+      <c r="BN86" s="128"/>
+      <c r="BO86" s="128"/>
+      <c r="BP86" s="128"/>
+      <c r="BQ86" s="128"/>
+      <c r="BR86" s="128"/>
+      <c r="BS86" s="129"/>
     </row>
     <row r="87" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="40"/>
-      <c r="O87" s="40"/>
-      <c r="P87" s="40"/>
-      <c r="Q87" s="40"/>
-      <c r="R87" s="40"/>
-      <c r="S87" s="40"/>
-      <c r="T87" s="40"/>
-      <c r="U87" s="40"/>
-      <c r="V87" s="40"/>
-      <c r="W87" s="40"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="40"/>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="40"/>
-      <c r="AE87" s="40"/>
-      <c r="AF87" s="40"/>
-      <c r="AG87" s="40"/>
-      <c r="AH87" s="40"/>
-      <c r="AI87" s="40"/>
-      <c r="AJ87" s="40"/>
-      <c r="AK87" s="40"/>
-      <c r="AL87" s="40"/>
-      <c r="AM87" s="40"/>
-      <c r="AN87" s="40"/>
-      <c r="AO87" s="40"/>
-      <c r="AP87" s="40"/>
-      <c r="AQ87" s="40"/>
-      <c r="AR87" s="40"/>
-      <c r="AS87" s="40"/>
-      <c r="AT87" s="40"/>
-      <c r="AU87" s="40"/>
-      <c r="AV87" s="40"/>
-      <c r="AW87" s="40"/>
-      <c r="AX87" s="40"/>
-      <c r="AY87" s="40"/>
-      <c r="AZ87" s="40"/>
-      <c r="BA87" s="40"/>
-      <c r="BB87" s="40"/>
-      <c r="BC87" s="40"/>
-      <c r="BD87" s="40"/>
-      <c r="BE87" s="40"/>
-      <c r="BF87" s="40"/>
-      <c r="BG87" s="40"/>
-      <c r="BH87" s="40"/>
-      <c r="BI87" s="40"/>
-      <c r="BJ87" s="40"/>
-      <c r="BK87" s="40"/>
-      <c r="BL87" s="40"/>
-      <c r="BM87" s="40"/>
-      <c r="BN87" s="40"/>
-      <c r="BO87" s="40"/>
-      <c r="BP87" s="40"/>
-      <c r="BQ87" s="40"/>
-      <c r="BR87" s="40"/>
-      <c r="BS87" s="41"/>
+      <c r="A87" s="127"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="128"/>
+      <c r="K87" s="128"/>
+      <c r="L87" s="128"/>
+      <c r="M87" s="128"/>
+      <c r="N87" s="128"/>
+      <c r="O87" s="128"/>
+      <c r="P87" s="128"/>
+      <c r="Q87" s="128"/>
+      <c r="R87" s="128"/>
+      <c r="S87" s="128"/>
+      <c r="T87" s="128"/>
+      <c r="U87" s="128"/>
+      <c r="V87" s="128"/>
+      <c r="W87" s="128"/>
+      <c r="X87" s="128"/>
+      <c r="Y87" s="128"/>
+      <c r="Z87" s="128"/>
+      <c r="AA87" s="128"/>
+      <c r="AB87" s="128"/>
+      <c r="AC87" s="128"/>
+      <c r="AD87" s="128"/>
+      <c r="AE87" s="128"/>
+      <c r="AF87" s="128"/>
+      <c r="AG87" s="128"/>
+      <c r="AH87" s="128"/>
+      <c r="AI87" s="128"/>
+      <c r="AJ87" s="128"/>
+      <c r="AK87" s="128"/>
+      <c r="AL87" s="128"/>
+      <c r="AM87" s="128"/>
+      <c r="AN87" s="128"/>
+      <c r="AO87" s="128"/>
+      <c r="AP87" s="128"/>
+      <c r="AQ87" s="128"/>
+      <c r="AR87" s="128"/>
+      <c r="AS87" s="128"/>
+      <c r="AT87" s="128"/>
+      <c r="AU87" s="128"/>
+      <c r="AV87" s="128"/>
+      <c r="AW87" s="128"/>
+      <c r="AX87" s="128"/>
+      <c r="AY87" s="128"/>
+      <c r="AZ87" s="128"/>
+      <c r="BA87" s="128"/>
+      <c r="BB87" s="128"/>
+      <c r="BC87" s="128"/>
+      <c r="BD87" s="128"/>
+      <c r="BE87" s="128"/>
+      <c r="BF87" s="128"/>
+      <c r="BG87" s="128"/>
+      <c r="BH87" s="128"/>
+      <c r="BI87" s="128"/>
+      <c r="BJ87" s="128"/>
+      <c r="BK87" s="128"/>
+      <c r="BL87" s="128"/>
+      <c r="BM87" s="128"/>
+      <c r="BN87" s="128"/>
+      <c r="BO87" s="128"/>
+      <c r="BP87" s="128"/>
+      <c r="BQ87" s="128"/>
+      <c r="BR87" s="128"/>
+      <c r="BS87" s="129"/>
     </row>
     <row r="88" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
-      <c r="Z88" s="40"/>
-      <c r="AA88" s="40"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="40"/>
-      <c r="AD88" s="40"/>
-      <c r="AE88" s="40"/>
-      <c r="AF88" s="40"/>
-      <c r="AG88" s="40"/>
-      <c r="AH88" s="40"/>
-      <c r="AI88" s="40"/>
-      <c r="AJ88" s="40"/>
-      <c r="AK88" s="40"/>
-      <c r="AL88" s="40"/>
-      <c r="AM88" s="40"/>
-      <c r="AN88" s="40"/>
-      <c r="AO88" s="40"/>
-      <c r="AP88" s="40"/>
-      <c r="AQ88" s="40"/>
-      <c r="AR88" s="40"/>
-      <c r="AS88" s="40"/>
-      <c r="AT88" s="40"/>
-      <c r="AU88" s="40"/>
-      <c r="AV88" s="40"/>
-      <c r="AW88" s="40"/>
-      <c r="AX88" s="40"/>
-      <c r="AY88" s="40"/>
-      <c r="AZ88" s="40"/>
-      <c r="BA88" s="40"/>
-      <c r="BB88" s="40"/>
-      <c r="BC88" s="40"/>
-      <c r="BD88" s="40"/>
-      <c r="BE88" s="40"/>
-      <c r="BF88" s="40"/>
-      <c r="BG88" s="40"/>
-      <c r="BH88" s="40"/>
-      <c r="BI88" s="40"/>
-      <c r="BJ88" s="40"/>
-      <c r="BK88" s="40"/>
-      <c r="BL88" s="40"/>
-      <c r="BM88" s="40"/>
-      <c r="BN88" s="40"/>
-      <c r="BO88" s="40"/>
-      <c r="BP88" s="40"/>
-      <c r="BQ88" s="40"/>
-      <c r="BR88" s="40"/>
-      <c r="BS88" s="41"/>
+      <c r="A88" s="127"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="128"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
+      <c r="K88" s="128"/>
+      <c r="L88" s="128"/>
+      <c r="M88" s="128"/>
+      <c r="N88" s="128"/>
+      <c r="O88" s="128"/>
+      <c r="P88" s="128"/>
+      <c r="Q88" s="128"/>
+      <c r="R88" s="128"/>
+      <c r="S88" s="128"/>
+      <c r="T88" s="128"/>
+      <c r="U88" s="128"/>
+      <c r="V88" s="128"/>
+      <c r="W88" s="128"/>
+      <c r="X88" s="128"/>
+      <c r="Y88" s="128"/>
+      <c r="Z88" s="128"/>
+      <c r="AA88" s="128"/>
+      <c r="AB88" s="128"/>
+      <c r="AC88" s="128"/>
+      <c r="AD88" s="128"/>
+      <c r="AE88" s="128"/>
+      <c r="AF88" s="128"/>
+      <c r="AG88" s="128"/>
+      <c r="AH88" s="128"/>
+      <c r="AI88" s="128"/>
+      <c r="AJ88" s="128"/>
+      <c r="AK88" s="128"/>
+      <c r="AL88" s="128"/>
+      <c r="AM88" s="128"/>
+      <c r="AN88" s="128"/>
+      <c r="AO88" s="128"/>
+      <c r="AP88" s="128"/>
+      <c r="AQ88" s="128"/>
+      <c r="AR88" s="128"/>
+      <c r="AS88" s="128"/>
+      <c r="AT88" s="128"/>
+      <c r="AU88" s="128"/>
+      <c r="AV88" s="128"/>
+      <c r="AW88" s="128"/>
+      <c r="AX88" s="128"/>
+      <c r="AY88" s="128"/>
+      <c r="AZ88" s="128"/>
+      <c r="BA88" s="128"/>
+      <c r="BB88" s="128"/>
+      <c r="BC88" s="128"/>
+      <c r="BD88" s="128"/>
+      <c r="BE88" s="128"/>
+      <c r="BF88" s="128"/>
+      <c r="BG88" s="128"/>
+      <c r="BH88" s="128"/>
+      <c r="BI88" s="128"/>
+      <c r="BJ88" s="128"/>
+      <c r="BK88" s="128"/>
+      <c r="BL88" s="128"/>
+      <c r="BM88" s="128"/>
+      <c r="BN88" s="128"/>
+      <c r="BO88" s="128"/>
+      <c r="BP88" s="128"/>
+      <c r="BQ88" s="128"/>
+      <c r="BR88" s="128"/>
+      <c r="BS88" s="129"/>
     </row>
     <row r="89" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="88"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="88"/>
-      <c r="F89" s="88"/>
-      <c r="G89" s="88"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
       <c r="J89" s="17"/>
@@ -13511,15 +13511,15 @@
       <c r="BS89" s="17"/>
     </row>
     <row r="90" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A90" s="52"/>
-      <c r="B90" s="87" t="s">
+      <c r="A90" s="73"/>
+      <c r="B90" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
-      <c r="G90" s="88"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
@@ -13586,15 +13586,15 @@
       <c r="BS90" s="17"/>
     </row>
     <row r="91" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A91" s="52"/>
-      <c r="B91" s="87" t="s">
+      <c r="A91" s="73"/>
+      <c r="B91" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="17"/>
@@ -13661,15 +13661,15 @@
       <c r="BS91" s="17"/>
     </row>
     <row r="92" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
-      <c r="B92" s="87" t="s">
+      <c r="A92" s="73"/>
+      <c r="B92" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C92" s="88"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="88"/>
-      <c r="G92" s="88"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -13736,15 +13736,15 @@
       <c r="BS92" s="17"/>
     </row>
     <row r="93" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="87" t="s">
+      <c r="A93" s="65"/>
+      <c r="B93" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88"/>
-      <c r="G93" s="88"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -13814,14 +13814,14 @@
       <c r="A94" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="87" t="s">
+      <c r="B94" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="88"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="88"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="88"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -13888,17 +13888,17 @@
       <c r="BS94" s="17"/>
     </row>
     <row r="95" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A95" s="51" t="s">
+      <c r="A95" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="95" t="s">
+      <c r="B95" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
       <c r="J95" s="17"/>
@@ -13965,15 +13965,15 @@
       <c r="BS95" s="17"/>
     </row>
     <row r="96" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="87" t="s">
+      <c r="A96" s="65"/>
+      <c r="B96" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
       <c r="J96" s="17"/>
@@ -14040,17 +14040,17 @@
       <c r="BS96" s="17"/>
     </row>
     <row r="97" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C97" s="86"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="86"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
       <c r="J97" s="17"/>
@@ -14117,15 +14117,15 @@
       <c r="BS97" s="17"/>
     </row>
     <row r="98" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A98" s="53"/>
-      <c r="B98" s="85" t="s">
+      <c r="A98" s="65"/>
+      <c r="B98" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C98" s="86"/>
-      <c r="D98" s="86"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="17"/>
@@ -14192,311 +14192,311 @@
       <c r="BS98" s="17"/>
     </row>
     <row r="99" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
-      <c r="AG99" s="22"/>
-      <c r="AH99" s="22"/>
-      <c r="AI99" s="22"/>
-      <c r="AJ99" s="22"/>
-      <c r="AK99" s="22"/>
-      <c r="AL99" s="22"/>
-      <c r="AM99" s="22"/>
-      <c r="AN99" s="22"/>
-      <c r="AO99" s="22"/>
-      <c r="AP99" s="22"/>
-      <c r="AQ99" s="22"/>
-      <c r="AR99" s="22"/>
-      <c r="AS99" s="22"/>
-      <c r="AT99" s="22"/>
-      <c r="AU99" s="22"/>
-      <c r="AV99" s="22"/>
-      <c r="AW99" s="22"/>
-      <c r="AX99" s="22"/>
-      <c r="AY99" s="22"/>
-      <c r="AZ99" s="22"/>
-      <c r="BA99" s="22"/>
-      <c r="BB99" s="22"/>
-      <c r="BC99" s="22"/>
-      <c r="BD99" s="22"/>
-      <c r="BE99" s="22"/>
-      <c r="BF99" s="22"/>
-      <c r="BG99" s="22"/>
-      <c r="BH99" s="22"/>
-      <c r="BI99" s="22"/>
-      <c r="BJ99" s="22"/>
-      <c r="BK99" s="22"/>
-      <c r="BL99" s="22"/>
-      <c r="BM99" s="22"/>
-      <c r="BN99" s="22"/>
-      <c r="BO99" s="22"/>
-      <c r="BP99" s="22"/>
-      <c r="BQ99" s="22"/>
-      <c r="BR99" s="22"/>
-      <c r="BS99" s="23"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110"/>
+      <c r="J99" s="110"/>
+      <c r="K99" s="110"/>
+      <c r="L99" s="110"/>
+      <c r="M99" s="110"/>
+      <c r="N99" s="110"/>
+      <c r="O99" s="110"/>
+      <c r="P99" s="110"/>
+      <c r="Q99" s="110"/>
+      <c r="R99" s="110"/>
+      <c r="S99" s="110"/>
+      <c r="T99" s="110"/>
+      <c r="U99" s="110"/>
+      <c r="V99" s="110"/>
+      <c r="W99" s="110"/>
+      <c r="X99" s="110"/>
+      <c r="Y99" s="110"/>
+      <c r="Z99" s="110"/>
+      <c r="AA99" s="110"/>
+      <c r="AB99" s="110"/>
+      <c r="AC99" s="110"/>
+      <c r="AD99" s="110"/>
+      <c r="AE99" s="110"/>
+      <c r="AF99" s="110"/>
+      <c r="AG99" s="110"/>
+      <c r="AH99" s="110"/>
+      <c r="AI99" s="110"/>
+      <c r="AJ99" s="110"/>
+      <c r="AK99" s="110"/>
+      <c r="AL99" s="110"/>
+      <c r="AM99" s="110"/>
+      <c r="AN99" s="110"/>
+      <c r="AO99" s="110"/>
+      <c r="AP99" s="110"/>
+      <c r="AQ99" s="110"/>
+      <c r="AR99" s="110"/>
+      <c r="AS99" s="110"/>
+      <c r="AT99" s="110"/>
+      <c r="AU99" s="110"/>
+      <c r="AV99" s="110"/>
+      <c r="AW99" s="110"/>
+      <c r="AX99" s="110"/>
+      <c r="AY99" s="110"/>
+      <c r="AZ99" s="110"/>
+      <c r="BA99" s="110"/>
+      <c r="BB99" s="110"/>
+      <c r="BC99" s="110"/>
+      <c r="BD99" s="110"/>
+      <c r="BE99" s="110"/>
+      <c r="BF99" s="110"/>
+      <c r="BG99" s="110"/>
+      <c r="BH99" s="110"/>
+      <c r="BI99" s="110"/>
+      <c r="BJ99" s="110"/>
+      <c r="BK99" s="110"/>
+      <c r="BL99" s="110"/>
+      <c r="BM99" s="110"/>
+      <c r="BN99" s="110"/>
+      <c r="BO99" s="110"/>
+      <c r="BP99" s="110"/>
+      <c r="BQ99" s="110"/>
+      <c r="BR99" s="110"/>
+      <c r="BS99" s="111"/>
     </row>
     <row r="100" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
-      <c r="R100" s="25"/>
-      <c r="S100" s="25"/>
-      <c r="T100" s="25"/>
-      <c r="U100" s="25"/>
-      <c r="V100" s="25"/>
-      <c r="W100" s="25"/>
-      <c r="X100" s="25"/>
-      <c r="Y100" s="25"/>
-      <c r="Z100" s="25"/>
-      <c r="AA100" s="25"/>
-      <c r="AB100" s="25"/>
-      <c r="AC100" s="25"/>
-      <c r="AD100" s="25"/>
-      <c r="AE100" s="25"/>
-      <c r="AF100" s="25"/>
-      <c r="AG100" s="25"/>
-      <c r="AH100" s="25"/>
-      <c r="AI100" s="25"/>
-      <c r="AJ100" s="25"/>
-      <c r="AK100" s="25"/>
-      <c r="AL100" s="25"/>
-      <c r="AM100" s="25"/>
-      <c r="AN100" s="25"/>
-      <c r="AO100" s="25"/>
-      <c r="AP100" s="25"/>
-      <c r="AQ100" s="25"/>
-      <c r="AR100" s="25"/>
-      <c r="AS100" s="25"/>
-      <c r="AT100" s="25"/>
-      <c r="AU100" s="25"/>
-      <c r="AV100" s="25"/>
-      <c r="AW100" s="25"/>
-      <c r="AX100" s="25"/>
-      <c r="AY100" s="25"/>
-      <c r="AZ100" s="25"/>
-      <c r="BA100" s="25"/>
-      <c r="BB100" s="25"/>
-      <c r="BC100" s="25"/>
-      <c r="BD100" s="25"/>
-      <c r="BE100" s="25"/>
-      <c r="BF100" s="25"/>
-      <c r="BG100" s="25"/>
-      <c r="BH100" s="25"/>
-      <c r="BI100" s="25"/>
-      <c r="BJ100" s="25"/>
-      <c r="BK100" s="25"/>
-      <c r="BL100" s="25"/>
-      <c r="BM100" s="25"/>
-      <c r="BN100" s="25"/>
-      <c r="BO100" s="25"/>
-      <c r="BP100" s="25"/>
-      <c r="BQ100" s="25"/>
-      <c r="BR100" s="25"/>
-      <c r="BS100" s="26"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="113"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="113"/>
+      <c r="I100" s="113"/>
+      <c r="J100" s="113"/>
+      <c r="K100" s="113"/>
+      <c r="L100" s="113"/>
+      <c r="M100" s="113"/>
+      <c r="N100" s="113"/>
+      <c r="O100" s="113"/>
+      <c r="P100" s="113"/>
+      <c r="Q100" s="113"/>
+      <c r="R100" s="113"/>
+      <c r="S100" s="113"/>
+      <c r="T100" s="113"/>
+      <c r="U100" s="113"/>
+      <c r="V100" s="113"/>
+      <c r="W100" s="113"/>
+      <c r="X100" s="113"/>
+      <c r="Y100" s="113"/>
+      <c r="Z100" s="113"/>
+      <c r="AA100" s="113"/>
+      <c r="AB100" s="113"/>
+      <c r="AC100" s="113"/>
+      <c r="AD100" s="113"/>
+      <c r="AE100" s="113"/>
+      <c r="AF100" s="113"/>
+      <c r="AG100" s="113"/>
+      <c r="AH100" s="113"/>
+      <c r="AI100" s="113"/>
+      <c r="AJ100" s="113"/>
+      <c r="AK100" s="113"/>
+      <c r="AL100" s="113"/>
+      <c r="AM100" s="113"/>
+      <c r="AN100" s="113"/>
+      <c r="AO100" s="113"/>
+      <c r="AP100" s="113"/>
+      <c r="AQ100" s="113"/>
+      <c r="AR100" s="113"/>
+      <c r="AS100" s="113"/>
+      <c r="AT100" s="113"/>
+      <c r="AU100" s="113"/>
+      <c r="AV100" s="113"/>
+      <c r="AW100" s="113"/>
+      <c r="AX100" s="113"/>
+      <c r="AY100" s="113"/>
+      <c r="AZ100" s="113"/>
+      <c r="BA100" s="113"/>
+      <c r="BB100" s="113"/>
+      <c r="BC100" s="113"/>
+      <c r="BD100" s="113"/>
+      <c r="BE100" s="113"/>
+      <c r="BF100" s="113"/>
+      <c r="BG100" s="113"/>
+      <c r="BH100" s="113"/>
+      <c r="BI100" s="113"/>
+      <c r="BJ100" s="113"/>
+      <c r="BK100" s="113"/>
+      <c r="BL100" s="113"/>
+      <c r="BM100" s="113"/>
+      <c r="BN100" s="113"/>
+      <c r="BO100" s="113"/>
+      <c r="BP100" s="113"/>
+      <c r="BQ100" s="113"/>
+      <c r="BR100" s="113"/>
+      <c r="BS100" s="114"/>
     </row>
     <row r="101" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="25"/>
-      <c r="O101" s="25"/>
-      <c r="P101" s="25"/>
-      <c r="Q101" s="25"/>
-      <c r="R101" s="25"/>
-      <c r="S101" s="25"/>
-      <c r="T101" s="25"/>
-      <c r="U101" s="25"/>
-      <c r="V101" s="25"/>
-      <c r="W101" s="25"/>
-      <c r="X101" s="25"/>
-      <c r="Y101" s="25"/>
-      <c r="Z101" s="25"/>
-      <c r="AA101" s="25"/>
-      <c r="AB101" s="25"/>
-      <c r="AC101" s="25"/>
-      <c r="AD101" s="25"/>
-      <c r="AE101" s="25"/>
-      <c r="AF101" s="25"/>
-      <c r="AG101" s="25"/>
-      <c r="AH101" s="25"/>
-      <c r="AI101" s="25"/>
-      <c r="AJ101" s="25"/>
-      <c r="AK101" s="25"/>
-      <c r="AL101" s="25"/>
-      <c r="AM101" s="25"/>
-      <c r="AN101" s="25"/>
-      <c r="AO101" s="25"/>
-      <c r="AP101" s="25"/>
-      <c r="AQ101" s="25"/>
-      <c r="AR101" s="25"/>
-      <c r="AS101" s="25"/>
-      <c r="AT101" s="25"/>
-      <c r="AU101" s="25"/>
-      <c r="AV101" s="25"/>
-      <c r="AW101" s="25"/>
-      <c r="AX101" s="25"/>
-      <c r="AY101" s="25"/>
-      <c r="AZ101" s="25"/>
-      <c r="BA101" s="25"/>
-      <c r="BB101" s="25"/>
-      <c r="BC101" s="25"/>
-      <c r="BD101" s="25"/>
-      <c r="BE101" s="25"/>
-      <c r="BF101" s="25"/>
-      <c r="BG101" s="25"/>
-      <c r="BH101" s="25"/>
-      <c r="BI101" s="25"/>
-      <c r="BJ101" s="25"/>
-      <c r="BK101" s="25"/>
-      <c r="BL101" s="25"/>
-      <c r="BM101" s="25"/>
-      <c r="BN101" s="25"/>
-      <c r="BO101" s="25"/>
-      <c r="BP101" s="25"/>
-      <c r="BQ101" s="25"/>
-      <c r="BR101" s="25"/>
-      <c r="BS101" s="26"/>
+      <c r="A101" s="112"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="113"/>
+      <c r="E101" s="113"/>
+      <c r="F101" s="113"/>
+      <c r="G101" s="113"/>
+      <c r="H101" s="113"/>
+      <c r="I101" s="113"/>
+      <c r="J101" s="113"/>
+      <c r="K101" s="113"/>
+      <c r="L101" s="113"/>
+      <c r="M101" s="113"/>
+      <c r="N101" s="113"/>
+      <c r="O101" s="113"/>
+      <c r="P101" s="113"/>
+      <c r="Q101" s="113"/>
+      <c r="R101" s="113"/>
+      <c r="S101" s="113"/>
+      <c r="T101" s="113"/>
+      <c r="U101" s="113"/>
+      <c r="V101" s="113"/>
+      <c r="W101" s="113"/>
+      <c r="X101" s="113"/>
+      <c r="Y101" s="113"/>
+      <c r="Z101" s="113"/>
+      <c r="AA101" s="113"/>
+      <c r="AB101" s="113"/>
+      <c r="AC101" s="113"/>
+      <c r="AD101" s="113"/>
+      <c r="AE101" s="113"/>
+      <c r="AF101" s="113"/>
+      <c r="AG101" s="113"/>
+      <c r="AH101" s="113"/>
+      <c r="AI101" s="113"/>
+      <c r="AJ101" s="113"/>
+      <c r="AK101" s="113"/>
+      <c r="AL101" s="113"/>
+      <c r="AM101" s="113"/>
+      <c r="AN101" s="113"/>
+      <c r="AO101" s="113"/>
+      <c r="AP101" s="113"/>
+      <c r="AQ101" s="113"/>
+      <c r="AR101" s="113"/>
+      <c r="AS101" s="113"/>
+      <c r="AT101" s="113"/>
+      <c r="AU101" s="113"/>
+      <c r="AV101" s="113"/>
+      <c r="AW101" s="113"/>
+      <c r="AX101" s="113"/>
+      <c r="AY101" s="113"/>
+      <c r="AZ101" s="113"/>
+      <c r="BA101" s="113"/>
+      <c r="BB101" s="113"/>
+      <c r="BC101" s="113"/>
+      <c r="BD101" s="113"/>
+      <c r="BE101" s="113"/>
+      <c r="BF101" s="113"/>
+      <c r="BG101" s="113"/>
+      <c r="BH101" s="113"/>
+      <c r="BI101" s="113"/>
+      <c r="BJ101" s="113"/>
+      <c r="BK101" s="113"/>
+      <c r="BL101" s="113"/>
+      <c r="BM101" s="113"/>
+      <c r="BN101" s="113"/>
+      <c r="BO101" s="113"/>
+      <c r="BP101" s="113"/>
+      <c r="BQ101" s="113"/>
+      <c r="BR101" s="113"/>
+      <c r="BS101" s="114"/>
     </row>
     <row r="102" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A102" s="24"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="25"/>
-      <c r="S102" s="25"/>
-      <c r="T102" s="25"/>
-      <c r="U102" s="25"/>
-      <c r="V102" s="25"/>
-      <c r="W102" s="25"/>
-      <c r="X102" s="25"/>
-      <c r="Y102" s="25"/>
-      <c r="Z102" s="25"/>
-      <c r="AA102" s="25"/>
-      <c r="AB102" s="25"/>
-      <c r="AC102" s="25"/>
-      <c r="AD102" s="25"/>
-      <c r="AE102" s="25"/>
-      <c r="AF102" s="25"/>
-      <c r="AG102" s="25"/>
-      <c r="AH102" s="25"/>
-      <c r="AI102" s="25"/>
-      <c r="AJ102" s="25"/>
-      <c r="AK102" s="25"/>
-      <c r="AL102" s="25"/>
-      <c r="AM102" s="25"/>
-      <c r="AN102" s="25"/>
-      <c r="AO102" s="25"/>
-      <c r="AP102" s="25"/>
-      <c r="AQ102" s="25"/>
-      <c r="AR102" s="25"/>
-      <c r="AS102" s="25"/>
-      <c r="AT102" s="25"/>
-      <c r="AU102" s="25"/>
-      <c r="AV102" s="25"/>
-      <c r="AW102" s="25"/>
-      <c r="AX102" s="25"/>
-      <c r="AY102" s="25"/>
-      <c r="AZ102" s="25"/>
-      <c r="BA102" s="25"/>
-      <c r="BB102" s="25"/>
-      <c r="BC102" s="25"/>
-      <c r="BD102" s="25"/>
-      <c r="BE102" s="25"/>
-      <c r="BF102" s="25"/>
-      <c r="BG102" s="25"/>
-      <c r="BH102" s="25"/>
-      <c r="BI102" s="25"/>
-      <c r="BJ102" s="25"/>
-      <c r="BK102" s="25"/>
-      <c r="BL102" s="25"/>
-      <c r="BM102" s="25"/>
-      <c r="BN102" s="25"/>
-      <c r="BO102" s="25"/>
-      <c r="BP102" s="25"/>
-      <c r="BQ102" s="25"/>
-      <c r="BR102" s="25"/>
-      <c r="BS102" s="26"/>
+      <c r="A102" s="112"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
+      <c r="G102" s="113"/>
+      <c r="H102" s="113"/>
+      <c r="I102" s="113"/>
+      <c r="J102" s="113"/>
+      <c r="K102" s="113"/>
+      <c r="L102" s="113"/>
+      <c r="M102" s="113"/>
+      <c r="N102" s="113"/>
+      <c r="O102" s="113"/>
+      <c r="P102" s="113"/>
+      <c r="Q102" s="113"/>
+      <c r="R102" s="113"/>
+      <c r="S102" s="113"/>
+      <c r="T102" s="113"/>
+      <c r="U102" s="113"/>
+      <c r="V102" s="113"/>
+      <c r="W102" s="113"/>
+      <c r="X102" s="113"/>
+      <c r="Y102" s="113"/>
+      <c r="Z102" s="113"/>
+      <c r="AA102" s="113"/>
+      <c r="AB102" s="113"/>
+      <c r="AC102" s="113"/>
+      <c r="AD102" s="113"/>
+      <c r="AE102" s="113"/>
+      <c r="AF102" s="113"/>
+      <c r="AG102" s="113"/>
+      <c r="AH102" s="113"/>
+      <c r="AI102" s="113"/>
+      <c r="AJ102" s="113"/>
+      <c r="AK102" s="113"/>
+      <c r="AL102" s="113"/>
+      <c r="AM102" s="113"/>
+      <c r="AN102" s="113"/>
+      <c r="AO102" s="113"/>
+      <c r="AP102" s="113"/>
+      <c r="AQ102" s="113"/>
+      <c r="AR102" s="113"/>
+      <c r="AS102" s="113"/>
+      <c r="AT102" s="113"/>
+      <c r="AU102" s="113"/>
+      <c r="AV102" s="113"/>
+      <c r="AW102" s="113"/>
+      <c r="AX102" s="113"/>
+      <c r="AY102" s="113"/>
+      <c r="AZ102" s="113"/>
+      <c r="BA102" s="113"/>
+      <c r="BB102" s="113"/>
+      <c r="BC102" s="113"/>
+      <c r="BD102" s="113"/>
+      <c r="BE102" s="113"/>
+      <c r="BF102" s="113"/>
+      <c r="BG102" s="113"/>
+      <c r="BH102" s="113"/>
+      <c r="BI102" s="113"/>
+      <c r="BJ102" s="113"/>
+      <c r="BK102" s="113"/>
+      <c r="BL102" s="113"/>
+      <c r="BM102" s="113"/>
+      <c r="BN102" s="113"/>
+      <c r="BO102" s="113"/>
+      <c r="BP102" s="113"/>
+      <c r="BQ102" s="113"/>
+      <c r="BR102" s="113"/>
+      <c r="BS102" s="114"/>
     </row>
     <row r="103" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A103" s="58" t="s">
+      <c r="A103" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="88"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="88"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
       <c r="J103" s="17"/>
@@ -14563,15 +14563,15 @@
       <c r="BS103" s="17"/>
     </row>
     <row r="104" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A104" s="60"/>
-      <c r="B104" s="87" t="s">
+      <c r="A104" s="63"/>
+      <c r="B104" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
       <c r="J104" s="17"/>
@@ -14638,17 +14638,17 @@
       <c r="BS104" s="17"/>
     </row>
     <row r="105" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A105" s="58" t="s">
+      <c r="A105" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="88"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="88"/>
-      <c r="F105" s="88"/>
-      <c r="G105" s="88"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
@@ -14715,15 +14715,15 @@
       <c r="BS105" s="17"/>
     </row>
     <row r="106" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A106" s="60"/>
-      <c r="B106" s="87" t="s">
+      <c r="A106" s="63"/>
+      <c r="B106" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="88"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
-      <c r="G106" s="88"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
       <c r="J106" s="17"/>
@@ -14793,14 +14793,14 @@
       <c r="A107" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="87" t="s">
+      <c r="B107" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="88"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="88"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
       <c r="J107" s="17"/>
@@ -14867,17 +14867,17 @@
       <c r="BS107" s="17"/>
     </row>
     <row r="108" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A108" s="58" t="s">
+      <c r="A108" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="88"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="G108" s="88"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
       <c r="J108" s="17"/>
@@ -14944,15 +14944,15 @@
       <c r="BS108" s="17"/>
     </row>
     <row r="109" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A109" s="59"/>
-      <c r="B109" s="87" t="s">
+      <c r="A109" s="70"/>
+      <c r="B109" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="88"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="G109" s="88"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
       <c r="J109" s="17"/>
@@ -15019,17 +15019,17 @@
       <c r="BS109" s="17"/>
     </row>
     <row r="110" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A110" s="58" t="s">
+      <c r="A110" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="87" t="s">
+      <c r="B110" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="88"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="88"/>
-      <c r="G110" s="88"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
       <c r="J110" s="17"/>
@@ -15096,15 +15096,15 @@
       <c r="BS110" s="17"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A111" s="59"/>
-      <c r="B111" s="87" t="s">
+      <c r="A111" s="70"/>
+      <c r="B111" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
       <c r="J111" s="17"/>
@@ -15171,15 +15171,15 @@
       <c r="BS111" s="17"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A112" s="60"/>
-      <c r="B112" s="87" t="s">
+      <c r="A112" s="63"/>
+      <c r="B112" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="88"/>
-      <c r="D112" s="88"/>
-      <c r="E112" s="88"/>
-      <c r="F112" s="88"/>
-      <c r="G112" s="88"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
       <c r="J112" s="17"/>
@@ -15246,311 +15246,311 @@
       <c r="BS112" s="17"/>
     </row>
     <row r="113" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="22"/>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="22"/>
-      <c r="AM113" s="22"/>
-      <c r="AN113" s="22"/>
-      <c r="AO113" s="22"/>
-      <c r="AP113" s="22"/>
-      <c r="AQ113" s="22"/>
-      <c r="AR113" s="22"/>
-      <c r="AS113" s="22"/>
-      <c r="AT113" s="22"/>
-      <c r="AU113" s="22"/>
-      <c r="AV113" s="22"/>
-      <c r="AW113" s="22"/>
-      <c r="AX113" s="22"/>
-      <c r="AY113" s="22"/>
-      <c r="AZ113" s="22"/>
-      <c r="BA113" s="22"/>
-      <c r="BB113" s="22"/>
-      <c r="BC113" s="22"/>
-      <c r="BD113" s="22"/>
-      <c r="BE113" s="22"/>
-      <c r="BF113" s="22"/>
-      <c r="BG113" s="22"/>
-      <c r="BH113" s="22"/>
-      <c r="BI113" s="22"/>
-      <c r="BJ113" s="22"/>
-      <c r="BK113" s="22"/>
-      <c r="BL113" s="22"/>
-      <c r="BM113" s="22"/>
-      <c r="BN113" s="22"/>
-      <c r="BO113" s="22"/>
-      <c r="BP113" s="22"/>
-      <c r="BQ113" s="22"/>
-      <c r="BR113" s="22"/>
-      <c r="BS113" s="23"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="110"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="110"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="110"/>
+      <c r="I113" s="110"/>
+      <c r="J113" s="110"/>
+      <c r="K113" s="110"/>
+      <c r="L113" s="110"/>
+      <c r="M113" s="110"/>
+      <c r="N113" s="110"/>
+      <c r="O113" s="110"/>
+      <c r="P113" s="110"/>
+      <c r="Q113" s="110"/>
+      <c r="R113" s="110"/>
+      <c r="S113" s="110"/>
+      <c r="T113" s="110"/>
+      <c r="U113" s="110"/>
+      <c r="V113" s="110"/>
+      <c r="W113" s="110"/>
+      <c r="X113" s="110"/>
+      <c r="Y113" s="110"/>
+      <c r="Z113" s="110"/>
+      <c r="AA113" s="110"/>
+      <c r="AB113" s="110"/>
+      <c r="AC113" s="110"/>
+      <c r="AD113" s="110"/>
+      <c r="AE113" s="110"/>
+      <c r="AF113" s="110"/>
+      <c r="AG113" s="110"/>
+      <c r="AH113" s="110"/>
+      <c r="AI113" s="110"/>
+      <c r="AJ113" s="110"/>
+      <c r="AK113" s="110"/>
+      <c r="AL113" s="110"/>
+      <c r="AM113" s="110"/>
+      <c r="AN113" s="110"/>
+      <c r="AO113" s="110"/>
+      <c r="AP113" s="110"/>
+      <c r="AQ113" s="110"/>
+      <c r="AR113" s="110"/>
+      <c r="AS113" s="110"/>
+      <c r="AT113" s="110"/>
+      <c r="AU113" s="110"/>
+      <c r="AV113" s="110"/>
+      <c r="AW113" s="110"/>
+      <c r="AX113" s="110"/>
+      <c r="AY113" s="110"/>
+      <c r="AZ113" s="110"/>
+      <c r="BA113" s="110"/>
+      <c r="BB113" s="110"/>
+      <c r="BC113" s="110"/>
+      <c r="BD113" s="110"/>
+      <c r="BE113" s="110"/>
+      <c r="BF113" s="110"/>
+      <c r="BG113" s="110"/>
+      <c r="BH113" s="110"/>
+      <c r="BI113" s="110"/>
+      <c r="BJ113" s="110"/>
+      <c r="BK113" s="110"/>
+      <c r="BL113" s="110"/>
+      <c r="BM113" s="110"/>
+      <c r="BN113" s="110"/>
+      <c r="BO113" s="110"/>
+      <c r="BP113" s="110"/>
+      <c r="BQ113" s="110"/>
+      <c r="BR113" s="110"/>
+      <c r="BS113" s="111"/>
     </row>
     <row r="114" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="25"/>
-      <c r="P114" s="25"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="25"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="25"/>
-      <c r="U114" s="25"/>
-      <c r="V114" s="25"/>
-      <c r="W114" s="25"/>
-      <c r="X114" s="25"/>
-      <c r="Y114" s="25"/>
-      <c r="Z114" s="25"/>
-      <c r="AA114" s="25"/>
-      <c r="AB114" s="25"/>
-      <c r="AC114" s="25"/>
-      <c r="AD114" s="25"/>
-      <c r="AE114" s="25"/>
-      <c r="AF114" s="25"/>
-      <c r="AG114" s="25"/>
-      <c r="AH114" s="25"/>
-      <c r="AI114" s="25"/>
-      <c r="AJ114" s="25"/>
-      <c r="AK114" s="25"/>
-      <c r="AL114" s="25"/>
-      <c r="AM114" s="25"/>
-      <c r="AN114" s="25"/>
-      <c r="AO114" s="25"/>
-      <c r="AP114" s="25"/>
-      <c r="AQ114" s="25"/>
-      <c r="AR114" s="25"/>
-      <c r="AS114" s="25"/>
-      <c r="AT114" s="25"/>
-      <c r="AU114" s="25"/>
-      <c r="AV114" s="25"/>
-      <c r="AW114" s="25"/>
-      <c r="AX114" s="25"/>
-      <c r="AY114" s="25"/>
-      <c r="AZ114" s="25"/>
-      <c r="BA114" s="25"/>
-      <c r="BB114" s="25"/>
-      <c r="BC114" s="25"/>
-      <c r="BD114" s="25"/>
-      <c r="BE114" s="25"/>
-      <c r="BF114" s="25"/>
-      <c r="BG114" s="25"/>
-      <c r="BH114" s="25"/>
-      <c r="BI114" s="25"/>
-      <c r="BJ114" s="25"/>
-      <c r="BK114" s="25"/>
-      <c r="BL114" s="25"/>
-      <c r="BM114" s="25"/>
-      <c r="BN114" s="25"/>
-      <c r="BO114" s="25"/>
-      <c r="BP114" s="25"/>
-      <c r="BQ114" s="25"/>
-      <c r="BR114" s="25"/>
-      <c r="BS114" s="26"/>
+      <c r="A114" s="112"/>
+      <c r="B114" s="113"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="113"/>
+      <c r="E114" s="113"/>
+      <c r="F114" s="113"/>
+      <c r="G114" s="113"/>
+      <c r="H114" s="113"/>
+      <c r="I114" s="113"/>
+      <c r="J114" s="113"/>
+      <c r="K114" s="113"/>
+      <c r="L114" s="113"/>
+      <c r="M114" s="113"/>
+      <c r="N114" s="113"/>
+      <c r="O114" s="113"/>
+      <c r="P114" s="113"/>
+      <c r="Q114" s="113"/>
+      <c r="R114" s="113"/>
+      <c r="S114" s="113"/>
+      <c r="T114" s="113"/>
+      <c r="U114" s="113"/>
+      <c r="V114" s="113"/>
+      <c r="W114" s="113"/>
+      <c r="X114" s="113"/>
+      <c r="Y114" s="113"/>
+      <c r="Z114" s="113"/>
+      <c r="AA114" s="113"/>
+      <c r="AB114" s="113"/>
+      <c r="AC114" s="113"/>
+      <c r="AD114" s="113"/>
+      <c r="AE114" s="113"/>
+      <c r="AF114" s="113"/>
+      <c r="AG114" s="113"/>
+      <c r="AH114" s="113"/>
+      <c r="AI114" s="113"/>
+      <c r="AJ114" s="113"/>
+      <c r="AK114" s="113"/>
+      <c r="AL114" s="113"/>
+      <c r="AM114" s="113"/>
+      <c r="AN114" s="113"/>
+      <c r="AO114" s="113"/>
+      <c r="AP114" s="113"/>
+      <c r="AQ114" s="113"/>
+      <c r="AR114" s="113"/>
+      <c r="AS114" s="113"/>
+      <c r="AT114" s="113"/>
+      <c r="AU114" s="113"/>
+      <c r="AV114" s="113"/>
+      <c r="AW114" s="113"/>
+      <c r="AX114" s="113"/>
+      <c r="AY114" s="113"/>
+      <c r="AZ114" s="113"/>
+      <c r="BA114" s="113"/>
+      <c r="BB114" s="113"/>
+      <c r="BC114" s="113"/>
+      <c r="BD114" s="113"/>
+      <c r="BE114" s="113"/>
+      <c r="BF114" s="113"/>
+      <c r="BG114" s="113"/>
+      <c r="BH114" s="113"/>
+      <c r="BI114" s="113"/>
+      <c r="BJ114" s="113"/>
+      <c r="BK114" s="113"/>
+      <c r="BL114" s="113"/>
+      <c r="BM114" s="113"/>
+      <c r="BN114" s="113"/>
+      <c r="BO114" s="113"/>
+      <c r="BP114" s="113"/>
+      <c r="BQ114" s="113"/>
+      <c r="BR114" s="113"/>
+      <c r="BS114" s="114"/>
     </row>
     <row r="115" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="25"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="25"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="25"/>
-      <c r="U115" s="25"/>
-      <c r="V115" s="25"/>
-      <c r="W115" s="25"/>
-      <c r="X115" s="25"/>
-      <c r="Y115" s="25"/>
-      <c r="Z115" s="25"/>
-      <c r="AA115" s="25"/>
-      <c r="AB115" s="25"/>
-      <c r="AC115" s="25"/>
-      <c r="AD115" s="25"/>
-      <c r="AE115" s="25"/>
-      <c r="AF115" s="25"/>
-      <c r="AG115" s="25"/>
-      <c r="AH115" s="25"/>
-      <c r="AI115" s="25"/>
-      <c r="AJ115" s="25"/>
-      <c r="AK115" s="25"/>
-      <c r="AL115" s="25"/>
-      <c r="AM115" s="25"/>
-      <c r="AN115" s="25"/>
-      <c r="AO115" s="25"/>
-      <c r="AP115" s="25"/>
-      <c r="AQ115" s="25"/>
-      <c r="AR115" s="25"/>
-      <c r="AS115" s="25"/>
-      <c r="AT115" s="25"/>
-      <c r="AU115" s="25"/>
-      <c r="AV115" s="25"/>
-      <c r="AW115" s="25"/>
-      <c r="AX115" s="25"/>
-      <c r="AY115" s="25"/>
-      <c r="AZ115" s="25"/>
-      <c r="BA115" s="25"/>
-      <c r="BB115" s="25"/>
-      <c r="BC115" s="25"/>
-      <c r="BD115" s="25"/>
-      <c r="BE115" s="25"/>
-      <c r="BF115" s="25"/>
-      <c r="BG115" s="25"/>
-      <c r="BH115" s="25"/>
-      <c r="BI115" s="25"/>
-      <c r="BJ115" s="25"/>
-      <c r="BK115" s="25"/>
-      <c r="BL115" s="25"/>
-      <c r="BM115" s="25"/>
-      <c r="BN115" s="25"/>
-      <c r="BO115" s="25"/>
-      <c r="BP115" s="25"/>
-      <c r="BQ115" s="25"/>
-      <c r="BR115" s="25"/>
-      <c r="BS115" s="26"/>
+      <c r="A115" s="112"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="113"/>
+      <c r="G115" s="113"/>
+      <c r="H115" s="113"/>
+      <c r="I115" s="113"/>
+      <c r="J115" s="113"/>
+      <c r="K115" s="113"/>
+      <c r="L115" s="113"/>
+      <c r="M115" s="113"/>
+      <c r="N115" s="113"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="113"/>
+      <c r="Q115" s="113"/>
+      <c r="R115" s="113"/>
+      <c r="S115" s="113"/>
+      <c r="T115" s="113"/>
+      <c r="U115" s="113"/>
+      <c r="V115" s="113"/>
+      <c r="W115" s="113"/>
+      <c r="X115" s="113"/>
+      <c r="Y115" s="113"/>
+      <c r="Z115" s="113"/>
+      <c r="AA115" s="113"/>
+      <c r="AB115" s="113"/>
+      <c r="AC115" s="113"/>
+      <c r="AD115" s="113"/>
+      <c r="AE115" s="113"/>
+      <c r="AF115" s="113"/>
+      <c r="AG115" s="113"/>
+      <c r="AH115" s="113"/>
+      <c r="AI115" s="113"/>
+      <c r="AJ115" s="113"/>
+      <c r="AK115" s="113"/>
+      <c r="AL115" s="113"/>
+      <c r="AM115" s="113"/>
+      <c r="AN115" s="113"/>
+      <c r="AO115" s="113"/>
+      <c r="AP115" s="113"/>
+      <c r="AQ115" s="113"/>
+      <c r="AR115" s="113"/>
+      <c r="AS115" s="113"/>
+      <c r="AT115" s="113"/>
+      <c r="AU115" s="113"/>
+      <c r="AV115" s="113"/>
+      <c r="AW115" s="113"/>
+      <c r="AX115" s="113"/>
+      <c r="AY115" s="113"/>
+      <c r="AZ115" s="113"/>
+      <c r="BA115" s="113"/>
+      <c r="BB115" s="113"/>
+      <c r="BC115" s="113"/>
+      <c r="BD115" s="113"/>
+      <c r="BE115" s="113"/>
+      <c r="BF115" s="113"/>
+      <c r="BG115" s="113"/>
+      <c r="BH115" s="113"/>
+      <c r="BI115" s="113"/>
+      <c r="BJ115" s="113"/>
+      <c r="BK115" s="113"/>
+      <c r="BL115" s="113"/>
+      <c r="BM115" s="113"/>
+      <c r="BN115" s="113"/>
+      <c r="BO115" s="113"/>
+      <c r="BP115" s="113"/>
+      <c r="BQ115" s="113"/>
+      <c r="BR115" s="113"/>
+      <c r="BS115" s="114"/>
     </row>
     <row r="116" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
-      <c r="T116" s="25"/>
-      <c r="U116" s="25"/>
-      <c r="V116" s="25"/>
-      <c r="W116" s="25"/>
-      <c r="X116" s="25"/>
-      <c r="Y116" s="25"/>
-      <c r="Z116" s="25"/>
-      <c r="AA116" s="25"/>
-      <c r="AB116" s="25"/>
-      <c r="AC116" s="25"/>
-      <c r="AD116" s="25"/>
-      <c r="AE116" s="25"/>
-      <c r="AF116" s="25"/>
-      <c r="AG116" s="25"/>
-      <c r="AH116" s="25"/>
-      <c r="AI116" s="25"/>
-      <c r="AJ116" s="25"/>
-      <c r="AK116" s="25"/>
-      <c r="AL116" s="25"/>
-      <c r="AM116" s="25"/>
-      <c r="AN116" s="25"/>
-      <c r="AO116" s="25"/>
-      <c r="AP116" s="25"/>
-      <c r="AQ116" s="25"/>
-      <c r="AR116" s="25"/>
-      <c r="AS116" s="25"/>
-      <c r="AT116" s="25"/>
-      <c r="AU116" s="25"/>
-      <c r="AV116" s="25"/>
-      <c r="AW116" s="25"/>
-      <c r="AX116" s="25"/>
-      <c r="AY116" s="25"/>
-      <c r="AZ116" s="25"/>
-      <c r="BA116" s="25"/>
-      <c r="BB116" s="25"/>
-      <c r="BC116" s="25"/>
-      <c r="BD116" s="25"/>
-      <c r="BE116" s="25"/>
-      <c r="BF116" s="25"/>
-      <c r="BG116" s="25"/>
-      <c r="BH116" s="25"/>
-      <c r="BI116" s="25"/>
-      <c r="BJ116" s="25"/>
-      <c r="BK116" s="25"/>
-      <c r="BL116" s="25"/>
-      <c r="BM116" s="25"/>
-      <c r="BN116" s="25"/>
-      <c r="BO116" s="25"/>
-      <c r="BP116" s="25"/>
-      <c r="BQ116" s="25"/>
-      <c r="BR116" s="25"/>
-      <c r="BS116" s="26"/>
+      <c r="A116" s="112"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="113"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="113"/>
+      <c r="G116" s="113"/>
+      <c r="H116" s="113"/>
+      <c r="I116" s="113"/>
+      <c r="J116" s="113"/>
+      <c r="K116" s="113"/>
+      <c r="L116" s="113"/>
+      <c r="M116" s="113"/>
+      <c r="N116" s="113"/>
+      <c r="O116" s="113"/>
+      <c r="P116" s="113"/>
+      <c r="Q116" s="113"/>
+      <c r="R116" s="113"/>
+      <c r="S116" s="113"/>
+      <c r="T116" s="113"/>
+      <c r="U116" s="113"/>
+      <c r="V116" s="113"/>
+      <c r="W116" s="113"/>
+      <c r="X116" s="113"/>
+      <c r="Y116" s="113"/>
+      <c r="Z116" s="113"/>
+      <c r="AA116" s="113"/>
+      <c r="AB116" s="113"/>
+      <c r="AC116" s="113"/>
+      <c r="AD116" s="113"/>
+      <c r="AE116" s="113"/>
+      <c r="AF116" s="113"/>
+      <c r="AG116" s="113"/>
+      <c r="AH116" s="113"/>
+      <c r="AI116" s="113"/>
+      <c r="AJ116" s="113"/>
+      <c r="AK116" s="113"/>
+      <c r="AL116" s="113"/>
+      <c r="AM116" s="113"/>
+      <c r="AN116" s="113"/>
+      <c r="AO116" s="113"/>
+      <c r="AP116" s="113"/>
+      <c r="AQ116" s="113"/>
+      <c r="AR116" s="113"/>
+      <c r="AS116" s="113"/>
+      <c r="AT116" s="113"/>
+      <c r="AU116" s="113"/>
+      <c r="AV116" s="113"/>
+      <c r="AW116" s="113"/>
+      <c r="AX116" s="113"/>
+      <c r="AY116" s="113"/>
+      <c r="AZ116" s="113"/>
+      <c r="BA116" s="113"/>
+      <c r="BB116" s="113"/>
+      <c r="BC116" s="113"/>
+      <c r="BD116" s="113"/>
+      <c r="BE116" s="113"/>
+      <c r="BF116" s="113"/>
+      <c r="BG116" s="113"/>
+      <c r="BH116" s="113"/>
+      <c r="BI116" s="113"/>
+      <c r="BJ116" s="113"/>
+      <c r="BK116" s="113"/>
+      <c r="BL116" s="113"/>
+      <c r="BM116" s="113"/>
+      <c r="BN116" s="113"/>
+      <c r="BO116" s="113"/>
+      <c r="BP116" s="113"/>
+      <c r="BQ116" s="113"/>
+      <c r="BR116" s="113"/>
+      <c r="BS116" s="114"/>
     </row>
     <row r="117" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="102" t="s">
+      <c r="A117" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="68"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="68"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
       <c r="J117" s="17"/>
@@ -15617,15 +15617,15 @@
       <c r="BS117" s="17"/>
     </row>
     <row r="118" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A118" s="103"/>
-      <c r="B118" s="54" t="s">
+      <c r="A118" s="72"/>
+      <c r="B118" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="55"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
       <c r="J118" s="17"/>
@@ -15692,17 +15692,17 @@
       <c r="BS118" s="17"/>
     </row>
     <row r="119" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A119" s="51" t="s">
+      <c r="A119" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="C119" s="101"/>
-      <c r="D119" s="101"/>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
       <c r="J119" s="17"/>
@@ -15769,15 +15769,15 @@
       <c r="BS119" s="17"/>
     </row>
     <row r="120" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A120" s="52"/>
-      <c r="B120" s="95" t="s">
+      <c r="A120" s="73"/>
+      <c r="B120" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
       <c r="J120" s="17"/>
@@ -15844,15 +15844,15 @@
       <c r="BS120" s="17"/>
     </row>
     <row r="121" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
-      <c r="B121" s="54" t="s">
+      <c r="A121" s="65"/>
+      <c r="B121" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="68"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="17"/>
@@ -15919,17 +15919,17 @@
       <c r="BS121" s="17"/>
     </row>
     <row r="122" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
       <c r="J122" s="17"/>
@@ -15996,15 +15996,15 @@
       <c r="BS122" s="17"/>
     </row>
     <row r="123" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A123" s="52"/>
-      <c r="B123" s="54" t="s">
+      <c r="A123" s="73"/>
+      <c r="B123" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
       <c r="J123" s="17"/>
@@ -16071,15 +16071,15 @@
       <c r="BS123" s="17"/>
     </row>
     <row r="124" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
-      <c r="B124" s="54" t="s">
+      <c r="A124" s="65"/>
+      <c r="B124" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="101"/>
-      <c r="G124" s="101"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
@@ -16146,311 +16146,311 @@
       <c r="BS124" s="17"/>
     </row>
     <row r="125" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
-      <c r="M125" s="28"/>
-      <c r="N125" s="28"/>
-      <c r="O125" s="28"/>
-      <c r="P125" s="28"/>
-      <c r="Q125" s="28"/>
-      <c r="R125" s="28"/>
-      <c r="S125" s="28"/>
-      <c r="T125" s="28"/>
-      <c r="U125" s="28"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
-      <c r="AE125" s="28"/>
-      <c r="AF125" s="28"/>
-      <c r="AG125" s="28"/>
-      <c r="AH125" s="28"/>
-      <c r="AI125" s="28"/>
-      <c r="AJ125" s="28"/>
-      <c r="AK125" s="28"/>
-      <c r="AL125" s="28"/>
-      <c r="AM125" s="28"/>
-      <c r="AN125" s="28"/>
-      <c r="AO125" s="28"/>
-      <c r="AP125" s="28"/>
-      <c r="AQ125" s="28"/>
-      <c r="AR125" s="28"/>
-      <c r="AS125" s="28"/>
-      <c r="AT125" s="28"/>
-      <c r="AU125" s="28"/>
-      <c r="AV125" s="28"/>
-      <c r="AW125" s="28"/>
-      <c r="AX125" s="28"/>
-      <c r="AY125" s="28"/>
-      <c r="AZ125" s="28"/>
-      <c r="BA125" s="28"/>
-      <c r="BB125" s="28"/>
-      <c r="BC125" s="28"/>
-      <c r="BD125" s="28"/>
-      <c r="BE125" s="28"/>
-      <c r="BF125" s="28"/>
-      <c r="BG125" s="28"/>
-      <c r="BH125" s="28"/>
-      <c r="BI125" s="28"/>
-      <c r="BJ125" s="28"/>
-      <c r="BK125" s="28"/>
-      <c r="BL125" s="28"/>
-      <c r="BM125" s="28"/>
-      <c r="BN125" s="28"/>
-      <c r="BO125" s="28"/>
-      <c r="BP125" s="28"/>
-      <c r="BQ125" s="28"/>
-      <c r="BR125" s="28"/>
-      <c r="BS125" s="29"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+      <c r="G125" s="116"/>
+      <c r="H125" s="116"/>
+      <c r="I125" s="116"/>
+      <c r="J125" s="116"/>
+      <c r="K125" s="116"/>
+      <c r="L125" s="116"/>
+      <c r="M125" s="116"/>
+      <c r="N125" s="116"/>
+      <c r="O125" s="116"/>
+      <c r="P125" s="116"/>
+      <c r="Q125" s="116"/>
+      <c r="R125" s="116"/>
+      <c r="S125" s="116"/>
+      <c r="T125" s="116"/>
+      <c r="U125" s="116"/>
+      <c r="V125" s="116"/>
+      <c r="W125" s="116"/>
+      <c r="X125" s="116"/>
+      <c r="Y125" s="116"/>
+      <c r="Z125" s="116"/>
+      <c r="AA125" s="116"/>
+      <c r="AB125" s="116"/>
+      <c r="AC125" s="116"/>
+      <c r="AD125" s="116"/>
+      <c r="AE125" s="116"/>
+      <c r="AF125" s="116"/>
+      <c r="AG125" s="116"/>
+      <c r="AH125" s="116"/>
+      <c r="AI125" s="116"/>
+      <c r="AJ125" s="116"/>
+      <c r="AK125" s="116"/>
+      <c r="AL125" s="116"/>
+      <c r="AM125" s="116"/>
+      <c r="AN125" s="116"/>
+      <c r="AO125" s="116"/>
+      <c r="AP125" s="116"/>
+      <c r="AQ125" s="116"/>
+      <c r="AR125" s="116"/>
+      <c r="AS125" s="116"/>
+      <c r="AT125" s="116"/>
+      <c r="AU125" s="116"/>
+      <c r="AV125" s="116"/>
+      <c r="AW125" s="116"/>
+      <c r="AX125" s="116"/>
+      <c r="AY125" s="116"/>
+      <c r="AZ125" s="116"/>
+      <c r="BA125" s="116"/>
+      <c r="BB125" s="116"/>
+      <c r="BC125" s="116"/>
+      <c r="BD125" s="116"/>
+      <c r="BE125" s="116"/>
+      <c r="BF125" s="116"/>
+      <c r="BG125" s="116"/>
+      <c r="BH125" s="116"/>
+      <c r="BI125" s="116"/>
+      <c r="BJ125" s="116"/>
+      <c r="BK125" s="116"/>
+      <c r="BL125" s="116"/>
+      <c r="BM125" s="116"/>
+      <c r="BN125" s="116"/>
+      <c r="BO125" s="116"/>
+      <c r="BP125" s="116"/>
+      <c r="BQ125" s="116"/>
+      <c r="BR125" s="116"/>
+      <c r="BS125" s="117"/>
     </row>
     <row r="126" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A126" s="30"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
-      <c r="K126" s="31"/>
-      <c r="L126" s="31"/>
-      <c r="M126" s="31"/>
-      <c r="N126" s="31"/>
-      <c r="O126" s="31"/>
-      <c r="P126" s="31"/>
-      <c r="Q126" s="31"/>
-      <c r="R126" s="31"/>
-      <c r="S126" s="31"/>
-      <c r="T126" s="31"/>
-      <c r="U126" s="31"/>
-      <c r="V126" s="31"/>
-      <c r="W126" s="31"/>
-      <c r="X126" s="31"/>
-      <c r="Y126" s="31"/>
-      <c r="Z126" s="31"/>
-      <c r="AA126" s="31"/>
-      <c r="AB126" s="31"/>
-      <c r="AC126" s="31"/>
-      <c r="AD126" s="31"/>
-      <c r="AE126" s="31"/>
-      <c r="AF126" s="31"/>
-      <c r="AG126" s="31"/>
-      <c r="AH126" s="31"/>
-      <c r="AI126" s="31"/>
-      <c r="AJ126" s="31"/>
-      <c r="AK126" s="31"/>
-      <c r="AL126" s="31"/>
-      <c r="AM126" s="31"/>
-      <c r="AN126" s="31"/>
-      <c r="AO126" s="31"/>
-      <c r="AP126" s="31"/>
-      <c r="AQ126" s="31"/>
-      <c r="AR126" s="31"/>
-      <c r="AS126" s="31"/>
-      <c r="AT126" s="31"/>
-      <c r="AU126" s="31"/>
-      <c r="AV126" s="31"/>
-      <c r="AW126" s="31"/>
-      <c r="AX126" s="31"/>
-      <c r="AY126" s="31"/>
-      <c r="AZ126" s="31"/>
-      <c r="BA126" s="31"/>
-      <c r="BB126" s="31"/>
-      <c r="BC126" s="31"/>
-      <c r="BD126" s="31"/>
-      <c r="BE126" s="31"/>
-      <c r="BF126" s="31"/>
-      <c r="BG126" s="31"/>
-      <c r="BH126" s="31"/>
-      <c r="BI126" s="31"/>
-      <c r="BJ126" s="31"/>
-      <c r="BK126" s="31"/>
-      <c r="BL126" s="31"/>
-      <c r="BM126" s="31"/>
-      <c r="BN126" s="31"/>
-      <c r="BO126" s="31"/>
-      <c r="BP126" s="31"/>
-      <c r="BQ126" s="31"/>
-      <c r="BR126" s="31"/>
-      <c r="BS126" s="32"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="119"/>
+      <c r="C126" s="119"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="119"/>
+      <c r="F126" s="119"/>
+      <c r="G126" s="119"/>
+      <c r="H126" s="119"/>
+      <c r="I126" s="119"/>
+      <c r="J126" s="119"/>
+      <c r="K126" s="119"/>
+      <c r="L126" s="119"/>
+      <c r="M126" s="119"/>
+      <c r="N126" s="119"/>
+      <c r="O126" s="119"/>
+      <c r="P126" s="119"/>
+      <c r="Q126" s="119"/>
+      <c r="R126" s="119"/>
+      <c r="S126" s="119"/>
+      <c r="T126" s="119"/>
+      <c r="U126" s="119"/>
+      <c r="V126" s="119"/>
+      <c r="W126" s="119"/>
+      <c r="X126" s="119"/>
+      <c r="Y126" s="119"/>
+      <c r="Z126" s="119"/>
+      <c r="AA126" s="119"/>
+      <c r="AB126" s="119"/>
+      <c r="AC126" s="119"/>
+      <c r="AD126" s="119"/>
+      <c r="AE126" s="119"/>
+      <c r="AF126" s="119"/>
+      <c r="AG126" s="119"/>
+      <c r="AH126" s="119"/>
+      <c r="AI126" s="119"/>
+      <c r="AJ126" s="119"/>
+      <c r="AK126" s="119"/>
+      <c r="AL126" s="119"/>
+      <c r="AM126" s="119"/>
+      <c r="AN126" s="119"/>
+      <c r="AO126" s="119"/>
+      <c r="AP126" s="119"/>
+      <c r="AQ126" s="119"/>
+      <c r="AR126" s="119"/>
+      <c r="AS126" s="119"/>
+      <c r="AT126" s="119"/>
+      <c r="AU126" s="119"/>
+      <c r="AV126" s="119"/>
+      <c r="AW126" s="119"/>
+      <c r="AX126" s="119"/>
+      <c r="AY126" s="119"/>
+      <c r="AZ126" s="119"/>
+      <c r="BA126" s="119"/>
+      <c r="BB126" s="119"/>
+      <c r="BC126" s="119"/>
+      <c r="BD126" s="119"/>
+      <c r="BE126" s="119"/>
+      <c r="BF126" s="119"/>
+      <c r="BG126" s="119"/>
+      <c r="BH126" s="119"/>
+      <c r="BI126" s="119"/>
+      <c r="BJ126" s="119"/>
+      <c r="BK126" s="119"/>
+      <c r="BL126" s="119"/>
+      <c r="BM126" s="119"/>
+      <c r="BN126" s="119"/>
+      <c r="BO126" s="119"/>
+      <c r="BP126" s="119"/>
+      <c r="BQ126" s="119"/>
+      <c r="BR126" s="119"/>
+      <c r="BS126" s="120"/>
     </row>
     <row r="127" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A127" s="30"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
-      <c r="K127" s="31"/>
-      <c r="L127" s="31"/>
-      <c r="M127" s="31"/>
-      <c r="N127" s="31"/>
-      <c r="O127" s="31"/>
-      <c r="P127" s="31"/>
-      <c r="Q127" s="31"/>
-      <c r="R127" s="31"/>
-      <c r="S127" s="31"/>
-      <c r="T127" s="31"/>
-      <c r="U127" s="31"/>
-      <c r="V127" s="31"/>
-      <c r="W127" s="31"/>
-      <c r="X127" s="31"/>
-      <c r="Y127" s="31"/>
-      <c r="Z127" s="31"/>
-      <c r="AA127" s="31"/>
-      <c r="AB127" s="31"/>
-      <c r="AC127" s="31"/>
-      <c r="AD127" s="31"/>
-      <c r="AE127" s="31"/>
-      <c r="AF127" s="31"/>
-      <c r="AG127" s="31"/>
-      <c r="AH127" s="31"/>
-      <c r="AI127" s="31"/>
-      <c r="AJ127" s="31"/>
-      <c r="AK127" s="31"/>
-      <c r="AL127" s="31"/>
-      <c r="AM127" s="31"/>
-      <c r="AN127" s="31"/>
-      <c r="AO127" s="31"/>
-      <c r="AP127" s="31"/>
-      <c r="AQ127" s="31"/>
-      <c r="AR127" s="31"/>
-      <c r="AS127" s="31"/>
-      <c r="AT127" s="31"/>
-      <c r="AU127" s="31"/>
-      <c r="AV127" s="31"/>
-      <c r="AW127" s="31"/>
-      <c r="AX127" s="31"/>
-      <c r="AY127" s="31"/>
-      <c r="AZ127" s="31"/>
-      <c r="BA127" s="31"/>
-      <c r="BB127" s="31"/>
-      <c r="BC127" s="31"/>
-      <c r="BD127" s="31"/>
-      <c r="BE127" s="31"/>
-      <c r="BF127" s="31"/>
-      <c r="BG127" s="31"/>
-      <c r="BH127" s="31"/>
-      <c r="BI127" s="31"/>
-      <c r="BJ127" s="31"/>
-      <c r="BK127" s="31"/>
-      <c r="BL127" s="31"/>
-      <c r="BM127" s="31"/>
-      <c r="BN127" s="31"/>
-      <c r="BO127" s="31"/>
-      <c r="BP127" s="31"/>
-      <c r="BQ127" s="31"/>
-      <c r="BR127" s="31"/>
-      <c r="BS127" s="32"/>
+      <c r="A127" s="118"/>
+      <c r="B127" s="119"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="119"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="119"/>
+      <c r="G127" s="119"/>
+      <c r="H127" s="119"/>
+      <c r="I127" s="119"/>
+      <c r="J127" s="119"/>
+      <c r="K127" s="119"/>
+      <c r="L127" s="119"/>
+      <c r="M127" s="119"/>
+      <c r="N127" s="119"/>
+      <c r="O127" s="119"/>
+      <c r="P127" s="119"/>
+      <c r="Q127" s="119"/>
+      <c r="R127" s="119"/>
+      <c r="S127" s="119"/>
+      <c r="T127" s="119"/>
+      <c r="U127" s="119"/>
+      <c r="V127" s="119"/>
+      <c r="W127" s="119"/>
+      <c r="X127" s="119"/>
+      <c r="Y127" s="119"/>
+      <c r="Z127" s="119"/>
+      <c r="AA127" s="119"/>
+      <c r="AB127" s="119"/>
+      <c r="AC127" s="119"/>
+      <c r="AD127" s="119"/>
+      <c r="AE127" s="119"/>
+      <c r="AF127" s="119"/>
+      <c r="AG127" s="119"/>
+      <c r="AH127" s="119"/>
+      <c r="AI127" s="119"/>
+      <c r="AJ127" s="119"/>
+      <c r="AK127" s="119"/>
+      <c r="AL127" s="119"/>
+      <c r="AM127" s="119"/>
+      <c r="AN127" s="119"/>
+      <c r="AO127" s="119"/>
+      <c r="AP127" s="119"/>
+      <c r="AQ127" s="119"/>
+      <c r="AR127" s="119"/>
+      <c r="AS127" s="119"/>
+      <c r="AT127" s="119"/>
+      <c r="AU127" s="119"/>
+      <c r="AV127" s="119"/>
+      <c r="AW127" s="119"/>
+      <c r="AX127" s="119"/>
+      <c r="AY127" s="119"/>
+      <c r="AZ127" s="119"/>
+      <c r="BA127" s="119"/>
+      <c r="BB127" s="119"/>
+      <c r="BC127" s="119"/>
+      <c r="BD127" s="119"/>
+      <c r="BE127" s="119"/>
+      <c r="BF127" s="119"/>
+      <c r="BG127" s="119"/>
+      <c r="BH127" s="119"/>
+      <c r="BI127" s="119"/>
+      <c r="BJ127" s="119"/>
+      <c r="BK127" s="119"/>
+      <c r="BL127" s="119"/>
+      <c r="BM127" s="119"/>
+      <c r="BN127" s="119"/>
+      <c r="BO127" s="119"/>
+      <c r="BP127" s="119"/>
+      <c r="BQ127" s="119"/>
+      <c r="BR127" s="119"/>
+      <c r="BS127" s="120"/>
     </row>
     <row r="128" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A128" s="30"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
-      <c r="K128" s="31"/>
-      <c r="L128" s="31"/>
-      <c r="M128" s="31"/>
-      <c r="N128" s="31"/>
-      <c r="O128" s="31"/>
-      <c r="P128" s="31"/>
-      <c r="Q128" s="31"/>
-      <c r="R128" s="31"/>
-      <c r="S128" s="31"/>
-      <c r="T128" s="31"/>
-      <c r="U128" s="31"/>
-      <c r="V128" s="31"/>
-      <c r="W128" s="31"/>
-      <c r="X128" s="31"/>
-      <c r="Y128" s="31"/>
-      <c r="Z128" s="31"/>
-      <c r="AA128" s="31"/>
-      <c r="AB128" s="31"/>
-      <c r="AC128" s="31"/>
-      <c r="AD128" s="31"/>
-      <c r="AE128" s="31"/>
-      <c r="AF128" s="31"/>
-      <c r="AG128" s="31"/>
-      <c r="AH128" s="31"/>
-      <c r="AI128" s="31"/>
-      <c r="AJ128" s="31"/>
-      <c r="AK128" s="31"/>
-      <c r="AL128" s="31"/>
-      <c r="AM128" s="31"/>
-      <c r="AN128" s="31"/>
-      <c r="AO128" s="31"/>
-      <c r="AP128" s="31"/>
-      <c r="AQ128" s="31"/>
-      <c r="AR128" s="31"/>
-      <c r="AS128" s="31"/>
-      <c r="AT128" s="31"/>
-      <c r="AU128" s="31"/>
-      <c r="AV128" s="31"/>
-      <c r="AW128" s="31"/>
-      <c r="AX128" s="31"/>
-      <c r="AY128" s="31"/>
-      <c r="AZ128" s="31"/>
-      <c r="BA128" s="31"/>
-      <c r="BB128" s="31"/>
-      <c r="BC128" s="31"/>
-      <c r="BD128" s="31"/>
-      <c r="BE128" s="31"/>
-      <c r="BF128" s="31"/>
-      <c r="BG128" s="31"/>
-      <c r="BH128" s="31"/>
-      <c r="BI128" s="31"/>
-      <c r="BJ128" s="31"/>
-      <c r="BK128" s="31"/>
-      <c r="BL128" s="31"/>
-      <c r="BM128" s="31"/>
-      <c r="BN128" s="31"/>
-      <c r="BO128" s="31"/>
-      <c r="BP128" s="31"/>
-      <c r="BQ128" s="31"/>
-      <c r="BR128" s="31"/>
-      <c r="BS128" s="32"/>
+      <c r="A128" s="118"/>
+      <c r="B128" s="119"/>
+      <c r="C128" s="119"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="119"/>
+      <c r="G128" s="119"/>
+      <c r="H128" s="119"/>
+      <c r="I128" s="119"/>
+      <c r="J128" s="119"/>
+      <c r="K128" s="119"/>
+      <c r="L128" s="119"/>
+      <c r="M128" s="119"/>
+      <c r="N128" s="119"/>
+      <c r="O128" s="119"/>
+      <c r="P128" s="119"/>
+      <c r="Q128" s="119"/>
+      <c r="R128" s="119"/>
+      <c r="S128" s="119"/>
+      <c r="T128" s="119"/>
+      <c r="U128" s="119"/>
+      <c r="V128" s="119"/>
+      <c r="W128" s="119"/>
+      <c r="X128" s="119"/>
+      <c r="Y128" s="119"/>
+      <c r="Z128" s="119"/>
+      <c r="AA128" s="119"/>
+      <c r="AB128" s="119"/>
+      <c r="AC128" s="119"/>
+      <c r="AD128" s="119"/>
+      <c r="AE128" s="119"/>
+      <c r="AF128" s="119"/>
+      <c r="AG128" s="119"/>
+      <c r="AH128" s="119"/>
+      <c r="AI128" s="119"/>
+      <c r="AJ128" s="119"/>
+      <c r="AK128" s="119"/>
+      <c r="AL128" s="119"/>
+      <c r="AM128" s="119"/>
+      <c r="AN128" s="119"/>
+      <c r="AO128" s="119"/>
+      <c r="AP128" s="119"/>
+      <c r="AQ128" s="119"/>
+      <c r="AR128" s="119"/>
+      <c r="AS128" s="119"/>
+      <c r="AT128" s="119"/>
+      <c r="AU128" s="119"/>
+      <c r="AV128" s="119"/>
+      <c r="AW128" s="119"/>
+      <c r="AX128" s="119"/>
+      <c r="AY128" s="119"/>
+      <c r="AZ128" s="119"/>
+      <c r="BA128" s="119"/>
+      <c r="BB128" s="119"/>
+      <c r="BC128" s="119"/>
+      <c r="BD128" s="119"/>
+      <c r="BE128" s="119"/>
+      <c r="BF128" s="119"/>
+      <c r="BG128" s="119"/>
+      <c r="BH128" s="119"/>
+      <c r="BI128" s="119"/>
+      <c r="BJ128" s="119"/>
+      <c r="BK128" s="119"/>
+      <c r="BL128" s="119"/>
+      <c r="BM128" s="119"/>
+      <c r="BN128" s="119"/>
+      <c r="BO128" s="119"/>
+      <c r="BP128" s="119"/>
+      <c r="BQ128" s="119"/>
+      <c r="BR128" s="119"/>
+      <c r="BS128" s="120"/>
     </row>
     <row r="129" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A129" s="58" t="s">
+      <c r="A129" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="101"/>
-      <c r="D129" s="101"/>
-      <c r="E129" s="101"/>
-      <c r="F129" s="101"/>
-      <c r="G129" s="101"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="69"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="69"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
       <c r="J129" s="17"/>
@@ -16517,15 +16517,15 @@
       <c r="BS129" s="17"/>
     </row>
     <row r="130" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A130" s="59"/>
-      <c r="B130" s="54" t="s">
+      <c r="A130" s="70"/>
+      <c r="B130" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="55"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
       <c r="J130" s="17"/>
@@ -16592,15 +16592,15 @@
       <c r="BS130" s="17"/>
     </row>
     <row r="131" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
-      <c r="B131" s="54" t="s">
+      <c r="A131" s="63"/>
+      <c r="B131" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="68"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
       <c r="J131" s="17"/>
@@ -16667,17 +16667,17 @@
       <c r="BS131" s="17"/>
     </row>
     <row r="132" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="B132" s="99" t="s">
+      <c r="B132" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="C132" s="100"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="100"/>
-      <c r="F132" s="100"/>
-      <c r="G132" s="100"/>
+      <c r="C132" s="108"/>
+      <c r="D132" s="108"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="108"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
       <c r="J132" s="17"/>
@@ -16744,15 +16744,15 @@
       <c r="BS132" s="17"/>
     </row>
     <row r="133" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
-      <c r="B133" s="54" t="s">
+      <c r="A133" s="65"/>
+      <c r="B133" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
       <c r="J133" s="17"/>
@@ -16819,17 +16819,17 @@
       <c r="BS133" s="17"/>
     </row>
     <row r="134" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A134" s="58" t="s">
+      <c r="A134" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
       <c r="J134" s="17"/>
@@ -16896,15 +16896,15 @@
       <c r="BS134" s="17"/>
     </row>
     <row r="135" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A135" s="59"/>
-      <c r="B135" s="56" t="s">
+      <c r="A135" s="70"/>
+      <c r="B135" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
+      <c r="C135" s="106"/>
+      <c r="D135" s="106"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="106"/>
+      <c r="G135" s="106"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
       <c r="J135" s="17"/>
@@ -16971,15 +16971,15 @@
       <c r="BS135" s="17"/>
     </row>
     <row r="136" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A136" s="59"/>
-      <c r="B136" s="54" t="s">
+      <c r="A136" s="70"/>
+      <c r="B136" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="55"/>
-      <c r="D136" s="55"/>
-      <c r="E136" s="55"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="55"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
       <c r="J136" s="17"/>
@@ -17046,15 +17046,15 @@
       <c r="BS136" s="17"/>
     </row>
     <row r="137" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A137" s="59"/>
-      <c r="B137" s="54" t="s">
+      <c r="A137" s="70"/>
+      <c r="B137" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="55"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="55"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
       <c r="J137" s="17"/>
@@ -17121,15 +17121,15 @@
       <c r="BS137" s="17"/>
     </row>
     <row r="138" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A138" s="59"/>
-      <c r="B138" s="54" t="s">
+      <c r="A138" s="70"/>
+      <c r="B138" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="C138" s="55"/>
-      <c r="D138" s="55"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="55"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="68"/>
+      <c r="F138" s="68"/>
+      <c r="G138" s="68"/>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
       <c r="J138" s="17"/>
@@ -17196,15 +17196,15 @@
       <c r="BS138" s="17"/>
     </row>
     <row r="139" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A139" s="59"/>
-      <c r="B139" s="54" t="s">
+      <c r="A139" s="70"/>
+      <c r="B139" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="55"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="55"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="68"/>
+      <c r="F139" s="68"/>
+      <c r="G139" s="68"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
       <c r="J139" s="17"/>
@@ -17271,15 +17271,15 @@
       <c r="BS139" s="17"/>
     </row>
     <row r="140" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A140" s="59"/>
-      <c r="B140" s="54" t="s">
+      <c r="A140" s="70"/>
+      <c r="B140" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="68"/>
+      <c r="F140" s="68"/>
+      <c r="G140" s="68"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
@@ -17346,15 +17346,15 @@
       <c r="BS140" s="17"/>
     </row>
     <row r="141" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A141" s="59"/>
-      <c r="B141" s="54" t="s">
+      <c r="A141" s="70"/>
+      <c r="B141" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="55"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="68"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="68"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
@@ -17421,17 +17421,17 @@
       <c r="BS141" s="17"/>
     </row>
     <row r="142" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A142" s="51" t="s">
+      <c r="A142" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="55"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="55"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="68"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="68"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
@@ -17498,15 +17498,15 @@
       <c r="BS142" s="17"/>
     </row>
     <row r="143" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A143" s="52"/>
-      <c r="B143" s="54" t="s">
+      <c r="A143" s="73"/>
+      <c r="B143" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="55"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="55"/>
-      <c r="G143" s="55"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
@@ -17573,15 +17573,15 @@
       <c r="BS143" s="17"/>
     </row>
     <row r="144" spans="1:71" x14ac:dyDescent="0.3">
-      <c r="A144" s="53"/>
-      <c r="B144" s="56" t="s">
+      <c r="A144" s="65"/>
+      <c r="B144" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
+      <c r="C144" s="106"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="106"/>
+      <c r="F144" s="106"/>
+      <c r="G144" s="106"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
       <c r="J144" s="17"/>
@@ -17654,125 +17654,80 @@
   </sheetData>
   <autoFilter ref="Q1:Q145"/>
   <mergeCells count="217">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B42:G43"/>
-    <mergeCell ref="B44:G46"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="A99:BS102"/>
+    <mergeCell ref="A113:BS116"/>
+    <mergeCell ref="A125:BS128"/>
+    <mergeCell ref="A47:BS50"/>
+    <mergeCell ref="A68:BS71"/>
+    <mergeCell ref="A85:BS88"/>
+    <mergeCell ref="BF1:BG6"/>
+    <mergeCell ref="BH1:BI6"/>
+    <mergeCell ref="BJ1:BK6"/>
+    <mergeCell ref="BL1:BM6"/>
+    <mergeCell ref="BN1:BO6"/>
+    <mergeCell ref="BP1:BQ6"/>
+    <mergeCell ref="BR1:BS6"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="BF7:BG7"/>
+    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="BJ7:BK7"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="AN1:AO6"/>
+    <mergeCell ref="AP1:AQ6"/>
+    <mergeCell ref="AR1:AS6"/>
+    <mergeCell ref="AT1:AU6"/>
+    <mergeCell ref="AV1:AW6"/>
+    <mergeCell ref="AX1:AY6"/>
+    <mergeCell ref="AZ1:BA6"/>
+    <mergeCell ref="BB1:BC6"/>
+    <mergeCell ref="BD1:BE6"/>
+    <mergeCell ref="X1:Y6"/>
+    <mergeCell ref="Z1:AA6"/>
+    <mergeCell ref="AB1:AC6"/>
+    <mergeCell ref="AD1:AE6"/>
+    <mergeCell ref="AF1:AG6"/>
+    <mergeCell ref="AH1:AI6"/>
+    <mergeCell ref="AJ1:AK6"/>
+    <mergeCell ref="AL1:AM6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B143:G143"/>
+    <mergeCell ref="B144:G144"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="A134:A141"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B129:G129"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="A9:A12"/>
@@ -17797,80 +17752,125 @@
     <mergeCell ref="B5:G7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B143:G143"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="A134:A141"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B140:G140"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="X1:Y6"/>
-    <mergeCell ref="Z1:AA6"/>
-    <mergeCell ref="AB1:AC6"/>
-    <mergeCell ref="AD1:AE6"/>
-    <mergeCell ref="AF1:AG6"/>
-    <mergeCell ref="AH1:AI6"/>
-    <mergeCell ref="AJ1:AK6"/>
-    <mergeCell ref="AL1:AM6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="BJ7:BK7"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="AN1:AO6"/>
-    <mergeCell ref="AP1:AQ6"/>
-    <mergeCell ref="AR1:AS6"/>
-    <mergeCell ref="AT1:AU6"/>
-    <mergeCell ref="AV1:AW6"/>
-    <mergeCell ref="AX1:AY6"/>
-    <mergeCell ref="AZ1:BA6"/>
-    <mergeCell ref="BB1:BC6"/>
-    <mergeCell ref="BD1:BE6"/>
-    <mergeCell ref="A99:BS102"/>
-    <mergeCell ref="A113:BS116"/>
-    <mergeCell ref="A125:BS128"/>
-    <mergeCell ref="A47:BS50"/>
-    <mergeCell ref="A68:BS71"/>
-    <mergeCell ref="A85:BS88"/>
-    <mergeCell ref="BF1:BG6"/>
-    <mergeCell ref="BH1:BI6"/>
-    <mergeCell ref="BJ1:BK6"/>
-    <mergeCell ref="BL1:BM6"/>
-    <mergeCell ref="BN1:BO6"/>
-    <mergeCell ref="BP1:BQ6"/>
-    <mergeCell ref="BR1:BS6"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BB7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="BF7:BG7"/>
-    <mergeCell ref="BH7:BI7"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B42:G43"/>
+    <mergeCell ref="B44:G46"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B64:G64"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:BS144">
     <cfRule type="iconSet" priority="1">
